--- a/atndnc-mngmnt/documents/basic-design-documents/business-req/システム化業務フロー.xlsx
+++ b/atndnc-mngmnt/documents/basic-design-documents/business-req/システム化業務フロー.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\atndnc-mngmnt\documents\basic-design-documents\business-req\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ttaku\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFDCC021-DCF1-44B6-9811-A696B58F0381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B24923BD-7A84-483C-B17B-0FB594DD360D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3900" yWindow="330" windowWidth="16800" windowHeight="15870" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -515,6 +515,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -553,15 +562,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -19338,6 +19338,300 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>100852</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>174811</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>74767</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="236" name="吹き出し: 四角形 235">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D1F66A0-9039-4A5B-8EF3-01D9D9F8B4C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3137646" y="13984943"/>
+          <a:ext cx="1866900" cy="1150530"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -21433"/>
+            <a:gd name="adj2" fmla="val -62169"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>上司</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>①</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>について代理で管理者が勤怠チェック可能とする</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>119590</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="237" name="吹き出し: 四角形 236">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC898258-6374-4B3D-88B3-91087C81DE71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3115236" y="23890942"/>
+          <a:ext cx="1866900" cy="1150530"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -21433"/>
+            <a:gd name="adj2" fmla="val -62169"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>上司</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>①</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>について代理で管理者が</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>最終</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>勤怠チェック可能とする</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -22865,7 +23159,10 @@
   <dimension ref="A1:BC164"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="60" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection sqref="A1:F2"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -22874,143 +23171,143 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="37" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="37" t="s">
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="39"/>
-      <c r="AF1" s="37" t="s">
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="41"/>
+      <c r="AA1" s="41"/>
+      <c r="AB1" s="41"/>
+      <c r="AC1" s="41"/>
+      <c r="AD1" s="41"/>
+      <c r="AE1" s="42"/>
+      <c r="AF1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="38"/>
-      <c r="AH1" s="38"/>
-      <c r="AI1" s="39"/>
-      <c r="AJ1" s="27" t="s">
+      <c r="AG1" s="41"/>
+      <c r="AH1" s="41"/>
+      <c r="AI1" s="42"/>
+      <c r="AJ1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="AK1" s="28"/>
-      <c r="AL1" s="28"/>
-      <c r="AM1" s="28"/>
-      <c r="AN1" s="28"/>
-      <c r="AO1" s="28"/>
-      <c r="AP1" s="28"/>
-      <c r="AQ1" s="29"/>
-      <c r="AR1" s="37" t="s">
+      <c r="AK1" s="31"/>
+      <c r="AL1" s="31"/>
+      <c r="AM1" s="31"/>
+      <c r="AN1" s="31"/>
+      <c r="AO1" s="31"/>
+      <c r="AP1" s="31"/>
+      <c r="AQ1" s="32"/>
+      <c r="AR1" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="AS1" s="38"/>
-      <c r="AT1" s="38"/>
-      <c r="AU1" s="39"/>
-      <c r="AV1" s="27" t="s">
+      <c r="AS1" s="41"/>
+      <c r="AT1" s="41"/>
+      <c r="AU1" s="42"/>
+      <c r="AV1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="AW1" s="28"/>
-      <c r="AX1" s="28"/>
-      <c r="AY1" s="28"/>
-      <c r="AZ1" s="28"/>
-      <c r="BA1" s="28"/>
-      <c r="BB1" s="28"/>
-      <c r="BC1" s="29"/>
+      <c r="AW1" s="31"/>
+      <c r="AX1" s="31"/>
+      <c r="AY1" s="31"/>
+      <c r="AZ1" s="31"/>
+      <c r="BA1" s="31"/>
+      <c r="BB1" s="31"/>
+      <c r="BC1" s="32"/>
     </row>
     <row r="2" spans="1:55" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="27" t="str">
+      <c r="A2" s="33"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="30" t="str">
         <f ca="1">RIGHT(CELL("filename",O2),LEN(CELL("filename",O2))-FIND("]",CELL("filename",O2)))</f>
         <v>勤怠報告フロー</v>
       </c>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="28"/>
-      <c r="W2" s="28"/>
-      <c r="X2" s="28"/>
-      <c r="Y2" s="28"/>
-      <c r="Z2" s="28"/>
-      <c r="AA2" s="28"/>
-      <c r="AB2" s="28"/>
-      <c r="AC2" s="28"/>
-      <c r="AD2" s="28"/>
-      <c r="AE2" s="29"/>
-      <c r="AF2" s="30" t="s">
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="31"/>
+      <c r="X2" s="31"/>
+      <c r="Y2" s="31"/>
+      <c r="Z2" s="31"/>
+      <c r="AA2" s="31"/>
+      <c r="AB2" s="31"/>
+      <c r="AC2" s="31"/>
+      <c r="AD2" s="31"/>
+      <c r="AE2" s="32"/>
+      <c r="AF2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="AG2" s="31"/>
-      <c r="AH2" s="31"/>
-      <c r="AI2" s="32"/>
-      <c r="AJ2" s="33">
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="36">
         <v>44533</v>
       </c>
-      <c r="AK2" s="28"/>
-      <c r="AL2" s="28"/>
-      <c r="AM2" s="28"/>
-      <c r="AN2" s="28"/>
-      <c r="AO2" s="28"/>
-      <c r="AP2" s="28"/>
-      <c r="AQ2" s="29"/>
-      <c r="AR2" s="30" t="s">
+      <c r="AK2" s="31"/>
+      <c r="AL2" s="31"/>
+      <c r="AM2" s="31"/>
+      <c r="AN2" s="31"/>
+      <c r="AO2" s="31"/>
+      <c r="AP2" s="31"/>
+      <c r="AQ2" s="32"/>
+      <c r="AR2" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="AS2" s="31"/>
-      <c r="AT2" s="31"/>
-      <c r="AU2" s="32"/>
-      <c r="AV2" s="33">
+      <c r="AS2" s="34"/>
+      <c r="AT2" s="34"/>
+      <c r="AU2" s="35"/>
+      <c r="AV2" s="36">
         <v>44533</v>
       </c>
-      <c r="AW2" s="28"/>
-      <c r="AX2" s="28"/>
-      <c r="AY2" s="28"/>
-      <c r="AZ2" s="28"/>
-      <c r="BA2" s="28"/>
-      <c r="BB2" s="28"/>
-      <c r="BC2" s="29"/>
+      <c r="AW2" s="31"/>
+      <c r="AX2" s="31"/>
+      <c r="AY2" s="31"/>
+      <c r="AZ2" s="31"/>
+      <c r="BA2" s="31"/>
+      <c r="BB2" s="31"/>
+      <c r="BC2" s="32"/>
     </row>
     <row r="3" spans="1:55" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BC3" s="14"/>
@@ -23082,7 +23379,7 @@
       <c r="BB4" s="16"/>
       <c r="BC4" s="17"/>
     </row>
-    <row r="5" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
       <c r="B5" s="19"/>
       <c r="C5" s="20"/>
@@ -28103,9 +28400,9 @@
       <c r="BC92" s="3"/>
     </row>
     <row r="93" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="40"/>
-      <c r="B93" s="41"/>
-      <c r="C93" s="42"/>
+      <c r="A93" s="27"/>
+      <c r="B93" s="28"/>
+      <c r="C93" s="29"/>
       <c r="D93" s="7"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
@@ -32152,9 +32449,9 @@
       <c r="BC163" s="3"/>
     </row>
     <row r="164" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="40"/>
-      <c r="B164" s="41"/>
-      <c r="C164" s="42"/>
+      <c r="A164" s="27"/>
+      <c r="B164" s="28"/>
+      <c r="C164" s="29"/>
       <c r="D164" s="7"/>
       <c r="E164" s="8"/>
       <c r="F164" s="8"/>
@@ -32210,11 +32507,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A4:C5"/>
-    <mergeCell ref="D4:P5"/>
-    <mergeCell ref="Q4:AC5"/>
-    <mergeCell ref="A27:C93"/>
-    <mergeCell ref="A94:C164"/>
     <mergeCell ref="AD4:AP5"/>
     <mergeCell ref="AQ4:BC5"/>
     <mergeCell ref="A6:C26"/>
@@ -32231,10 +32523,15 @@
     <mergeCell ref="AF1:AI1"/>
     <mergeCell ref="AJ1:AQ1"/>
     <mergeCell ref="AR1:AU1"/>
+    <mergeCell ref="A4:C5"/>
+    <mergeCell ref="D4:P5"/>
+    <mergeCell ref="Q4:AC5"/>
+    <mergeCell ref="A27:C93"/>
+    <mergeCell ref="A94:C164"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.11811023622047245" footer="0.11811023622047245"/>
-  <pageSetup paperSize="9" scale="56" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="57" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <rowBreaks count="2" manualBreakCount="2">
     <brk id="26" max="54" man="1"/>
     <brk id="93" max="54" man="1"/>
@@ -32248,7 +32545,10 @@
   <dimension ref="A1:BC26"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="60" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -32257,143 +32557,143 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="37" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="37" t="s">
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="39"/>
-      <c r="AF1" s="37" t="s">
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="41"/>
+      <c r="AA1" s="41"/>
+      <c r="AB1" s="41"/>
+      <c r="AC1" s="41"/>
+      <c r="AD1" s="41"/>
+      <c r="AE1" s="42"/>
+      <c r="AF1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="38"/>
-      <c r="AH1" s="38"/>
-      <c r="AI1" s="39"/>
-      <c r="AJ1" s="27" t="s">
+      <c r="AG1" s="41"/>
+      <c r="AH1" s="41"/>
+      <c r="AI1" s="42"/>
+      <c r="AJ1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="AK1" s="28"/>
-      <c r="AL1" s="28"/>
-      <c r="AM1" s="28"/>
-      <c r="AN1" s="28"/>
-      <c r="AO1" s="28"/>
-      <c r="AP1" s="28"/>
-      <c r="AQ1" s="29"/>
-      <c r="AR1" s="37" t="s">
+      <c r="AK1" s="31"/>
+      <c r="AL1" s="31"/>
+      <c r="AM1" s="31"/>
+      <c r="AN1" s="31"/>
+      <c r="AO1" s="31"/>
+      <c r="AP1" s="31"/>
+      <c r="AQ1" s="32"/>
+      <c r="AR1" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="AS1" s="38"/>
-      <c r="AT1" s="38"/>
-      <c r="AU1" s="39"/>
-      <c r="AV1" s="27" t="s">
+      <c r="AS1" s="41"/>
+      <c r="AT1" s="41"/>
+      <c r="AU1" s="42"/>
+      <c r="AV1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="AW1" s="28"/>
-      <c r="AX1" s="28"/>
-      <c r="AY1" s="28"/>
-      <c r="AZ1" s="28"/>
-      <c r="BA1" s="28"/>
-      <c r="BB1" s="28"/>
-      <c r="BC1" s="29"/>
+      <c r="AW1" s="31"/>
+      <c r="AX1" s="31"/>
+      <c r="AY1" s="31"/>
+      <c r="AZ1" s="31"/>
+      <c r="BA1" s="31"/>
+      <c r="BB1" s="31"/>
+      <c r="BC1" s="32"/>
     </row>
     <row r="2" spans="1:55" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="27" t="str">
+      <c r="A2" s="33"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="30" t="str">
         <f ca="1">RIGHT(CELL("filename",O2),LEN(CELL("filename",O2))-FIND("]",CELL("filename",O2)))</f>
         <v>〇〇〇申請フロー</v>
       </c>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="28"/>
-      <c r="W2" s="28"/>
-      <c r="X2" s="28"/>
-      <c r="Y2" s="28"/>
-      <c r="Z2" s="28"/>
-      <c r="AA2" s="28"/>
-      <c r="AB2" s="28"/>
-      <c r="AC2" s="28"/>
-      <c r="AD2" s="28"/>
-      <c r="AE2" s="29"/>
-      <c r="AF2" s="30" t="s">
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="31"/>
+      <c r="X2" s="31"/>
+      <c r="Y2" s="31"/>
+      <c r="Z2" s="31"/>
+      <c r="AA2" s="31"/>
+      <c r="AB2" s="31"/>
+      <c r="AC2" s="31"/>
+      <c r="AD2" s="31"/>
+      <c r="AE2" s="32"/>
+      <c r="AF2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="AG2" s="31"/>
-      <c r="AH2" s="31"/>
-      <c r="AI2" s="32"/>
-      <c r="AJ2" s="33">
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="36">
         <v>44533</v>
       </c>
-      <c r="AK2" s="28"/>
-      <c r="AL2" s="28"/>
-      <c r="AM2" s="28"/>
-      <c r="AN2" s="28"/>
-      <c r="AO2" s="28"/>
-      <c r="AP2" s="28"/>
-      <c r="AQ2" s="29"/>
-      <c r="AR2" s="30" t="s">
+      <c r="AK2" s="31"/>
+      <c r="AL2" s="31"/>
+      <c r="AM2" s="31"/>
+      <c r="AN2" s="31"/>
+      <c r="AO2" s="31"/>
+      <c r="AP2" s="31"/>
+      <c r="AQ2" s="32"/>
+      <c r="AR2" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="AS2" s="31"/>
-      <c r="AT2" s="31"/>
-      <c r="AU2" s="32"/>
-      <c r="AV2" s="33">
+      <c r="AS2" s="34"/>
+      <c r="AT2" s="34"/>
+      <c r="AU2" s="35"/>
+      <c r="AV2" s="36">
         <v>44533</v>
       </c>
-      <c r="AW2" s="28"/>
-      <c r="AX2" s="28"/>
-      <c r="AY2" s="28"/>
-      <c r="AZ2" s="28"/>
-      <c r="BA2" s="28"/>
-      <c r="BB2" s="28"/>
-      <c r="BC2" s="29"/>
+      <c r="AW2" s="31"/>
+      <c r="AX2" s="31"/>
+      <c r="AY2" s="31"/>
+      <c r="AZ2" s="31"/>
+      <c r="BA2" s="31"/>
+      <c r="BB2" s="31"/>
+      <c r="BC2" s="32"/>
     </row>
     <row r="3" spans="1:55" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BC3" s="14"/>
@@ -33723,11 +34023,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A4:C5"/>
-    <mergeCell ref="D4:P5"/>
-    <mergeCell ref="Q4:AC5"/>
-    <mergeCell ref="AD4:AP5"/>
-    <mergeCell ref="AQ4:BC5"/>
     <mergeCell ref="A6:C26"/>
     <mergeCell ref="AV1:BC1"/>
     <mergeCell ref="G2:N2"/>
@@ -33742,6 +34037,11 @@
     <mergeCell ref="AF1:AI1"/>
     <mergeCell ref="AJ1:AQ1"/>
     <mergeCell ref="AR1:AU1"/>
+    <mergeCell ref="A4:C5"/>
+    <mergeCell ref="D4:P5"/>
+    <mergeCell ref="Q4:AC5"/>
+    <mergeCell ref="AD4:AP5"/>
+    <mergeCell ref="AQ4:BC5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.11811023622047245" footer="0.11811023622047245"/>

--- a/atndnc-mngmnt/documents/basic-design-documents/business-req/システム化業務フロー.xlsx
+++ b/atndnc-mngmnt/documents/basic-design-documents/business-req/システム化業務フロー.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ttaku\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\atndnc-mngmnt\documents\basic-design-documents\business-req\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B24923BD-7A84-483C-B17B-0FB594DD360D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82ADEFC8-6585-4BCE-9837-D9EE31748B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="330" windowWidth="16800" windowHeight="15870" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="330" windowWidth="16800" windowHeight="15870" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="凡例" sheetId="3" r:id="rId1"/>
@@ -515,15 +515,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -562,6 +553,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2470,6 +2470,116 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>123266</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>8417</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>44824</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>109271</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="260" name="フローチャート: 端子 259">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB29FB91-23B9-437A-9438-82F1BD6F9D91}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7821707" y="27440417"/>
+          <a:ext cx="1176617" cy="459442"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartTerminator">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>勤怠データ出力</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>26</xdr:col>
       <xdr:colOff>7046</xdr:colOff>
       <xdr:row>113</xdr:row>
@@ -2502,12 +2612,12 @@
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj1" fmla="val 50369"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="28575">
           <a:solidFill>
-            <a:schemeClr val="accent2"/>
+            <a:srgbClr val="7030A0"/>
           </a:solidFill>
           <a:tailEnd type="triangle"/>
         </a:ln>
@@ -2563,12 +2673,12 @@
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 8389"/>
+            <a:gd name="adj1" fmla="val 36011"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="25400">
           <a:solidFill>
-            <a:srgbClr val="C00000"/>
+            <a:srgbClr val="92D050"/>
           </a:solidFill>
           <a:tailEnd type="triangle"/>
         </a:ln>
@@ -12068,7 +12178,7 @@
         </a:prstGeom>
         <a:ln w="28575">
           <a:solidFill>
-            <a:schemeClr val="accent5"/>
+            <a:srgbClr val="C00000"/>
           </a:solidFill>
           <a:tailEnd type="triangle"/>
         </a:ln>
@@ -12673,7 +12783,7 @@
         </a:prstGeom>
         <a:ln w="28575">
           <a:solidFill>
-            <a:srgbClr val="C00000"/>
+            <a:srgbClr val="92D050"/>
           </a:solidFill>
           <a:tailEnd type="triangle"/>
         </a:ln>
@@ -16883,12 +16993,12 @@
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj1" fmla="val 71440"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="28575">
           <a:solidFill>
-            <a:schemeClr val="accent2"/>
+            <a:srgbClr val="7030A0"/>
           </a:solidFill>
           <a:tailEnd type="triangle"/>
         </a:ln>
@@ -17128,12 +17238,12 @@
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 25249"/>
+            <a:gd name="adj1" fmla="val 44261"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="28575">
           <a:solidFill>
-            <a:srgbClr val="92D050"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
           <a:tailEnd type="triangle"/>
         </a:ln>
@@ -17189,12 +17299,12 @@
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 56835"/>
+            <a:gd name="adj1" fmla="val 67813"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="28575">
           <a:solidFill>
-            <a:srgbClr val="92D050"/>
+            <a:schemeClr val="accent2"/>
           </a:solidFill>
           <a:tailEnd type="triangle"/>
         </a:ln>
@@ -18148,10 +18258,10 @@
       <xdr:rowOff>119564</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>89645</xdr:colOff>
-      <xdr:row>151</xdr:row>
-      <xdr:rowOff>120362</xdr:rowOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>44824</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>173694</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -18164,13 +18274,13 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="875" idx="3"/>
-          <a:endCxn id="877" idx="1"/>
+          <a:endCxn id="880" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6905376" y="27192976"/>
-          <a:ext cx="344828" cy="798"/>
+          <a:ext cx="658595" cy="1129894"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -18202,16 +18312,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>89645</xdr:colOff>
-      <xdr:row>150</xdr:row>
-      <xdr:rowOff>33624</xdr:rowOff>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>112054</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>22420</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>83827</xdr:colOff>
-      <xdr:row>153</xdr:row>
-      <xdr:rowOff>27806</xdr:rowOff>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>106235</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>16601</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -18240,7 +18350,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7250204" y="26927742"/>
+          <a:off x="7989789" y="28171596"/>
           <a:ext cx="532064" cy="532064"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -18252,16 +18362,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>145677</xdr:colOff>
-      <xdr:row>148</xdr:row>
-      <xdr:rowOff>123268</xdr:rowOff>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>78438</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>100858</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>100855</xdr:colOff>
-      <xdr:row>150</xdr:row>
-      <xdr:rowOff>100857</xdr:rowOff>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>33615</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>78447</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -18276,7 +18386,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7306236" y="26658797"/>
+          <a:off x="7776879" y="28070740"/>
           <a:ext cx="672354" cy="336178"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDocument">
@@ -18337,16 +18447,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>145677</xdr:colOff>
-      <xdr:row>150</xdr:row>
-      <xdr:rowOff>44832</xdr:rowOff>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>33616</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>112068</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>52</xdr:col>
-      <xdr:colOff>22412</xdr:colOff>
-      <xdr:row>152</xdr:row>
-      <xdr:rowOff>168096</xdr:rowOff>
+      <xdr:colOff>134473</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>56037</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -18361,8 +18471,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8023412" y="26938950"/>
-          <a:ext cx="1311088" cy="481852"/>
+          <a:off x="8449234" y="28081950"/>
+          <a:ext cx="997327" cy="481852"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18405,16 +18515,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>148</xdr:row>
-      <xdr:rowOff>33622</xdr:rowOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>44824</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>145677</xdr:colOff>
-      <xdr:row>153</xdr:row>
-      <xdr:rowOff>100857</xdr:rowOff>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>134468</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>112063</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -18429,8 +18539,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7160560" y="26569151"/>
-          <a:ext cx="2117911" cy="963706"/>
+          <a:off x="7563971" y="28025911"/>
+          <a:ext cx="1882585" cy="593917"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18486,10 +18596,10 @@
       <xdr:rowOff>119564</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>174811</xdr:colOff>
-      <xdr:row>156</xdr:row>
-      <xdr:rowOff>129991</xdr:rowOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>44824</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>177054</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -18508,7 +18618,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6905376" y="27192976"/>
-          <a:ext cx="250700" cy="906897"/>
+          <a:ext cx="658595" cy="57490"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -18540,16 +18650,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>56030</xdr:colOff>
-      <xdr:row>154</xdr:row>
-      <xdr:rowOff>163609</xdr:rowOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>78443</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>6726</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>11206</xdr:colOff>
-      <xdr:row>156</xdr:row>
-      <xdr:rowOff>168093</xdr:rowOff>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>112059</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>11210</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -18564,8 +18674,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7216589" y="27774903"/>
-          <a:ext cx="851646" cy="363072"/>
+          <a:off x="7597590" y="27259432"/>
+          <a:ext cx="750793" cy="363072"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDocument">
           <a:avLst/>
@@ -18642,16 +18752,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>141193</xdr:colOff>
-      <xdr:row>155</xdr:row>
-      <xdr:rowOff>118789</xdr:rowOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>174810</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>29142</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>17928</xdr:colOff>
-      <xdr:row>159</xdr:row>
-      <xdr:rowOff>22413</xdr:rowOff>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>51545</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>112060</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -18666,7 +18776,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8018928" y="27909377"/>
+          <a:off x="7514663" y="26564671"/>
           <a:ext cx="1311088" cy="620801"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -18710,16 +18820,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>174811</xdr:colOff>
-      <xdr:row>154</xdr:row>
-      <xdr:rowOff>85167</xdr:rowOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>44824</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>174814</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>141193</xdr:colOff>
-      <xdr:row>158</xdr:row>
-      <xdr:rowOff>174813</xdr:rowOff>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>129987</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -18734,8 +18844,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7156076" y="27696461"/>
-          <a:ext cx="2117911" cy="806823"/>
+          <a:off x="7563971" y="26531049"/>
+          <a:ext cx="1878104" cy="1438833"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19164,15 +19274,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>145683</xdr:colOff>
+      <xdr:colOff>103415</xdr:colOff>
       <xdr:row>137</xdr:row>
       <xdr:rowOff>50428</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>138</xdr:row>
-      <xdr:rowOff>72847</xdr:rowOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>18716</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -19184,14 +19294,14 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="631" idx="3"/>
+          <a:stCxn id="629" idx="3"/>
           <a:endCxn id="636" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6947654" y="24613722"/>
-          <a:ext cx="750787" cy="201713"/>
+          <a:off x="6905386" y="24613722"/>
+          <a:ext cx="793055" cy="864759"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -19624,6 +19734,245 @@
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
             <a:effectLst/>
+            <a:latin typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>100859</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>162494</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>32524</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="242" name="コネクタ: カギ線 241">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7D397FF-D562-42A2-87B8-216DC16EF661}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="577" idx="3"/>
+          <a:endCxn id="591" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4751300" y="17195435"/>
+          <a:ext cx="2947141" cy="3097324"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 22243"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>173692</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>145681</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>8417</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="264" name="直線矢印コネクタ 263">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3451ED4-A19F-44FC-8E25-5FA0268F9CD4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="267" idx="1"/>
+          <a:endCxn id="260" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8410016" y="26860505"/>
+          <a:ext cx="364191" cy="579912"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>168090</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="672361" cy="672360"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="267" name="図 266">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0191AB9E-46B4-46E5-8644-F6E66DF1EA04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8774207" y="26524325"/>
+          <a:ext cx="672361" cy="672360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>134470</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>89655</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>68356</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>163053</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="268" name="テキスト ボックス 267">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FF02EFE-DE30-45DE-952D-AF9BAEE99155}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8908676" y="27163067"/>
+          <a:ext cx="471768" cy="252692"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1050">
+              <a:latin typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>DB</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
             <a:latin typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
             <a:ea typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
           </a:endParaRPr>
@@ -23171,143 +23520,143 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="40" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="40" t="s">
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="41"/>
-      <c r="AA1" s="41"/>
-      <c r="AB1" s="41"/>
-      <c r="AC1" s="41"/>
-      <c r="AD1" s="41"/>
-      <c r="AE1" s="42"/>
-      <c r="AF1" s="40" t="s">
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="38"/>
+      <c r="AC1" s="38"/>
+      <c r="AD1" s="38"/>
+      <c r="AE1" s="39"/>
+      <c r="AF1" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="41"/>
-      <c r="AH1" s="41"/>
-      <c r="AI1" s="42"/>
-      <c r="AJ1" s="30" t="s">
+      <c r="AG1" s="38"/>
+      <c r="AH1" s="38"/>
+      <c r="AI1" s="39"/>
+      <c r="AJ1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="AK1" s="31"/>
-      <c r="AL1" s="31"/>
-      <c r="AM1" s="31"/>
-      <c r="AN1" s="31"/>
-      <c r="AO1" s="31"/>
-      <c r="AP1" s="31"/>
-      <c r="AQ1" s="32"/>
-      <c r="AR1" s="40" t="s">
+      <c r="AK1" s="28"/>
+      <c r="AL1" s="28"/>
+      <c r="AM1" s="28"/>
+      <c r="AN1" s="28"/>
+      <c r="AO1" s="28"/>
+      <c r="AP1" s="28"/>
+      <c r="AQ1" s="29"/>
+      <c r="AR1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="AS1" s="41"/>
-      <c r="AT1" s="41"/>
-      <c r="AU1" s="42"/>
-      <c r="AV1" s="30" t="s">
+      <c r="AS1" s="38"/>
+      <c r="AT1" s="38"/>
+      <c r="AU1" s="39"/>
+      <c r="AV1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="AW1" s="31"/>
-      <c r="AX1" s="31"/>
-      <c r="AY1" s="31"/>
-      <c r="AZ1" s="31"/>
-      <c r="BA1" s="31"/>
-      <c r="BB1" s="31"/>
-      <c r="BC1" s="32"/>
+      <c r="AW1" s="28"/>
+      <c r="AX1" s="28"/>
+      <c r="AY1" s="28"/>
+      <c r="AZ1" s="28"/>
+      <c r="BA1" s="28"/>
+      <c r="BB1" s="28"/>
+      <c r="BC1" s="29"/>
     </row>
     <row r="2" spans="1:55" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="30" t="str">
+      <c r="A2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="27" t="str">
         <f ca="1">RIGHT(CELL("filename",O2),LEN(CELL("filename",O2))-FIND("]",CELL("filename",O2)))</f>
         <v>勤怠報告フロー</v>
       </c>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
-      <c r="V2" s="31"/>
-      <c r="W2" s="31"/>
-      <c r="X2" s="31"/>
-      <c r="Y2" s="31"/>
-      <c r="Z2" s="31"/>
-      <c r="AA2" s="31"/>
-      <c r="AB2" s="31"/>
-      <c r="AC2" s="31"/>
-      <c r="AD2" s="31"/>
-      <c r="AE2" s="32"/>
-      <c r="AF2" s="33" t="s">
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="28"/>
+      <c r="X2" s="28"/>
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="28"/>
+      <c r="AB2" s="28"/>
+      <c r="AC2" s="28"/>
+      <c r="AD2" s="28"/>
+      <c r="AE2" s="29"/>
+      <c r="AF2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="AG2" s="34"/>
-      <c r="AH2" s="34"/>
-      <c r="AI2" s="35"/>
-      <c r="AJ2" s="36">
+      <c r="AG2" s="31"/>
+      <c r="AH2" s="31"/>
+      <c r="AI2" s="32"/>
+      <c r="AJ2" s="33">
         <v>44533</v>
       </c>
-      <c r="AK2" s="31"/>
-      <c r="AL2" s="31"/>
-      <c r="AM2" s="31"/>
-      <c r="AN2" s="31"/>
-      <c r="AO2" s="31"/>
-      <c r="AP2" s="31"/>
-      <c r="AQ2" s="32"/>
-      <c r="AR2" s="33" t="s">
+      <c r="AK2" s="28"/>
+      <c r="AL2" s="28"/>
+      <c r="AM2" s="28"/>
+      <c r="AN2" s="28"/>
+      <c r="AO2" s="28"/>
+      <c r="AP2" s="28"/>
+      <c r="AQ2" s="29"/>
+      <c r="AR2" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="AS2" s="34"/>
-      <c r="AT2" s="34"/>
-      <c r="AU2" s="35"/>
-      <c r="AV2" s="36">
+      <c r="AS2" s="31"/>
+      <c r="AT2" s="31"/>
+      <c r="AU2" s="32"/>
+      <c r="AV2" s="33">
         <v>44533</v>
       </c>
-      <c r="AW2" s="31"/>
-      <c r="AX2" s="31"/>
-      <c r="AY2" s="31"/>
-      <c r="AZ2" s="31"/>
-      <c r="BA2" s="31"/>
-      <c r="BB2" s="31"/>
-      <c r="BC2" s="32"/>
+      <c r="AW2" s="28"/>
+      <c r="AX2" s="28"/>
+      <c r="AY2" s="28"/>
+      <c r="AZ2" s="28"/>
+      <c r="BA2" s="28"/>
+      <c r="BB2" s="28"/>
+      <c r="BC2" s="29"/>
     </row>
     <row r="3" spans="1:55" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BC3" s="14"/>
@@ -28400,9 +28749,9 @@
       <c r="BC92" s="3"/>
     </row>
     <row r="93" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="27"/>
-      <c r="B93" s="28"/>
-      <c r="C93" s="29"/>
+      <c r="A93" s="40"/>
+      <c r="B93" s="41"/>
+      <c r="C93" s="42"/>
       <c r="D93" s="7"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
@@ -32449,9 +32798,9 @@
       <c r="BC163" s="3"/>
     </row>
     <row r="164" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="27"/>
-      <c r="B164" s="28"/>
-      <c r="C164" s="29"/>
+      <c r="A164" s="40"/>
+      <c r="B164" s="41"/>
+      <c r="C164" s="42"/>
       <c r="D164" s="7"/>
       <c r="E164" s="8"/>
       <c r="F164" s="8"/>
@@ -32507,6 +32856,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A4:C5"/>
+    <mergeCell ref="D4:P5"/>
+    <mergeCell ref="Q4:AC5"/>
+    <mergeCell ref="A27:C93"/>
+    <mergeCell ref="A94:C164"/>
     <mergeCell ref="AD4:AP5"/>
     <mergeCell ref="AQ4:BC5"/>
     <mergeCell ref="A6:C26"/>
@@ -32523,11 +32877,6 @@
     <mergeCell ref="AF1:AI1"/>
     <mergeCell ref="AJ1:AQ1"/>
     <mergeCell ref="AR1:AU1"/>
-    <mergeCell ref="A4:C5"/>
-    <mergeCell ref="D4:P5"/>
-    <mergeCell ref="Q4:AC5"/>
-    <mergeCell ref="A27:C93"/>
-    <mergeCell ref="A94:C164"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.11811023622047245" footer="0.11811023622047245"/>
@@ -32557,143 +32906,143 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="40" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="40" t="s">
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="41"/>
-      <c r="AA1" s="41"/>
-      <c r="AB1" s="41"/>
-      <c r="AC1" s="41"/>
-      <c r="AD1" s="41"/>
-      <c r="AE1" s="42"/>
-      <c r="AF1" s="40" t="s">
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="38"/>
+      <c r="AC1" s="38"/>
+      <c r="AD1" s="38"/>
+      <c r="AE1" s="39"/>
+      <c r="AF1" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="41"/>
-      <c r="AH1" s="41"/>
-      <c r="AI1" s="42"/>
-      <c r="AJ1" s="30" t="s">
+      <c r="AG1" s="38"/>
+      <c r="AH1" s="38"/>
+      <c r="AI1" s="39"/>
+      <c r="AJ1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="AK1" s="31"/>
-      <c r="AL1" s="31"/>
-      <c r="AM1" s="31"/>
-      <c r="AN1" s="31"/>
-      <c r="AO1" s="31"/>
-      <c r="AP1" s="31"/>
-      <c r="AQ1" s="32"/>
-      <c r="AR1" s="40" t="s">
+      <c r="AK1" s="28"/>
+      <c r="AL1" s="28"/>
+      <c r="AM1" s="28"/>
+      <c r="AN1" s="28"/>
+      <c r="AO1" s="28"/>
+      <c r="AP1" s="28"/>
+      <c r="AQ1" s="29"/>
+      <c r="AR1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="AS1" s="41"/>
-      <c r="AT1" s="41"/>
-      <c r="AU1" s="42"/>
-      <c r="AV1" s="30" t="s">
+      <c r="AS1" s="38"/>
+      <c r="AT1" s="38"/>
+      <c r="AU1" s="39"/>
+      <c r="AV1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="AW1" s="31"/>
-      <c r="AX1" s="31"/>
-      <c r="AY1" s="31"/>
-      <c r="AZ1" s="31"/>
-      <c r="BA1" s="31"/>
-      <c r="BB1" s="31"/>
-      <c r="BC1" s="32"/>
+      <c r="AW1" s="28"/>
+      <c r="AX1" s="28"/>
+      <c r="AY1" s="28"/>
+      <c r="AZ1" s="28"/>
+      <c r="BA1" s="28"/>
+      <c r="BB1" s="28"/>
+      <c r="BC1" s="29"/>
     </row>
     <row r="2" spans="1:55" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="30" t="str">
+      <c r="A2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="27" t="str">
         <f ca="1">RIGHT(CELL("filename",O2),LEN(CELL("filename",O2))-FIND("]",CELL("filename",O2)))</f>
         <v>〇〇〇申請フロー</v>
       </c>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
-      <c r="V2" s="31"/>
-      <c r="W2" s="31"/>
-      <c r="X2" s="31"/>
-      <c r="Y2" s="31"/>
-      <c r="Z2" s="31"/>
-      <c r="AA2" s="31"/>
-      <c r="AB2" s="31"/>
-      <c r="AC2" s="31"/>
-      <c r="AD2" s="31"/>
-      <c r="AE2" s="32"/>
-      <c r="AF2" s="33" t="s">
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="28"/>
+      <c r="X2" s="28"/>
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="28"/>
+      <c r="AB2" s="28"/>
+      <c r="AC2" s="28"/>
+      <c r="AD2" s="28"/>
+      <c r="AE2" s="29"/>
+      <c r="AF2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="AG2" s="34"/>
-      <c r="AH2" s="34"/>
-      <c r="AI2" s="35"/>
-      <c r="AJ2" s="36">
+      <c r="AG2" s="31"/>
+      <c r="AH2" s="31"/>
+      <c r="AI2" s="32"/>
+      <c r="AJ2" s="33">
         <v>44533</v>
       </c>
-      <c r="AK2" s="31"/>
-      <c r="AL2" s="31"/>
-      <c r="AM2" s="31"/>
-      <c r="AN2" s="31"/>
-      <c r="AO2" s="31"/>
-      <c r="AP2" s="31"/>
-      <c r="AQ2" s="32"/>
-      <c r="AR2" s="33" t="s">
+      <c r="AK2" s="28"/>
+      <c r="AL2" s="28"/>
+      <c r="AM2" s="28"/>
+      <c r="AN2" s="28"/>
+      <c r="AO2" s="28"/>
+      <c r="AP2" s="28"/>
+      <c r="AQ2" s="29"/>
+      <c r="AR2" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="AS2" s="34"/>
-      <c r="AT2" s="34"/>
-      <c r="AU2" s="35"/>
-      <c r="AV2" s="36">
+      <c r="AS2" s="31"/>
+      <c r="AT2" s="31"/>
+      <c r="AU2" s="32"/>
+      <c r="AV2" s="33">
         <v>44533</v>
       </c>
-      <c r="AW2" s="31"/>
-      <c r="AX2" s="31"/>
-      <c r="AY2" s="31"/>
-      <c r="AZ2" s="31"/>
-      <c r="BA2" s="31"/>
-      <c r="BB2" s="31"/>
-      <c r="BC2" s="32"/>
+      <c r="AW2" s="28"/>
+      <c r="AX2" s="28"/>
+      <c r="AY2" s="28"/>
+      <c r="AZ2" s="28"/>
+      <c r="BA2" s="28"/>
+      <c r="BB2" s="28"/>
+      <c r="BC2" s="29"/>
     </row>
     <row r="3" spans="1:55" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BC3" s="14"/>
@@ -34023,6 +34372,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="Q4:AC5"/>
+    <mergeCell ref="AD4:AP5"/>
+    <mergeCell ref="AQ4:BC5"/>
     <mergeCell ref="A6:C26"/>
     <mergeCell ref="AV1:BC1"/>
     <mergeCell ref="G2:N2"/>
@@ -34039,9 +34391,6 @@
     <mergeCell ref="AR1:AU1"/>
     <mergeCell ref="A4:C5"/>
     <mergeCell ref="D4:P5"/>
-    <mergeCell ref="Q4:AC5"/>
-    <mergeCell ref="AD4:AP5"/>
-    <mergeCell ref="AQ4:BC5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.11811023622047245" footer="0.11811023622047245"/>

--- a/atndnc-mngmnt/documents/basic-design-documents/business-req/システム化業務フロー.xlsx
+++ b/atndnc-mngmnt/documents/basic-design-documents/business-req/システム化業務フロー.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\atndnc-mngmnt\documents\basic-design-documents\business-req\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82ADEFC8-6585-4BCE-9837-D9EE31748B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7DB2F4-FF09-4674-81DD-661F59660FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="330" windowWidth="16800" windowHeight="15870" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45" yWindow="165" windowWidth="16800" windowHeight="15870" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="凡例" sheetId="3" r:id="rId1"/>
-    <sheet name="勤怠報告フロー" sheetId="2" r:id="rId2"/>
-    <sheet name="〇〇〇申請フロー" sheetId="5" r:id="rId3"/>
+    <sheet name="概要" sheetId="6" r:id="rId2"/>
+    <sheet name="勤怠報告フロー" sheetId="2" r:id="rId3"/>
+    <sheet name="〇〇〇申請フロー" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">〇〇〇申請フロー!$A$1:$BC$26</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">勤怠報告フロー!$A$1:$BC$164</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">〇〇〇申請フロー!$A$1:$BC$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">勤怠報告フロー!$A$1:$BC$164</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
   <si>
     <t>区分</t>
     <rPh sb="0" eb="2">
@@ -185,12 +186,78 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t xml:space="preserve">【目的】 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">【説明】 </t>
+  </si>
+  <si>
+    <t>システム化業務フローとは？</t>
+    <rPh sb="4" eb="5">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ギョウム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システムに対する業務からのリクエスト（作成して欲しいシステム機能）を明確にし て、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>合意形成できる状態にする。</t>
+  </si>
+  <si>
+    <t>新しいビジネスプロセスを創造し、To-Be システム化業務フローとして表すことによ り、</t>
+  </si>
+  <si>
+    <t>新たな業務の流れやシステム利用を共通認識できる状態にする。</t>
+  </si>
+  <si>
+    <t>必要に応じて As-Is システム化業務フローを作成し、現状のシステムを利用した業務 の流れを明示することにより、</t>
+  </si>
+  <si>
+    <t>現状の業務やシステム利用の問題点や課題を共通認識 できる状態にする。</t>
+  </si>
+  <si>
+    <t>IPAより抜粋</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビジネスプロセスフロー（システム化業務フロー）（以下、システム化業務フロー）は フロー系モデルであり、</t>
+  </si>
+  <si>
+    <t>プロセスとその間での情報のやり取り/順序を中心に描いた ものである。</t>
+  </si>
+  <si>
+    <t>システム化業務フローは、三階層で業務を表現したときの三階層目で業務を表現した ものである。</t>
+  </si>
+  <si>
+    <t>システムを利用した業務を表現したものであり、システムを利用した具 体的な業務を作りあげるために作成する。</t>
+  </si>
+  <si>
+    <t>基本的には業務フローで業務レベルでの改善を検討したのち、それをもとに人の作業 とシステム機能を分けて記載して、</t>
+  </si>
+  <si>
+    <t>システムを利用した改善すなわち、作成して欲し いシステム機能を洗い出す流れになる。</t>
+  </si>
+  <si>
+    <t>具体的なシステムを利用した業務を表現することができるので、As-Is システム化業 務フローの作成では現状業務の課題発見に、</t>
+  </si>
+  <si>
+    <t>To-Be システム化業務フローの作成では 新しい業務としてビジネスプロセスの見直しに役立つ。</t>
+  </si>
+  <si>
+    <t>特に、システム利用の問題点 やシステムを利用した新たな業務、新たなシステム機能を明確にするのに役立つ。</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -217,6 +284,81 @@
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="16"/>
+      <color rgb="FF00B050"/>
+      <name val="BIZ UDP明朝 Medium"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="BIZ UDP明朝 Medium"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="BIZ UDP明朝 Medium"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="16"/>
+      <color theme="10"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -428,12 +570,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -515,6 +660,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -554,17 +708,39 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5948,8 +6124,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1192310" y="5614147"/>
-          <a:ext cx="1149721" cy="537880"/>
+          <a:off x="1209849" y="5704768"/>
+          <a:ext cx="1173107" cy="546650"/>
           <a:chOff x="822514" y="4919383"/>
           <a:chExt cx="1149721" cy="537881"/>
         </a:xfrm>
@@ -7173,8 +7349,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3467109" y="8494072"/>
-          <a:ext cx="1149721" cy="537880"/>
+          <a:off x="3525575" y="8631465"/>
+          <a:ext cx="1167260" cy="546651"/>
           <a:chOff x="822514" y="4919383"/>
           <a:chExt cx="1149721" cy="537881"/>
         </a:xfrm>
@@ -8491,8 +8667,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3467109" y="11900660"/>
-          <a:ext cx="1149721" cy="537880"/>
+          <a:off x="3525575" y="12093596"/>
+          <a:ext cx="1167260" cy="546650"/>
           <a:chOff x="822514" y="4919383"/>
           <a:chExt cx="1149721" cy="537881"/>
         </a:xfrm>
@@ -9380,8 +9556,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5797933" y="14108217"/>
-          <a:ext cx="1149721" cy="537880"/>
+          <a:off x="5894401" y="14336233"/>
+          <a:ext cx="1167260" cy="546649"/>
           <a:chOff x="822514" y="4919383"/>
           <a:chExt cx="1149721" cy="537881"/>
         </a:xfrm>
@@ -10462,8 +10638,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2364440" y="15979591"/>
-          <a:ext cx="1149721" cy="593911"/>
+          <a:off x="2405365" y="16239763"/>
+          <a:ext cx="1167262" cy="602680"/>
           <a:chOff x="822514" y="4919383"/>
           <a:chExt cx="1149721" cy="593911"/>
         </a:xfrm>
@@ -11820,8 +11996,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1192310" y="17626853"/>
-          <a:ext cx="1149721" cy="537880"/>
+          <a:off x="1209849" y="17913333"/>
+          <a:ext cx="1173107" cy="546651"/>
           <a:chOff x="822514" y="4919383"/>
           <a:chExt cx="1149721" cy="537881"/>
         </a:xfrm>
@@ -13035,8 +13211,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3467109" y="20697283"/>
-          <a:ext cx="1149721" cy="537881"/>
+          <a:off x="3525575" y="21033459"/>
+          <a:ext cx="1167260" cy="546651"/>
           <a:chOff x="822514" y="4919383"/>
           <a:chExt cx="1149721" cy="537881"/>
         </a:xfrm>
@@ -13784,8 +13960,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5797933" y="24552097"/>
-          <a:ext cx="1149721" cy="537880"/>
+          <a:off x="5894401" y="24949662"/>
+          <a:ext cx="1167260" cy="546650"/>
           <a:chOff x="822514" y="4919383"/>
           <a:chExt cx="1149721" cy="537881"/>
         </a:xfrm>
@@ -14740,8 +14916,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2375646" y="28709474"/>
-          <a:ext cx="1149721" cy="593910"/>
+          <a:off x="2416571" y="29177198"/>
+          <a:ext cx="1167262" cy="602680"/>
           <a:chOff x="822514" y="4919383"/>
           <a:chExt cx="1149721" cy="593911"/>
         </a:xfrm>
@@ -19976,6 +20152,201 @@
             <a:latin typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
             <a:ea typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>31669</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>23825</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>105261</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="243" name="フローチャート: 処理 242">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6217AF47-0D12-40E8-8F92-4837D82E0A5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7676517" y="1822661"/>
+          <a:ext cx="4365373" cy="1926948"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>システム化業務フローとは？</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>「業務の根本的な機能・目的を見える化するために、手段であるシステム利用等は記載しない。例えば、注文をメールで受けるか、オンラインシステムで受けるかは手段の違いでしかない。ビジネスプロセスとしては「注文を受ける（受注）」である。」</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>作成したフローは上記に反する内容ですが、今回はメール使用をデフォルトとします。</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>現行の業務フローを表現してます</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>ご了承ください</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>…</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>。</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -23504,14 +23875,180 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5FE0124-6F24-428F-B215-E8161CE58405}">
+  <dimension ref="A1:D24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="5.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="43" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="44" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="44" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="45" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="44" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="49">
+        <v>1</v>
+      </c>
+      <c r="D4" s="44" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="44" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="49"/>
+      <c r="D5" s="44" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="44" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="49">
+        <v>2</v>
+      </c>
+      <c r="D6" s="44" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="44" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="45"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="44" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="44" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="49">
+        <v>3</v>
+      </c>
+      <c r="D8" s="44" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="44" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="45"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="44" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="44" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="45" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="44" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="49">
+        <v>1</v>
+      </c>
+      <c r="D11" s="44" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="44" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="51"/>
+      <c r="D12" s="44" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="44" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="49">
+        <v>2</v>
+      </c>
+      <c r="D13" s="44" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="44" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="49"/>
+      <c r="D14" s="44" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="44" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="49">
+        <v>3</v>
+      </c>
+      <c r="D15" s="44" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="44" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="51"/>
+      <c r="D16" s="44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" s="44" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="49">
+        <v>4</v>
+      </c>
+      <c r="D17" s="44" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" s="44" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="51"/>
+      <c r="D18" s="44" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" s="44" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="50"/>
+      <c r="D19" s="44" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" s="44" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="50"/>
+    </row>
+    <row r="21" spans="2:4" s="44" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="46"/>
+      <c r="C21" s="47"/>
+    </row>
+    <row r="22" spans="2:4" s="44" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="46"/>
+      <c r="C22" s="48"/>
+    </row>
+    <row r="23" spans="2:4" s="44" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="46"/>
+    </row>
+    <row r="24" spans="2:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C24" s="46"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" location="page=401" xr:uid="{CB620E0F-AE79-449D-9C0B-BD17C8D374D3}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE153E9D-197F-4667-A745-A23CD82F214B}">
   <dimension ref="A1:BC164"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="60" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="60" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="AJ6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" sqref="A1:F2"/>
+      <selection pane="bottomRight" activeCell="BL21" sqref="BL21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -23520,143 +24057,143 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="37" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="37" t="s">
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="39"/>
-      <c r="AF1" s="37" t="s">
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="41"/>
+      <c r="AA1" s="41"/>
+      <c r="AB1" s="41"/>
+      <c r="AC1" s="41"/>
+      <c r="AD1" s="41"/>
+      <c r="AE1" s="42"/>
+      <c r="AF1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="38"/>
-      <c r="AH1" s="38"/>
-      <c r="AI1" s="39"/>
-      <c r="AJ1" s="27" t="s">
+      <c r="AG1" s="41"/>
+      <c r="AH1" s="41"/>
+      <c r="AI1" s="42"/>
+      <c r="AJ1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="AK1" s="28"/>
-      <c r="AL1" s="28"/>
-      <c r="AM1" s="28"/>
-      <c r="AN1" s="28"/>
-      <c r="AO1" s="28"/>
-      <c r="AP1" s="28"/>
-      <c r="AQ1" s="29"/>
-      <c r="AR1" s="37" t="s">
+      <c r="AK1" s="31"/>
+      <c r="AL1" s="31"/>
+      <c r="AM1" s="31"/>
+      <c r="AN1" s="31"/>
+      <c r="AO1" s="31"/>
+      <c r="AP1" s="31"/>
+      <c r="AQ1" s="32"/>
+      <c r="AR1" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="AS1" s="38"/>
-      <c r="AT1" s="38"/>
-      <c r="AU1" s="39"/>
-      <c r="AV1" s="27" t="s">
+      <c r="AS1" s="41"/>
+      <c r="AT1" s="41"/>
+      <c r="AU1" s="42"/>
+      <c r="AV1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="AW1" s="28"/>
-      <c r="AX1" s="28"/>
-      <c r="AY1" s="28"/>
-      <c r="AZ1" s="28"/>
-      <c r="BA1" s="28"/>
-      <c r="BB1" s="28"/>
-      <c r="BC1" s="29"/>
+      <c r="AW1" s="31"/>
+      <c r="AX1" s="31"/>
+      <c r="AY1" s="31"/>
+      <c r="AZ1" s="31"/>
+      <c r="BA1" s="31"/>
+      <c r="BB1" s="31"/>
+      <c r="BC1" s="32"/>
     </row>
     <row r="2" spans="1:55" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="27" t="str">
+      <c r="A2" s="33"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="30" t="str">
         <f ca="1">RIGHT(CELL("filename",O2),LEN(CELL("filename",O2))-FIND("]",CELL("filename",O2)))</f>
         <v>勤怠報告フロー</v>
       </c>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="28"/>
-      <c r="W2" s="28"/>
-      <c r="X2" s="28"/>
-      <c r="Y2" s="28"/>
-      <c r="Z2" s="28"/>
-      <c r="AA2" s="28"/>
-      <c r="AB2" s="28"/>
-      <c r="AC2" s="28"/>
-      <c r="AD2" s="28"/>
-      <c r="AE2" s="29"/>
-      <c r="AF2" s="30" t="s">
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="31"/>
+      <c r="X2" s="31"/>
+      <c r="Y2" s="31"/>
+      <c r="Z2" s="31"/>
+      <c r="AA2" s="31"/>
+      <c r="AB2" s="31"/>
+      <c r="AC2" s="31"/>
+      <c r="AD2" s="31"/>
+      <c r="AE2" s="32"/>
+      <c r="AF2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="AG2" s="31"/>
-      <c r="AH2" s="31"/>
-      <c r="AI2" s="32"/>
-      <c r="AJ2" s="33">
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="36">
         <v>44533</v>
       </c>
-      <c r="AK2" s="28"/>
-      <c r="AL2" s="28"/>
-      <c r="AM2" s="28"/>
-      <c r="AN2" s="28"/>
-      <c r="AO2" s="28"/>
-      <c r="AP2" s="28"/>
-      <c r="AQ2" s="29"/>
-      <c r="AR2" s="30" t="s">
+      <c r="AK2" s="31"/>
+      <c r="AL2" s="31"/>
+      <c r="AM2" s="31"/>
+      <c r="AN2" s="31"/>
+      <c r="AO2" s="31"/>
+      <c r="AP2" s="31"/>
+      <c r="AQ2" s="32"/>
+      <c r="AR2" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="AS2" s="31"/>
-      <c r="AT2" s="31"/>
-      <c r="AU2" s="32"/>
-      <c r="AV2" s="33">
+      <c r="AS2" s="34"/>
+      <c r="AT2" s="34"/>
+      <c r="AU2" s="35"/>
+      <c r="AV2" s="36">
         <v>44533</v>
       </c>
-      <c r="AW2" s="28"/>
-      <c r="AX2" s="28"/>
-      <c r="AY2" s="28"/>
-      <c r="AZ2" s="28"/>
-      <c r="BA2" s="28"/>
-      <c r="BB2" s="28"/>
-      <c r="BC2" s="29"/>
+      <c r="AW2" s="31"/>
+      <c r="AX2" s="31"/>
+      <c r="AY2" s="31"/>
+      <c r="AZ2" s="31"/>
+      <c r="BA2" s="31"/>
+      <c r="BB2" s="31"/>
+      <c r="BC2" s="32"/>
     </row>
     <row r="3" spans="1:55" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BC3" s="14"/>
@@ -28749,9 +29286,9 @@
       <c r="BC92" s="3"/>
     </row>
     <row r="93" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="40"/>
-      <c r="B93" s="41"/>
-      <c r="C93" s="42"/>
+      <c r="A93" s="27"/>
+      <c r="B93" s="28"/>
+      <c r="C93" s="29"/>
       <c r="D93" s="7"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
@@ -32798,9 +33335,9 @@
       <c r="BC163" s="3"/>
     </row>
     <row r="164" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="40"/>
-      <c r="B164" s="41"/>
-      <c r="C164" s="42"/>
+      <c r="A164" s="27"/>
+      <c r="B164" s="28"/>
+      <c r="C164" s="29"/>
       <c r="D164" s="7"/>
       <c r="E164" s="8"/>
       <c r="F164" s="8"/>
@@ -32856,11 +33393,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A4:C5"/>
-    <mergeCell ref="D4:P5"/>
-    <mergeCell ref="Q4:AC5"/>
-    <mergeCell ref="A27:C93"/>
-    <mergeCell ref="A94:C164"/>
     <mergeCell ref="AD4:AP5"/>
     <mergeCell ref="AQ4:BC5"/>
     <mergeCell ref="A6:C26"/>
@@ -32877,6 +33409,11 @@
     <mergeCell ref="AF1:AI1"/>
     <mergeCell ref="AJ1:AQ1"/>
     <mergeCell ref="AR1:AU1"/>
+    <mergeCell ref="A4:C5"/>
+    <mergeCell ref="D4:P5"/>
+    <mergeCell ref="Q4:AC5"/>
+    <mergeCell ref="A27:C93"/>
+    <mergeCell ref="A94:C164"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.11811023622047245" footer="0.11811023622047245"/>
@@ -32889,7 +33426,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78CE4557-1E9F-4766-90CC-C6EA734BF1AC}">
   <dimension ref="A1:BC26"/>
   <sheetViews>
@@ -32906,143 +33443,143 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="37" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="37" t="s">
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="39"/>
-      <c r="AF1" s="37" t="s">
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="41"/>
+      <c r="AA1" s="41"/>
+      <c r="AB1" s="41"/>
+      <c r="AC1" s="41"/>
+      <c r="AD1" s="41"/>
+      <c r="AE1" s="42"/>
+      <c r="AF1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="38"/>
-      <c r="AH1" s="38"/>
-      <c r="AI1" s="39"/>
-      <c r="AJ1" s="27" t="s">
+      <c r="AG1" s="41"/>
+      <c r="AH1" s="41"/>
+      <c r="AI1" s="42"/>
+      <c r="AJ1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="AK1" s="28"/>
-      <c r="AL1" s="28"/>
-      <c r="AM1" s="28"/>
-      <c r="AN1" s="28"/>
-      <c r="AO1" s="28"/>
-      <c r="AP1" s="28"/>
-      <c r="AQ1" s="29"/>
-      <c r="AR1" s="37" t="s">
+      <c r="AK1" s="31"/>
+      <c r="AL1" s="31"/>
+      <c r="AM1" s="31"/>
+      <c r="AN1" s="31"/>
+      <c r="AO1" s="31"/>
+      <c r="AP1" s="31"/>
+      <c r="AQ1" s="32"/>
+      <c r="AR1" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="AS1" s="38"/>
-      <c r="AT1" s="38"/>
-      <c r="AU1" s="39"/>
-      <c r="AV1" s="27" t="s">
+      <c r="AS1" s="41"/>
+      <c r="AT1" s="41"/>
+      <c r="AU1" s="42"/>
+      <c r="AV1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="AW1" s="28"/>
-      <c r="AX1" s="28"/>
-      <c r="AY1" s="28"/>
-      <c r="AZ1" s="28"/>
-      <c r="BA1" s="28"/>
-      <c r="BB1" s="28"/>
-      <c r="BC1" s="29"/>
+      <c r="AW1" s="31"/>
+      <c r="AX1" s="31"/>
+      <c r="AY1" s="31"/>
+      <c r="AZ1" s="31"/>
+      <c r="BA1" s="31"/>
+      <c r="BB1" s="31"/>
+      <c r="BC1" s="32"/>
     </row>
     <row r="2" spans="1:55" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="27" t="str">
+      <c r="A2" s="33"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="30" t="str">
         <f ca="1">RIGHT(CELL("filename",O2),LEN(CELL("filename",O2))-FIND("]",CELL("filename",O2)))</f>
         <v>〇〇〇申請フロー</v>
       </c>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="28"/>
-      <c r="W2" s="28"/>
-      <c r="X2" s="28"/>
-      <c r="Y2" s="28"/>
-      <c r="Z2" s="28"/>
-      <c r="AA2" s="28"/>
-      <c r="AB2" s="28"/>
-      <c r="AC2" s="28"/>
-      <c r="AD2" s="28"/>
-      <c r="AE2" s="29"/>
-      <c r="AF2" s="30" t="s">
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="31"/>
+      <c r="X2" s="31"/>
+      <c r="Y2" s="31"/>
+      <c r="Z2" s="31"/>
+      <c r="AA2" s="31"/>
+      <c r="AB2" s="31"/>
+      <c r="AC2" s="31"/>
+      <c r="AD2" s="31"/>
+      <c r="AE2" s="32"/>
+      <c r="AF2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="AG2" s="31"/>
-      <c r="AH2" s="31"/>
-      <c r="AI2" s="32"/>
-      <c r="AJ2" s="33">
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="36">
         <v>44533</v>
       </c>
-      <c r="AK2" s="28"/>
-      <c r="AL2" s="28"/>
-      <c r="AM2" s="28"/>
-      <c r="AN2" s="28"/>
-      <c r="AO2" s="28"/>
-      <c r="AP2" s="28"/>
-      <c r="AQ2" s="29"/>
-      <c r="AR2" s="30" t="s">
+      <c r="AK2" s="31"/>
+      <c r="AL2" s="31"/>
+      <c r="AM2" s="31"/>
+      <c r="AN2" s="31"/>
+      <c r="AO2" s="31"/>
+      <c r="AP2" s="31"/>
+      <c r="AQ2" s="32"/>
+      <c r="AR2" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="AS2" s="31"/>
-      <c r="AT2" s="31"/>
-      <c r="AU2" s="32"/>
-      <c r="AV2" s="33">
+      <c r="AS2" s="34"/>
+      <c r="AT2" s="34"/>
+      <c r="AU2" s="35"/>
+      <c r="AV2" s="36">
         <v>44533</v>
       </c>
-      <c r="AW2" s="28"/>
-      <c r="AX2" s="28"/>
-      <c r="AY2" s="28"/>
-      <c r="AZ2" s="28"/>
-      <c r="BA2" s="28"/>
-      <c r="BB2" s="28"/>
-      <c r="BC2" s="29"/>
+      <c r="AW2" s="31"/>
+      <c r="AX2" s="31"/>
+      <c r="AY2" s="31"/>
+      <c r="AZ2" s="31"/>
+      <c r="BA2" s="31"/>
+      <c r="BB2" s="31"/>
+      <c r="BC2" s="32"/>
     </row>
     <row r="3" spans="1:55" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BC3" s="14"/>
@@ -34372,6 +34909,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="AR1:AU1"/>
+    <mergeCell ref="A4:C5"/>
+    <mergeCell ref="D4:P5"/>
     <mergeCell ref="Q4:AC5"/>
     <mergeCell ref="AD4:AP5"/>
     <mergeCell ref="AQ4:BC5"/>
@@ -34388,9 +34928,6 @@
     <mergeCell ref="O1:AE1"/>
     <mergeCell ref="AF1:AI1"/>
     <mergeCell ref="AJ1:AQ1"/>
-    <mergeCell ref="AR1:AU1"/>
-    <mergeCell ref="A4:C5"/>
-    <mergeCell ref="D4:P5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.11811023622047245" footer="0.11811023622047245"/>

--- a/atndnc-mngmnt/documents/basic-design-documents/business-req/システム化業務フロー.xlsx
+++ b/atndnc-mngmnt/documents/basic-design-documents/business-req/システム化業務フロー.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\atndnc-mngmnt\documents\basic-design-documents\business-req\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ttaku\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC81CA31-199D-4293-9F03-0FA57DC40347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B342D2-D0E2-45D7-8486-10C3AEBF826B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="330" windowWidth="19170" windowHeight="15870" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="330" windowWidth="19170" windowHeight="15870" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="凡例" sheetId="3" r:id="rId1"/>
@@ -709,6 +709,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -747,15 +756,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -21226,8 +21226,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1228899" y="2548677"/>
-          <a:ext cx="1173107" cy="535262"/>
+          <a:off x="1221445" y="2532526"/>
+          <a:ext cx="1163168" cy="531535"/>
           <a:chOff x="822514" y="4919383"/>
           <a:chExt cx="1149721" cy="526676"/>
         </a:xfrm>
@@ -21438,7 +21438,7 @@
         </a:prstGeom>
         <a:ln w="28575">
           <a:solidFill>
-            <a:srgbClr val="C00000"/>
+            <a:srgbClr val="0070C0"/>
           </a:solidFill>
           <a:tailEnd type="triangle"/>
         </a:ln>
@@ -22114,7 +22114,7 @@
         </a:prstGeom>
         <a:ln w="28575">
           <a:solidFill>
-            <a:srgbClr val="92D050"/>
+            <a:srgbClr val="0070C0"/>
           </a:solidFill>
           <a:tailEnd type="triangle"/>
         </a:ln>
@@ -22195,7 +22195,7 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
               <a:ea typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
@@ -22703,7 +22703,7 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
               <a:ea typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
@@ -22966,8 +22966,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5891856" y="5667148"/>
-          <a:ext cx="1173107" cy="535263"/>
+          <a:off x="5850857" y="5628634"/>
+          <a:ext cx="1165653" cy="531536"/>
           <a:chOff x="822514" y="4919383"/>
           <a:chExt cx="1149721" cy="526676"/>
         </a:xfrm>
@@ -23723,115 +23723,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>180559</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>32715</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="236" name="吹き出し: 角を丸めた四角形 235">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C919E07-3357-4837-B863-CBA1BB970FBE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4695409" y="4029075"/>
-          <a:ext cx="1661906" cy="742950"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRoundRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 15210"/>
-            <a:gd name="adj2" fmla="val 70785"/>
-            <a:gd name="adj3" fmla="val 16667"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="00B050"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
-              <a:ea typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
-            </a:rPr>
-            <a:t>申請通知てなんやろ？</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
-            <a:ea typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
-              <a:ea typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
-            </a:rPr>
-            <a:t>あぁ、有給申請やん。</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>69747</xdr:colOff>
       <xdr:row>39</xdr:row>
@@ -24729,8 +24620,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3494187" y="10555001"/>
-          <a:ext cx="1176065" cy="529938"/>
+          <a:off x="3469339" y="10480458"/>
+          <a:ext cx="1168611" cy="527453"/>
           <a:chOff x="822514" y="4919383"/>
           <a:chExt cx="1149721" cy="526676"/>
         </a:xfrm>
@@ -24896,7 +24787,7 @@
         </a:prstGeom>
         <a:ln w="28575">
           <a:solidFill>
-            <a:srgbClr val="C00000"/>
+            <a:srgbClr val="0070C0"/>
           </a:solidFill>
           <a:tailEnd type="triangle"/>
         </a:ln>
@@ -25562,7 +25453,7 @@
         </a:prstGeom>
         <a:ln w="28575">
           <a:solidFill>
-            <a:srgbClr val="92D050"/>
+            <a:srgbClr val="0070C0"/>
           </a:solidFill>
           <a:tailEnd type="triangle"/>
         </a:ln>
@@ -25643,7 +25534,7 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
               <a:ea typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
@@ -26141,7 +26032,7 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1050">
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
               <a:ea typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
@@ -26404,8 +26295,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5891856" y="13668148"/>
-          <a:ext cx="1173107" cy="535263"/>
+          <a:off x="5850857" y="13572484"/>
+          <a:ext cx="1165653" cy="531536"/>
           <a:chOff x="822514" y="4919383"/>
           <a:chExt cx="1149721" cy="526676"/>
         </a:xfrm>
@@ -27156,8 +27047,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>180559</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
       <xdr:row>66</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
@@ -27180,8 +27071,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4695409" y="4029075"/>
-          <a:ext cx="1661906" cy="742950"/>
+          <a:off x="4324350" y="11972925"/>
+          <a:ext cx="2032965" cy="742950"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -27236,7 +27127,7 @@
               <a:latin typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
               <a:ea typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
             </a:rPr>
-            <a:t>申請通知てなんやろ？</a:t>
+            <a:t>申請通知が来てるけどなんだろう？</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
@@ -27256,7 +27147,7 @@
               <a:latin typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
               <a:ea typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
             </a:rPr>
-            <a:t>あぁ、有給申請やん。</a:t>
+            <a:t>〇〇さんから有給申請だね。</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -27654,15 +27545,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>163285</xdr:colOff>
+      <xdr:colOff>161925</xdr:colOff>
       <xdr:row>76</xdr:row>
-      <xdr:rowOff>101161</xdr:rowOff>
+      <xdr:rowOff>103202</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>69182</xdr:colOff>
       <xdr:row>76</xdr:row>
-      <xdr:rowOff>149679</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -27679,8 +27570,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3170464" y="13531411"/>
-          <a:ext cx="2559289" cy="48518"/>
+          <a:off x="3228975" y="13838252"/>
+          <a:ext cx="2621882" cy="11098"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -27706,6 +27597,115 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>13665</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="100" name="吹き出し: 角を丸めた四角形 99">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F921F795-65CF-468A-BBBC-10A1283D7447}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4305300" y="3971925"/>
+          <a:ext cx="2032965" cy="742950"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 15210"/>
+            <a:gd name="adj2" fmla="val 70785"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>申請通知が来てるけどなんだろう？</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="BIZ UDP明朝 Medium" panose="02020500000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>〇〇さんから有給申請だね。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -28073,9 +28073,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5FE0124-6F24-428F-B215-E8161CE58405}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
@@ -28240,10 +28238,10 @@
   <dimension ref="A1:BC164"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="60" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D108" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AW164" activeCellId="1" sqref="A27:XFD93 AW164"/>
+      <selection pane="bottomRight" sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -28252,143 +28250,143 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="47" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="47" t="s">
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="48"/>
-      <c r="W1" s="48"/>
-      <c r="X1" s="48"/>
-      <c r="Y1" s="48"/>
-      <c r="Z1" s="48"/>
-      <c r="AA1" s="48"/>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="48"/>
-      <c r="AD1" s="48"/>
-      <c r="AE1" s="49"/>
-      <c r="AF1" s="47" t="s">
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
+      <c r="Z1" s="51"/>
+      <c r="AA1" s="51"/>
+      <c r="AB1" s="51"/>
+      <c r="AC1" s="51"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="52"/>
+      <c r="AF1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="48"/>
-      <c r="AH1" s="48"/>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="37" t="s">
+      <c r="AG1" s="51"/>
+      <c r="AH1" s="51"/>
+      <c r="AI1" s="52"/>
+      <c r="AJ1" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="AK1" s="38"/>
-      <c r="AL1" s="38"/>
-      <c r="AM1" s="38"/>
-      <c r="AN1" s="38"/>
-      <c r="AO1" s="38"/>
-      <c r="AP1" s="38"/>
-      <c r="AQ1" s="39"/>
-      <c r="AR1" s="47" t="s">
+      <c r="AK1" s="41"/>
+      <c r="AL1" s="41"/>
+      <c r="AM1" s="41"/>
+      <c r="AN1" s="41"/>
+      <c r="AO1" s="41"/>
+      <c r="AP1" s="41"/>
+      <c r="AQ1" s="42"/>
+      <c r="AR1" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="AS1" s="48"/>
-      <c r="AT1" s="48"/>
-      <c r="AU1" s="49"/>
-      <c r="AV1" s="37" t="s">
+      <c r="AS1" s="51"/>
+      <c r="AT1" s="51"/>
+      <c r="AU1" s="52"/>
+      <c r="AV1" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="AW1" s="38"/>
-      <c r="AX1" s="38"/>
-      <c r="AY1" s="38"/>
-      <c r="AZ1" s="38"/>
-      <c r="BA1" s="38"/>
-      <c r="BB1" s="38"/>
-      <c r="BC1" s="39"/>
+      <c r="AW1" s="41"/>
+      <c r="AX1" s="41"/>
+      <c r="AY1" s="41"/>
+      <c r="AZ1" s="41"/>
+      <c r="BA1" s="41"/>
+      <c r="BB1" s="41"/>
+      <c r="BC1" s="42"/>
     </row>
     <row r="2" spans="1:55" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="37" t="str">
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="40" t="str">
         <f ca="1">RIGHT(CELL("filename",O2),LEN(CELL("filename",O2))-FIND("]",CELL("filename",O2)))</f>
         <v>勤怠報告フロー</v>
       </c>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38"/>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="39"/>
-      <c r="AF2" s="40" t="s">
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="41"/>
+      <c r="V2" s="41"/>
+      <c r="W2" s="41"/>
+      <c r="X2" s="41"/>
+      <c r="Y2" s="41"/>
+      <c r="Z2" s="41"/>
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="41"/>
+      <c r="AD2" s="41"/>
+      <c r="AE2" s="42"/>
+      <c r="AF2" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="AG2" s="41"/>
-      <c r="AH2" s="41"/>
-      <c r="AI2" s="42"/>
-      <c r="AJ2" s="43">
+      <c r="AG2" s="44"/>
+      <c r="AH2" s="44"/>
+      <c r="AI2" s="45"/>
+      <c r="AJ2" s="46">
         <v>44533</v>
       </c>
-      <c r="AK2" s="38"/>
-      <c r="AL2" s="38"/>
-      <c r="AM2" s="38"/>
-      <c r="AN2" s="38"/>
-      <c r="AO2" s="38"/>
-      <c r="AP2" s="38"/>
-      <c r="AQ2" s="39"/>
-      <c r="AR2" s="40" t="s">
+      <c r="AK2" s="41"/>
+      <c r="AL2" s="41"/>
+      <c r="AM2" s="41"/>
+      <c r="AN2" s="41"/>
+      <c r="AO2" s="41"/>
+      <c r="AP2" s="41"/>
+      <c r="AQ2" s="42"/>
+      <c r="AR2" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="AS2" s="41"/>
-      <c r="AT2" s="41"/>
-      <c r="AU2" s="42"/>
-      <c r="AV2" s="43">
+      <c r="AS2" s="44"/>
+      <c r="AT2" s="44"/>
+      <c r="AU2" s="45"/>
+      <c r="AV2" s="46">
         <v>44533</v>
       </c>
-      <c r="AW2" s="38"/>
-      <c r="AX2" s="38"/>
-      <c r="AY2" s="38"/>
-      <c r="AZ2" s="38"/>
-      <c r="BA2" s="38"/>
-      <c r="BB2" s="38"/>
-      <c r="BC2" s="39"/>
+      <c r="AW2" s="41"/>
+      <c r="AX2" s="41"/>
+      <c r="AY2" s="41"/>
+      <c r="AZ2" s="41"/>
+      <c r="BA2" s="41"/>
+      <c r="BB2" s="41"/>
+      <c r="BC2" s="42"/>
     </row>
     <row r="3" spans="1:55" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BC3" s="14"/>
@@ -33481,9 +33479,9 @@
       <c r="BC92" s="3"/>
     </row>
     <row r="93" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="50"/>
-      <c r="B93" s="51"/>
-      <c r="C93" s="52"/>
+      <c r="A93" s="37"/>
+      <c r="B93" s="38"/>
+      <c r="C93" s="39"/>
       <c r="D93" s="7"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
@@ -37530,9 +37528,9 @@
       <c r="BC163" s="3"/>
     </row>
     <row r="164" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="50"/>
-      <c r="B164" s="51"/>
-      <c r="C164" s="52"/>
+      <c r="A164" s="37"/>
+      <c r="B164" s="38"/>
+      <c r="C164" s="39"/>
       <c r="D164" s="7"/>
       <c r="E164" s="8"/>
       <c r="F164" s="8"/>
@@ -37588,11 +37586,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A4:C5"/>
-    <mergeCell ref="D4:P5"/>
-    <mergeCell ref="Q4:AC5"/>
-    <mergeCell ref="A27:C93"/>
-    <mergeCell ref="A94:C164"/>
     <mergeCell ref="AD4:AP5"/>
     <mergeCell ref="AQ4:BC5"/>
     <mergeCell ref="A6:C26"/>
@@ -37609,6 +37602,11 @@
     <mergeCell ref="AF1:AI1"/>
     <mergeCell ref="AJ1:AQ1"/>
     <mergeCell ref="AR1:AU1"/>
+    <mergeCell ref="A4:C5"/>
+    <mergeCell ref="D4:P5"/>
+    <mergeCell ref="Q4:AC5"/>
+    <mergeCell ref="A27:C93"/>
+    <mergeCell ref="A94:C164"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.11811023622047245" footer="0.11811023622047245"/>
@@ -37625,7 +37623,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB11602C-5FA3-4788-9CF3-94B3F9FC8A08}">
   <dimension ref="A1:BC93"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="60" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
@@ -37638,143 +37636,143 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="47" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="47" t="s">
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="48"/>
-      <c r="W1" s="48"/>
-      <c r="X1" s="48"/>
-      <c r="Y1" s="48"/>
-      <c r="Z1" s="48"/>
-      <c r="AA1" s="48"/>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="48"/>
-      <c r="AD1" s="48"/>
-      <c r="AE1" s="49"/>
-      <c r="AF1" s="47" t="s">
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
+      <c r="Z1" s="51"/>
+      <c r="AA1" s="51"/>
+      <c r="AB1" s="51"/>
+      <c r="AC1" s="51"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="52"/>
+      <c r="AF1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="48"/>
-      <c r="AH1" s="48"/>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="37" t="s">
+      <c r="AG1" s="51"/>
+      <c r="AH1" s="51"/>
+      <c r="AI1" s="52"/>
+      <c r="AJ1" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="AK1" s="38"/>
-      <c r="AL1" s="38"/>
-      <c r="AM1" s="38"/>
-      <c r="AN1" s="38"/>
-      <c r="AO1" s="38"/>
-      <c r="AP1" s="38"/>
-      <c r="AQ1" s="39"/>
-      <c r="AR1" s="47" t="s">
+      <c r="AK1" s="41"/>
+      <c r="AL1" s="41"/>
+      <c r="AM1" s="41"/>
+      <c r="AN1" s="41"/>
+      <c r="AO1" s="41"/>
+      <c r="AP1" s="41"/>
+      <c r="AQ1" s="42"/>
+      <c r="AR1" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="AS1" s="48"/>
-      <c r="AT1" s="48"/>
-      <c r="AU1" s="49"/>
-      <c r="AV1" s="37" t="s">
+      <c r="AS1" s="51"/>
+      <c r="AT1" s="51"/>
+      <c r="AU1" s="52"/>
+      <c r="AV1" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="AW1" s="38"/>
-      <c r="AX1" s="38"/>
-      <c r="AY1" s="38"/>
-      <c r="AZ1" s="38"/>
-      <c r="BA1" s="38"/>
-      <c r="BB1" s="38"/>
-      <c r="BC1" s="39"/>
+      <c r="AW1" s="41"/>
+      <c r="AX1" s="41"/>
+      <c r="AY1" s="41"/>
+      <c r="AZ1" s="41"/>
+      <c r="BA1" s="41"/>
+      <c r="BB1" s="41"/>
+      <c r="BC1" s="42"/>
     </row>
     <row r="2" spans="1:55" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="37" t="str">
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="40" t="str">
         <f ca="1">RIGHT(CELL("filename",O2),LEN(CELL("filename",O2))-FIND("]",CELL("filename",O2)))</f>
         <v>有給申請フロー</v>
       </c>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="38"/>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38"/>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="39"/>
-      <c r="AF2" s="40" t="s">
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="41"/>
+      <c r="V2" s="41"/>
+      <c r="W2" s="41"/>
+      <c r="X2" s="41"/>
+      <c r="Y2" s="41"/>
+      <c r="Z2" s="41"/>
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="41"/>
+      <c r="AD2" s="41"/>
+      <c r="AE2" s="42"/>
+      <c r="AF2" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="AG2" s="41"/>
-      <c r="AH2" s="41"/>
-      <c r="AI2" s="42"/>
-      <c r="AJ2" s="43">
+      <c r="AG2" s="44"/>
+      <c r="AH2" s="44"/>
+      <c r="AI2" s="45"/>
+      <c r="AJ2" s="46">
         <v>44533</v>
       </c>
-      <c r="AK2" s="38"/>
-      <c r="AL2" s="38"/>
-      <c r="AM2" s="38"/>
-      <c r="AN2" s="38"/>
-      <c r="AO2" s="38"/>
-      <c r="AP2" s="38"/>
-      <c r="AQ2" s="39"/>
-      <c r="AR2" s="40" t="s">
+      <c r="AK2" s="41"/>
+      <c r="AL2" s="41"/>
+      <c r="AM2" s="41"/>
+      <c r="AN2" s="41"/>
+      <c r="AO2" s="41"/>
+      <c r="AP2" s="41"/>
+      <c r="AQ2" s="42"/>
+      <c r="AR2" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="AS2" s="41"/>
-      <c r="AT2" s="41"/>
-      <c r="AU2" s="42"/>
-      <c r="AV2" s="43">
+      <c r="AS2" s="44"/>
+      <c r="AT2" s="44"/>
+      <c r="AU2" s="45"/>
+      <c r="AV2" s="46">
         <v>44533</v>
       </c>
-      <c r="AW2" s="38"/>
-      <c r="AX2" s="38"/>
-      <c r="AY2" s="38"/>
-      <c r="AZ2" s="38"/>
-      <c r="BA2" s="38"/>
-      <c r="BB2" s="38"/>
-      <c r="BC2" s="39"/>
+      <c r="AW2" s="41"/>
+      <c r="AX2" s="41"/>
+      <c r="AY2" s="41"/>
+      <c r="AZ2" s="41"/>
+      <c r="BA2" s="41"/>
+      <c r="BB2" s="41"/>
+      <c r="BC2" s="42"/>
     </row>
     <row r="3" spans="1:55" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BC3" s="14"/>
@@ -40357,9 +40355,9 @@
       <c r="BC48" s="3"/>
     </row>
     <row r="49" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="50"/>
-      <c r="B49" s="51"/>
-      <c r="C49" s="52"/>
+      <c r="A49" s="37"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="39"/>
       <c r="D49" s="7"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
@@ -42867,9 +42865,9 @@
       <c r="BC92" s="3"/>
     </row>
     <row r="93" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="50"/>
-      <c r="B93" s="51"/>
-      <c r="C93" s="52"/>
+      <c r="A93" s="37"/>
+      <c r="B93" s="38"/>
+      <c r="C93" s="39"/>
       <c r="D93" s="7"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
@@ -42925,12 +42923,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="D4:P5"/>
-    <mergeCell ref="Q4:AC5"/>
-    <mergeCell ref="AD4:AP5"/>
-    <mergeCell ref="AQ4:BC5"/>
-    <mergeCell ref="A50:C93"/>
-    <mergeCell ref="A6:C49"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="G1:N1"/>
+    <mergeCell ref="O1:AE1"/>
+    <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="AJ1:AQ1"/>
     <mergeCell ref="AV1:BC1"/>
     <mergeCell ref="G2:N2"/>
     <mergeCell ref="O2:AE2"/>
@@ -42938,12 +42935,13 @@
     <mergeCell ref="AJ2:AQ2"/>
     <mergeCell ref="AR2:AU2"/>
     <mergeCell ref="AV2:BC2"/>
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="G1:N1"/>
-    <mergeCell ref="O1:AE1"/>
-    <mergeCell ref="AF1:AI1"/>
-    <mergeCell ref="AJ1:AQ1"/>
     <mergeCell ref="AR1:AU1"/>
+    <mergeCell ref="D4:P5"/>
+    <mergeCell ref="Q4:AC5"/>
+    <mergeCell ref="AD4:AP5"/>
+    <mergeCell ref="AQ4:BC5"/>
+    <mergeCell ref="A50:C93"/>
+    <mergeCell ref="A6:C49"/>
     <mergeCell ref="A4:C5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>

--- a/atndnc-mngmnt/documents/basic-design-documents/business-req/システム化業務フロー.xlsx
+++ b/atndnc-mngmnt/documents/basic-design-documents/business-req/システム化業務フロー.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\atndnc-mngmnt\documents\basic-design-documents\business-req\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBFA8E3-9E50-4C02-B69D-F4FDBE48F760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAAEB2CB-1622-4951-9116-0DC02844BB08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="180" windowWidth="21555" windowHeight="15870" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25680" yWindow="105" windowWidth="14925" windowHeight="15645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="凡例" sheetId="8" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="55">
   <si>
     <t>区分</t>
     <rPh sb="0" eb="2">
@@ -101,16 +101,6 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>ビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>友利拓真</t>
-    <rPh sb="0" eb="2">
-      <t>トモリ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>タクマ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -886,6 +876,51 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -929,51 +964,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -29468,8 +29458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07960FC6-4CC9-41F1-AC7A-291F8AE3DB07}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -29496,17 +29486,17 @@
   <sheetData>
     <row r="1" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="16" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="16" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="16" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -29514,13 +29504,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="16" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="18"/>
       <c r="D5" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="16" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -29528,14 +29518,14 @@
         <v>2</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="16" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="17"/>
       <c r="C7" s="19"/>
       <c r="D7" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="16" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -29543,19 +29533,19 @@
         <v>3</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="16" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="17"/>
       <c r="C9" s="19"/>
       <c r="D9" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="16" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="16" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -29563,13 +29553,13 @@
         <v>1</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="16" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="20"/>
       <c r="D12" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="16" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -29577,13 +29567,13 @@
         <v>2</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="16" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="18"/>
       <c r="D14" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="16" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -29591,13 +29581,13 @@
         <v>3</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="16" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="20"/>
       <c r="D16" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="16" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -29605,19 +29595,19 @@
         <v>4</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:4" s="16" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="20"/>
       <c r="D18" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:4" s="16" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="19"/>
       <c r="D19" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="16" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -29625,51 +29615,51 @@
     </row>
     <row r="21" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:4" s="16" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:4" s="16" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="17"/>
       <c r="C23" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:4" s="16" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:4" s="16" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="21"/>
       <c r="C25" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:4" s="16" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:4" s="16" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="21"/>
       <c r="C27" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:4" s="16" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:4" s="16" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="21"/>
       <c r="C29" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -29686,11 +29676,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE153E9D-197F-4667-A745-A23CD82F214B}">
   <dimension ref="A1:BF219"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="60" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="60" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane xSplit="6" ySplit="5" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AF40" sqref="AF40"/>
+      <selection pane="bottomRight" activeCell="BO17" sqref="BO17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -29699,290 +29689,286 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="43" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="43" t="s">
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="44"/>
-      <c r="AA1" s="44"/>
-      <c r="AB1" s="44"/>
-      <c r="AC1" s="44"/>
-      <c r="AD1" s="44"/>
-      <c r="AE1" s="45"/>
-      <c r="AF1" s="43" t="s">
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="32"/>
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="33"/>
+      <c r="AF1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="44"/>
-      <c r="AH1" s="44"/>
-      <c r="AI1" s="45"/>
-      <c r="AJ1" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="AK1" s="47"/>
-      <c r="AL1" s="47"/>
-      <c r="AM1" s="47"/>
-      <c r="AN1" s="47"/>
-      <c r="AO1" s="47"/>
-      <c r="AP1" s="47"/>
-      <c r="AQ1" s="48"/>
-      <c r="AR1" s="43" t="s">
+      <c r="AG1" s="32"/>
+      <c r="AH1" s="32"/>
+      <c r="AI1" s="33"/>
+      <c r="AJ1" s="34"/>
+      <c r="AK1" s="35"/>
+      <c r="AL1" s="35"/>
+      <c r="AM1" s="35"/>
+      <c r="AN1" s="35"/>
+      <c r="AO1" s="35"/>
+      <c r="AP1" s="35"/>
+      <c r="AQ1" s="36"/>
+      <c r="AR1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="AS1" s="44"/>
-      <c r="AT1" s="44"/>
-      <c r="AU1" s="45"/>
-      <c r="AV1" s="40">
+      <c r="AS1" s="32"/>
+      <c r="AT1" s="32"/>
+      <c r="AU1" s="33"/>
+      <c r="AV1" s="37">
         <v>44533</v>
       </c>
-      <c r="AW1" s="41"/>
-      <c r="AX1" s="41"/>
-      <c r="AY1" s="41"/>
-      <c r="AZ1" s="41"/>
-      <c r="BA1" s="41"/>
-      <c r="BB1" s="41"/>
-      <c r="BC1" s="42"/>
+      <c r="AW1" s="38"/>
+      <c r="AX1" s="38"/>
+      <c r="AY1" s="38"/>
+      <c r="AZ1" s="38"/>
+      <c r="BA1" s="38"/>
+      <c r="BB1" s="38"/>
+      <c r="BC1" s="39"/>
     </row>
     <row r="2" spans="1:58" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="52"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="46" t="str">
+      <c r="A2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="34" t="str">
         <f ca="1">RIGHT(CELL("filename",O2),LEN(CELL("filename",O2))-FIND("]",CELL("filename",O2)))</f>
         <v>打刻・勤怠報告フロー</v>
       </c>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47"/>
-      <c r="W2" s="47"/>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="47"/>
-      <c r="Z2" s="47"/>
-      <c r="AA2" s="47"/>
-      <c r="AB2" s="47"/>
-      <c r="AC2" s="47"/>
-      <c r="AD2" s="47"/>
-      <c r="AE2" s="48"/>
-      <c r="AF2" s="43" t="s">
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="35"/>
+      <c r="X2" s="35"/>
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="35"/>
+      <c r="AE2" s="36"/>
+      <c r="AF2" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="AG2" s="44"/>
-      <c r="AH2" s="44"/>
-      <c r="AI2" s="45"/>
-      <c r="AJ2" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="AK2" s="47"/>
-      <c r="AL2" s="47"/>
-      <c r="AM2" s="47"/>
-      <c r="AN2" s="47"/>
-      <c r="AO2" s="47"/>
-      <c r="AP2" s="47"/>
-      <c r="AQ2" s="48"/>
-      <c r="AR2" s="43" t="s">
+      <c r="AG2" s="32"/>
+      <c r="AH2" s="32"/>
+      <c r="AI2" s="33"/>
+      <c r="AJ2" s="34"/>
+      <c r="AK2" s="35"/>
+      <c r="AL2" s="35"/>
+      <c r="AM2" s="35"/>
+      <c r="AN2" s="35"/>
+      <c r="AO2" s="35"/>
+      <c r="AP2" s="35"/>
+      <c r="AQ2" s="36"/>
+      <c r="AR2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="AS2" s="44"/>
-      <c r="AT2" s="44"/>
-      <c r="AU2" s="45"/>
-      <c r="AV2" s="40">
+      <c r="AS2" s="32"/>
+      <c r="AT2" s="32"/>
+      <c r="AU2" s="33"/>
+      <c r="AV2" s="37">
         <v>44533</v>
       </c>
-      <c r="AW2" s="41"/>
-      <c r="AX2" s="41"/>
-      <c r="AY2" s="41"/>
-      <c r="AZ2" s="41"/>
-      <c r="BA2" s="41"/>
-      <c r="BB2" s="41"/>
-      <c r="BC2" s="42"/>
+      <c r="AW2" s="38"/>
+      <c r="AX2" s="38"/>
+      <c r="AY2" s="38"/>
+      <c r="AZ2" s="38"/>
+      <c r="BA2" s="38"/>
+      <c r="BB2" s="38"/>
+      <c r="BC2" s="39"/>
     </row>
     <row r="3" spans="1:58" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BF3" s="14"/>
     </row>
     <row r="4" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="50"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="34" t="s">
+      <c r="E4" s="50"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="50"/>
+      <c r="R4" s="50"/>
+      <c r="S4" s="50"/>
+      <c r="T4" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="U4" s="50"/>
+      <c r="V4" s="50"/>
+      <c r="W4" s="50"/>
+      <c r="X4" s="50"/>
+      <c r="Y4" s="50"/>
+      <c r="Z4" s="50"/>
+      <c r="AA4" s="50"/>
+      <c r="AB4" s="50"/>
+      <c r="AC4" s="50"/>
+      <c r="AD4" s="50"/>
+      <c r="AE4" s="50"/>
+      <c r="AF4" s="50"/>
+      <c r="AG4" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH4" s="50"/>
+      <c r="AI4" s="50"/>
+      <c r="AJ4" s="50"/>
+      <c r="AK4" s="50"/>
+      <c r="AL4" s="50"/>
+      <c r="AM4" s="50"/>
+      <c r="AN4" s="50"/>
+      <c r="AO4" s="50"/>
+      <c r="AP4" s="50"/>
+      <c r="AQ4" s="50"/>
+      <c r="AR4" s="50"/>
+      <c r="AS4" s="51"/>
+      <c r="AT4" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU4" s="50"/>
+      <c r="AV4" s="50"/>
+      <c r="AW4" s="50"/>
+      <c r="AX4" s="50"/>
+      <c r="AY4" s="50"/>
+      <c r="AZ4" s="50"/>
+      <c r="BA4" s="50"/>
+      <c r="BB4" s="50"/>
+      <c r="BC4" s="50"/>
+      <c r="BD4" s="50"/>
+      <c r="BE4" s="50"/>
+      <c r="BF4" s="51"/>
+    </row>
+    <row r="5" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A5" s="52"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="53"/>
+      <c r="S5" s="53"/>
+      <c r="T5" s="52"/>
+      <c r="U5" s="53"/>
+      <c r="V5" s="53"/>
+      <c r="W5" s="53"/>
+      <c r="X5" s="53"/>
+      <c r="Y5" s="53"/>
+      <c r="Z5" s="53"/>
+      <c r="AA5" s="53"/>
+      <c r="AB5" s="53"/>
+      <c r="AC5" s="53"/>
+      <c r="AD5" s="53"/>
+      <c r="AE5" s="53"/>
+      <c r="AF5" s="53"/>
+      <c r="AG5" s="52"/>
+      <c r="AH5" s="53"/>
+      <c r="AI5" s="53"/>
+      <c r="AJ5" s="53"/>
+      <c r="AK5" s="53"/>
+      <c r="AL5" s="53"/>
+      <c r="AM5" s="53"/>
+      <c r="AN5" s="53"/>
+      <c r="AO5" s="53"/>
+      <c r="AP5" s="53"/>
+      <c r="AQ5" s="53"/>
+      <c r="AR5" s="53"/>
+      <c r="AS5" s="54"/>
+      <c r="AT5" s="53"/>
+      <c r="AU5" s="53"/>
+      <c r="AV5" s="53"/>
+      <c r="AW5" s="53"/>
+      <c r="AX5" s="53"/>
+      <c r="AY5" s="53"/>
+      <c r="AZ5" s="53"/>
+      <c r="BA5" s="53"/>
+      <c r="BB5" s="53"/>
+      <c r="BC5" s="53"/>
+      <c r="BD5" s="53"/>
+      <c r="BE5" s="53"/>
+      <c r="BF5" s="54"/>
+    </row>
+    <row r="6" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="35"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="34" t="s">
-        <v>11</v>
+      <c r="B6" s="41"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="40" t="s">
+        <v>33</v>
       </c>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="35"/>
-      <c r="S4" s="35"/>
-      <c r="T4" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="U4" s="35"/>
-      <c r="V4" s="35"/>
-      <c r="W4" s="35"/>
-      <c r="X4" s="35"/>
-      <c r="Y4" s="35"/>
-      <c r="Z4" s="35"/>
-      <c r="AA4" s="35"/>
-      <c r="AB4" s="35"/>
-      <c r="AC4" s="35"/>
-      <c r="AD4" s="35"/>
-      <c r="AE4" s="35"/>
-      <c r="AF4" s="35"/>
-      <c r="AG4" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH4" s="35"/>
-      <c r="AI4" s="35"/>
-      <c r="AJ4" s="35"/>
-      <c r="AK4" s="35"/>
-      <c r="AL4" s="35"/>
-      <c r="AM4" s="35"/>
-      <c r="AN4" s="35"/>
-      <c r="AO4" s="35"/>
-      <c r="AP4" s="35"/>
-      <c r="AQ4" s="35"/>
-      <c r="AR4" s="35"/>
-      <c r="AS4" s="36"/>
-      <c r="AT4" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="AU4" s="35"/>
-      <c r="AV4" s="35"/>
-      <c r="AW4" s="35"/>
-      <c r="AX4" s="35"/>
-      <c r="AY4" s="35"/>
-      <c r="AZ4" s="35"/>
-      <c r="BA4" s="35"/>
-      <c r="BB4" s="35"/>
-      <c r="BC4" s="35"/>
-      <c r="BD4" s="35"/>
-      <c r="BE4" s="35"/>
-      <c r="BF4" s="36"/>
-    </row>
-    <row r="5" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="38"/>
-      <c r="S5" s="38"/>
-      <c r="T5" s="37"/>
-      <c r="U5" s="38"/>
-      <c r="V5" s="38"/>
-      <c r="W5" s="38"/>
-      <c r="X5" s="38"/>
-      <c r="Y5" s="38"/>
-      <c r="Z5" s="38"/>
-      <c r="AA5" s="38"/>
-      <c r="AB5" s="38"/>
-      <c r="AC5" s="38"/>
-      <c r="AD5" s="38"/>
-      <c r="AE5" s="38"/>
-      <c r="AF5" s="38"/>
-      <c r="AG5" s="37"/>
-      <c r="AH5" s="38"/>
-      <c r="AI5" s="38"/>
-      <c r="AJ5" s="38"/>
-      <c r="AK5" s="38"/>
-      <c r="AL5" s="38"/>
-      <c r="AM5" s="38"/>
-      <c r="AN5" s="38"/>
-      <c r="AO5" s="38"/>
-      <c r="AP5" s="38"/>
-      <c r="AQ5" s="38"/>
-      <c r="AR5" s="38"/>
-      <c r="AS5" s="39"/>
-      <c r="AT5" s="38"/>
-      <c r="AU5" s="38"/>
-      <c r="AV5" s="38"/>
-      <c r="AW5" s="38"/>
-      <c r="AX5" s="38"/>
-      <c r="AY5" s="38"/>
-      <c r="AZ5" s="38"/>
-      <c r="BA5" s="38"/>
-      <c r="BB5" s="38"/>
-      <c r="BC5" s="38"/>
-      <c r="BD5" s="38"/>
-      <c r="BE5" s="38"/>
-      <c r="BF5" s="39"/>
-    </row>
-    <row r="6" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="27"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="42"/>
       <c r="G6" s="4"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
@@ -30037,12 +30023,12 @@
       <c r="BF6" s="6"/>
     </row>
     <row r="7" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="30"/>
+      <c r="A7" s="43"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="45"/>
       <c r="G7" s="1"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -30097,12 +30083,12 @@
       <c r="BF7" s="3"/>
     </row>
     <row r="8" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="30"/>
+      <c r="A8" s="43"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="45"/>
       <c r="G8" s="1"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -30157,12 +30143,12 @@
       <c r="BF8" s="3"/>
     </row>
     <row r="9" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="30"/>
+      <c r="A9" s="43"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="45"/>
       <c r="G9" s="1"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -30217,12 +30203,12 @@
       <c r="BF9" s="3"/>
     </row>
     <row r="10" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="30"/>
+      <c r="A10" s="43"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="45"/>
       <c r="G10" s="1"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -30277,12 +30263,12 @@
       <c r="BF10" s="3"/>
     </row>
     <row r="11" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="30"/>
+      <c r="A11" s="43"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="45"/>
       <c r="G11" s="1"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -30337,12 +30323,12 @@
       <c r="BF11" s="3"/>
     </row>
     <row r="12" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="30"/>
+      <c r="A12" s="43"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="45"/>
       <c r="G12" s="1"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -30397,12 +30383,12 @@
       <c r="BF12" s="3"/>
     </row>
     <row r="13" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="30"/>
+      <c r="A13" s="43"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="45"/>
       <c r="G13" s="1"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -30457,12 +30443,12 @@
       <c r="BF13" s="3"/>
     </row>
     <row r="14" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="30"/>
+      <c r="A14" s="43"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="45"/>
       <c r="G14" s="1"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -30517,12 +30503,12 @@
       <c r="BF14" s="3"/>
     </row>
     <row r="15" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="30"/>
+      <c r="A15" s="43"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="45"/>
       <c r="G15" s="1"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -30577,12 +30563,12 @@
       <c r="BF15" s="3"/>
     </row>
     <row r="16" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="30"/>
+      <c r="A16" s="43"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="45"/>
       <c r="G16" s="1"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -30637,16 +30623,16 @@
       <c r="BF16" s="3"/>
     </row>
     <row r="17" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
-        <v>38</v>
+      <c r="A17" s="40" t="s">
+        <v>37</v>
       </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="25" t="s">
-        <v>33</v>
+      <c r="B17" s="41"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="40" t="s">
+        <v>32</v>
       </c>
-      <c r="E17" s="26"/>
-      <c r="F17" s="27"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="42"/>
       <c r="G17" s="4"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
@@ -30701,12 +30687,12 @@
       <c r="BF17" s="6"/>
     </row>
     <row r="18" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="28"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="30"/>
+      <c r="A18" s="43"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="45"/>
       <c r="G18" s="1"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -30761,12 +30747,12 @@
       <c r="BF18" s="3"/>
     </row>
     <row r="19" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="28"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="30"/>
+      <c r="A19" s="43"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="45"/>
       <c r="G19" s="1"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -30821,12 +30807,12 @@
       <c r="BF19" s="3"/>
     </row>
     <row r="20" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="28"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="30"/>
+      <c r="A20" s="43"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="45"/>
       <c r="G20" s="1"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -30881,12 +30867,12 @@
       <c r="BF20" s="3"/>
     </row>
     <row r="21" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="30"/>
+      <c r="A21" s="43"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="45"/>
       <c r="G21" s="1"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
@@ -30941,12 +30927,12 @@
       <c r="BF21" s="3"/>
     </row>
     <row r="22" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="28"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="30"/>
+      <c r="A22" s="43"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="45"/>
       <c r="G22" s="1"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
@@ -31001,12 +30987,12 @@
       <c r="BF22" s="3"/>
     </row>
     <row r="23" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="28"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="30"/>
+      <c r="A23" s="43"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="45"/>
       <c r="G23" s="1"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -31061,12 +31047,12 @@
       <c r="BF23" s="3"/>
     </row>
     <row r="24" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="28"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="30"/>
+      <c r="A24" s="43"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="45"/>
       <c r="G24" s="1"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
@@ -31121,12 +31107,12 @@
       <c r="BF24" s="3"/>
     </row>
     <row r="25" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="28"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="30"/>
+      <c r="A25" s="43"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="45"/>
       <c r="G25" s="1"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -31181,12 +31167,12 @@
       <c r="BF25" s="3"/>
     </row>
     <row r="26" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="28"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="30"/>
+      <c r="A26" s="43"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="45"/>
       <c r="G26" s="1"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
@@ -31241,12 +31227,12 @@
       <c r="BF26" s="3"/>
     </row>
     <row r="27" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="28"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="30"/>
+      <c r="A27" s="43"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="45"/>
       <c r="G27" s="1"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
@@ -31301,12 +31287,12 @@
       <c r="BF27" s="3"/>
     </row>
     <row r="28" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="28"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="30"/>
+      <c r="A28" s="43"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="45"/>
       <c r="G28" s="1"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
@@ -31361,12 +31347,12 @@
       <c r="BF28" s="3"/>
     </row>
     <row r="29" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="28"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="30"/>
+      <c r="A29" s="43"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="45"/>
       <c r="G29" s="1"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
@@ -31421,12 +31407,12 @@
       <c r="BF29" s="3"/>
     </row>
     <row r="30" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="28"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="30"/>
+      <c r="A30" s="43"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="45"/>
       <c r="G30" s="1"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
@@ -31541,16 +31527,16 @@
       <c r="BF31" s="3"/>
     </row>
     <row r="32" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="25" t="s">
-        <v>38</v>
+      <c r="A32" s="40" t="s">
+        <v>37</v>
       </c>
-      <c r="B32" s="26"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="25" t="s">
-        <v>35</v>
+      <c r="B32" s="41"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="40" t="s">
+        <v>34</v>
       </c>
-      <c r="E32" s="26"/>
-      <c r="F32" s="27"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="42"/>
       <c r="G32" s="4"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
@@ -31605,12 +31591,12 @@
       <c r="BF32" s="6"/>
     </row>
     <row r="33" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="28"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="30"/>
+      <c r="A33" s="43"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="45"/>
       <c r="G33" s="1"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
@@ -31665,12 +31651,12 @@
       <c r="BF33" s="3"/>
     </row>
     <row r="34" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="28"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="30"/>
+      <c r="A34" s="43"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="45"/>
       <c r="G34" s="1"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
@@ -31725,12 +31711,12 @@
       <c r="BF34" s="3"/>
     </row>
     <row r="35" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="28"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="30"/>
+      <c r="A35" s="43"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="45"/>
       <c r="G35" s="1"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
@@ -31785,12 +31771,12 @@
       <c r="BF35" s="3"/>
     </row>
     <row r="36" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="28"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="30"/>
+      <c r="A36" s="43"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="45"/>
       <c r="G36" s="1"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
@@ -31845,12 +31831,12 @@
       <c r="BF36" s="3"/>
     </row>
     <row r="37" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="28"/>
-      <c r="B37" s="29"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="30"/>
+      <c r="A37" s="43"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="45"/>
       <c r="G37" s="1"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
@@ -31905,12 +31891,12 @@
       <c r="BF37" s="3"/>
     </row>
     <row r="38" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="28"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="30"/>
+      <c r="A38" s="43"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="45"/>
       <c r="G38" s="1"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
@@ -31965,12 +31951,12 @@
       <c r="BF38" s="3"/>
     </row>
     <row r="39" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="28"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="30"/>
+      <c r="A39" s="43"/>
+      <c r="B39" s="44"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="45"/>
       <c r="G39" s="1"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
@@ -32025,12 +32011,12 @@
       <c r="BF39" s="3"/>
     </row>
     <row r="40" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="28"/>
-      <c r="B40" s="29"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="30"/>
+      <c r="A40" s="43"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="45"/>
       <c r="G40" s="1"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
@@ -32085,12 +32071,12 @@
       <c r="BF40" s="3"/>
     </row>
     <row r="41" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="28"/>
-      <c r="B41" s="29"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="30"/>
+      <c r="A41" s="43"/>
+      <c r="B41" s="44"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="44"/>
+      <c r="F41" s="45"/>
       <c r="G41" s="1"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
@@ -32145,12 +32131,12 @@
       <c r="BF41" s="3"/>
     </row>
     <row r="42" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="28"/>
-      <c r="B42" s="29"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="30"/>
+      <c r="A42" s="43"/>
+      <c r="B42" s="44"/>
+      <c r="C42" s="45"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="44"/>
+      <c r="F42" s="45"/>
       <c r="G42" s="1"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
@@ -32205,12 +32191,12 @@
       <c r="BF42" s="3"/>
     </row>
     <row r="43" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="28"/>
-      <c r="B43" s="29"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="30"/>
+      <c r="A43" s="43"/>
+      <c r="B43" s="44"/>
+      <c r="C43" s="45"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="45"/>
       <c r="G43" s="1"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
@@ -32265,12 +32251,12 @@
       <c r="BF43" s="3"/>
     </row>
     <row r="44" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="28"/>
-      <c r="B44" s="29"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="30"/>
+      <c r="A44" s="43"/>
+      <c r="B44" s="44"/>
+      <c r="C44" s="45"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="44"/>
+      <c r="F44" s="45"/>
       <c r="G44" s="1"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
@@ -32325,16 +32311,16 @@
       <c r="BF44" s="3"/>
     </row>
     <row r="45" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="25" t="s">
+      <c r="A45" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" s="41"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="B45" s="26"/>
-      <c r="C45" s="27"/>
-      <c r="D45" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="E45" s="26"/>
-      <c r="F45" s="27"/>
+      <c r="E45" s="41"/>
+      <c r="F45" s="42"/>
       <c r="G45" s="10"/>
       <c r="H45" s="11"/>
       <c r="I45" s="11"/>
@@ -32389,12 +32375,12 @@
       <c r="BF45" s="12"/>
     </row>
     <row r="46" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="28"/>
-      <c r="B46" s="29"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="28"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="30"/>
+      <c r="A46" s="43"/>
+      <c r="B46" s="44"/>
+      <c r="C46" s="45"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="45"/>
       <c r="G46" s="1"/>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
@@ -32449,12 +32435,12 @@
       <c r="BF46" s="3"/>
     </row>
     <row r="47" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="28"/>
-      <c r="B47" s="29"/>
-      <c r="C47" s="30"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="30"/>
+      <c r="A47" s="43"/>
+      <c r="B47" s="44"/>
+      <c r="C47" s="45"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="44"/>
+      <c r="F47" s="45"/>
       <c r="G47" s="1"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
@@ -32509,12 +32495,12 @@
       <c r="BF47" s="3"/>
     </row>
     <row r="48" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="28"/>
-      <c r="B48" s="29"/>
-      <c r="C48" s="30"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="30"/>
+      <c r="A48" s="43"/>
+      <c r="B48" s="44"/>
+      <c r="C48" s="45"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="44"/>
+      <c r="F48" s="45"/>
       <c r="G48" s="1"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
@@ -32569,12 +32555,12 @@
       <c r="BF48" s="3"/>
     </row>
     <row r="49" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="28"/>
-      <c r="B49" s="29"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="29"/>
-      <c r="F49" s="30"/>
+      <c r="A49" s="43"/>
+      <c r="B49" s="44"/>
+      <c r="C49" s="45"/>
+      <c r="D49" s="43"/>
+      <c r="E49" s="44"/>
+      <c r="F49" s="45"/>
       <c r="G49" s="1"/>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
@@ -32629,12 +32615,12 @@
       <c r="BF49" s="3"/>
     </row>
     <row r="50" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="28"/>
-      <c r="B50" s="29"/>
-      <c r="C50" s="30"/>
-      <c r="D50" s="28"/>
-      <c r="E50" s="29"/>
-      <c r="F50" s="30"/>
+      <c r="A50" s="43"/>
+      <c r="B50" s="44"/>
+      <c r="C50" s="45"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="44"/>
+      <c r="F50" s="45"/>
       <c r="G50" s="1"/>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
@@ -32689,12 +32675,12 @@
       <c r="BF50" s="3"/>
     </row>
     <row r="51" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="28"/>
-      <c r="B51" s="29"/>
-      <c r="C51" s="30"/>
-      <c r="D51" s="28"/>
-      <c r="E51" s="29"/>
-      <c r="F51" s="30"/>
+      <c r="A51" s="43"/>
+      <c r="B51" s="44"/>
+      <c r="C51" s="45"/>
+      <c r="D51" s="43"/>
+      <c r="E51" s="44"/>
+      <c r="F51" s="45"/>
       <c r="G51" s="1"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
@@ -32749,12 +32735,12 @@
       <c r="BF51" s="3"/>
     </row>
     <row r="52" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="28"/>
-      <c r="B52" s="29"/>
-      <c r="C52" s="30"/>
-      <c r="D52" s="28"/>
-      <c r="E52" s="29"/>
-      <c r="F52" s="30"/>
+      <c r="A52" s="43"/>
+      <c r="B52" s="44"/>
+      <c r="C52" s="45"/>
+      <c r="D52" s="43"/>
+      <c r="E52" s="44"/>
+      <c r="F52" s="45"/>
       <c r="G52" s="1"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
@@ -32809,12 +32795,12 @@
       <c r="BF52" s="3"/>
     </row>
     <row r="53" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="28"/>
-      <c r="B53" s="29"/>
-      <c r="C53" s="30"/>
-      <c r="D53" s="28"/>
-      <c r="E53" s="29"/>
-      <c r="F53" s="30"/>
+      <c r="A53" s="43"/>
+      <c r="B53" s="44"/>
+      <c r="C53" s="45"/>
+      <c r="D53" s="43"/>
+      <c r="E53" s="44"/>
+      <c r="F53" s="45"/>
       <c r="G53" s="1"/>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
@@ -32869,12 +32855,12 @@
       <c r="BF53" s="3"/>
     </row>
     <row r="54" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="28"/>
-      <c r="B54" s="29"/>
-      <c r="C54" s="30"/>
-      <c r="D54" s="28"/>
-      <c r="E54" s="29"/>
-      <c r="F54" s="30"/>
+      <c r="A54" s="43"/>
+      <c r="B54" s="44"/>
+      <c r="C54" s="45"/>
+      <c r="D54" s="43"/>
+      <c r="E54" s="44"/>
+      <c r="F54" s="45"/>
       <c r="G54" s="1"/>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
@@ -32929,12 +32915,12 @@
       <c r="BF54" s="3"/>
     </row>
     <row r="55" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="28"/>
-      <c r="B55" s="29"/>
-      <c r="C55" s="30"/>
-      <c r="D55" s="28"/>
-      <c r="E55" s="29"/>
-      <c r="F55" s="30"/>
+      <c r="A55" s="43"/>
+      <c r="B55" s="44"/>
+      <c r="C55" s="45"/>
+      <c r="D55" s="43"/>
+      <c r="E55" s="44"/>
+      <c r="F55" s="45"/>
       <c r="G55" s="1"/>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
@@ -32989,12 +32975,12 @@
       <c r="BF55" s="3"/>
     </row>
     <row r="56" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="28"/>
-      <c r="B56" s="29"/>
-      <c r="C56" s="30"/>
-      <c r="D56" s="28"/>
-      <c r="E56" s="29"/>
-      <c r="F56" s="30"/>
+      <c r="A56" s="43"/>
+      <c r="B56" s="44"/>
+      <c r="C56" s="45"/>
+      <c r="D56" s="43"/>
+      <c r="E56" s="44"/>
+      <c r="F56" s="45"/>
       <c r="G56" s="1"/>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
@@ -33049,12 +33035,12 @@
       <c r="BF56" s="3"/>
     </row>
     <row r="57" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="28"/>
-      <c r="B57" s="29"/>
-      <c r="C57" s="30"/>
-      <c r="D57" s="28"/>
-      <c r="E57" s="29"/>
-      <c r="F57" s="30"/>
+      <c r="A57" s="43"/>
+      <c r="B57" s="44"/>
+      <c r="C57" s="45"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="44"/>
+      <c r="F57" s="45"/>
       <c r="G57" s="1"/>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
@@ -33109,12 +33095,12 @@
       <c r="BF57" s="3"/>
     </row>
     <row r="58" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="28"/>
-      <c r="B58" s="29"/>
-      <c r="C58" s="30"/>
-      <c r="D58" s="28"/>
-      <c r="E58" s="29"/>
-      <c r="F58" s="30"/>
+      <c r="A58" s="43"/>
+      <c r="B58" s="44"/>
+      <c r="C58" s="45"/>
+      <c r="D58" s="43"/>
+      <c r="E58" s="44"/>
+      <c r="F58" s="45"/>
       <c r="G58" s="1"/>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
@@ -33169,12 +33155,12 @@
       <c r="BF58" s="3"/>
     </row>
     <row r="59" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="28"/>
-      <c r="B59" s="29"/>
-      <c r="C59" s="30"/>
-      <c r="D59" s="28"/>
-      <c r="E59" s="29"/>
-      <c r="F59" s="30"/>
+      <c r="A59" s="43"/>
+      <c r="B59" s="44"/>
+      <c r="C59" s="45"/>
+      <c r="D59" s="43"/>
+      <c r="E59" s="44"/>
+      <c r="F59" s="45"/>
       <c r="G59" s="1"/>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
@@ -33229,12 +33215,12 @@
       <c r="BF59" s="3"/>
     </row>
     <row r="60" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="28"/>
-      <c r="B60" s="29"/>
-      <c r="C60" s="30"/>
-      <c r="D60" s="28"/>
-      <c r="E60" s="29"/>
-      <c r="F60" s="30"/>
+      <c r="A60" s="43"/>
+      <c r="B60" s="44"/>
+      <c r="C60" s="45"/>
+      <c r="D60" s="43"/>
+      <c r="E60" s="44"/>
+      <c r="F60" s="45"/>
       <c r="G60" s="1"/>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
@@ -33289,12 +33275,12 @@
       <c r="BF60" s="3"/>
     </row>
     <row r="61" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="28"/>
-      <c r="B61" s="29"/>
-      <c r="C61" s="30"/>
-      <c r="D61" s="28"/>
-      <c r="E61" s="29"/>
-      <c r="F61" s="30"/>
+      <c r="A61" s="43"/>
+      <c r="B61" s="44"/>
+      <c r="C61" s="45"/>
+      <c r="D61" s="43"/>
+      <c r="E61" s="44"/>
+      <c r="F61" s="45"/>
       <c r="G61" s="1"/>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
@@ -33349,12 +33335,12 @@
       <c r="BF61" s="3"/>
     </row>
     <row r="62" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="28"/>
-      <c r="B62" s="29"/>
-      <c r="C62" s="30"/>
-      <c r="D62" s="28"/>
-      <c r="E62" s="29"/>
-      <c r="F62" s="30"/>
+      <c r="A62" s="43"/>
+      <c r="B62" s="44"/>
+      <c r="C62" s="45"/>
+      <c r="D62" s="43"/>
+      <c r="E62" s="44"/>
+      <c r="F62" s="45"/>
       <c r="G62" s="1"/>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
@@ -33409,12 +33395,12 @@
       <c r="BF62" s="3"/>
     </row>
     <row r="63" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="28"/>
-      <c r="B63" s="29"/>
-      <c r="C63" s="30"/>
-      <c r="D63" s="28"/>
-      <c r="E63" s="29"/>
-      <c r="F63" s="30"/>
+      <c r="A63" s="43"/>
+      <c r="B63" s="44"/>
+      <c r="C63" s="45"/>
+      <c r="D63" s="43"/>
+      <c r="E63" s="44"/>
+      <c r="F63" s="45"/>
       <c r="G63" s="1"/>
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
@@ -33469,12 +33455,12 @@
       <c r="BF63" s="3"/>
     </row>
     <row r="64" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="28"/>
-      <c r="B64" s="29"/>
-      <c r="C64" s="30"/>
-      <c r="D64" s="28"/>
-      <c r="E64" s="29"/>
-      <c r="F64" s="30"/>
+      <c r="A64" s="43"/>
+      <c r="B64" s="44"/>
+      <c r="C64" s="45"/>
+      <c r="D64" s="43"/>
+      <c r="E64" s="44"/>
+      <c r="F64" s="45"/>
       <c r="G64" s="1"/>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
@@ -33529,12 +33515,12 @@
       <c r="BF64" s="3"/>
     </row>
     <row r="65" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="28"/>
-      <c r="B65" s="29"/>
-      <c r="C65" s="30"/>
-      <c r="D65" s="28"/>
-      <c r="E65" s="29"/>
-      <c r="F65" s="30"/>
+      <c r="A65" s="43"/>
+      <c r="B65" s="44"/>
+      <c r="C65" s="45"/>
+      <c r="D65" s="43"/>
+      <c r="E65" s="44"/>
+      <c r="F65" s="45"/>
       <c r="G65" s="1"/>
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
@@ -33589,12 +33575,12 @@
       <c r="BF65" s="3"/>
     </row>
     <row r="66" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="28"/>
-      <c r="B66" s="29"/>
-      <c r="C66" s="30"/>
-      <c r="D66" s="28"/>
-      <c r="E66" s="29"/>
-      <c r="F66" s="30"/>
+      <c r="A66" s="43"/>
+      <c r="B66" s="44"/>
+      <c r="C66" s="45"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="44"/>
+      <c r="F66" s="45"/>
       <c r="G66" s="1"/>
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
@@ -33649,12 +33635,12 @@
       <c r="BF66" s="3"/>
     </row>
     <row r="67" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="28"/>
-      <c r="B67" s="29"/>
-      <c r="C67" s="30"/>
-      <c r="D67" s="28"/>
-      <c r="E67" s="29"/>
-      <c r="F67" s="30"/>
+      <c r="A67" s="43"/>
+      <c r="B67" s="44"/>
+      <c r="C67" s="45"/>
+      <c r="D67" s="43"/>
+      <c r="E67" s="44"/>
+      <c r="F67" s="45"/>
       <c r="G67" s="1"/>
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
@@ -33709,12 +33695,12 @@
       <c r="BF67" s="3"/>
     </row>
     <row r="68" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="28"/>
-      <c r="B68" s="29"/>
-      <c r="C68" s="30"/>
-      <c r="D68" s="28"/>
-      <c r="E68" s="29"/>
-      <c r="F68" s="30"/>
+      <c r="A68" s="43"/>
+      <c r="B68" s="44"/>
+      <c r="C68" s="45"/>
+      <c r="D68" s="43"/>
+      <c r="E68" s="44"/>
+      <c r="F68" s="45"/>
       <c r="G68" s="1"/>
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
@@ -33769,12 +33755,12 @@
       <c r="BF68" s="3"/>
     </row>
     <row r="69" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="28"/>
-      <c r="B69" s="29"/>
-      <c r="C69" s="30"/>
-      <c r="D69" s="28"/>
-      <c r="E69" s="29"/>
-      <c r="F69" s="30"/>
+      <c r="A69" s="43"/>
+      <c r="B69" s="44"/>
+      <c r="C69" s="45"/>
+      <c r="D69" s="43"/>
+      <c r="E69" s="44"/>
+      <c r="F69" s="45"/>
       <c r="G69" s="1"/>
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
@@ -33829,12 +33815,12 @@
       <c r="BF69" s="3"/>
     </row>
     <row r="70" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="28"/>
-      <c r="B70" s="29"/>
-      <c r="C70" s="30"/>
-      <c r="D70" s="28"/>
-      <c r="E70" s="29"/>
-      <c r="F70" s="30"/>
+      <c r="A70" s="43"/>
+      <c r="B70" s="44"/>
+      <c r="C70" s="45"/>
+      <c r="D70" s="43"/>
+      <c r="E70" s="44"/>
+      <c r="F70" s="45"/>
       <c r="G70" s="1"/>
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
@@ -33889,12 +33875,12 @@
       <c r="BF70" s="3"/>
     </row>
     <row r="71" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="28"/>
-      <c r="B71" s="29"/>
-      <c r="C71" s="30"/>
-      <c r="D71" s="28"/>
-      <c r="E71" s="29"/>
-      <c r="F71" s="30"/>
+      <c r="A71" s="43"/>
+      <c r="B71" s="44"/>
+      <c r="C71" s="45"/>
+      <c r="D71" s="43"/>
+      <c r="E71" s="44"/>
+      <c r="F71" s="45"/>
       <c r="G71" s="1"/>
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
@@ -33949,12 +33935,12 @@
       <c r="BF71" s="3"/>
     </row>
     <row r="72" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="28"/>
-      <c r="B72" s="29"/>
-      <c r="C72" s="30"/>
-      <c r="D72" s="28"/>
-      <c r="E72" s="29"/>
-      <c r="F72" s="30"/>
+      <c r="A72" s="43"/>
+      <c r="B72" s="44"/>
+      <c r="C72" s="45"/>
+      <c r="D72" s="43"/>
+      <c r="E72" s="44"/>
+      <c r="F72" s="45"/>
       <c r="G72" s="1"/>
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
@@ -34009,12 +33995,12 @@
       <c r="BF72" s="3"/>
     </row>
     <row r="73" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="28"/>
-      <c r="B73" s="29"/>
-      <c r="C73" s="30"/>
-      <c r="D73" s="28"/>
-      <c r="E73" s="29"/>
-      <c r="F73" s="30"/>
+      <c r="A73" s="43"/>
+      <c r="B73" s="44"/>
+      <c r="C73" s="45"/>
+      <c r="D73" s="43"/>
+      <c r="E73" s="44"/>
+      <c r="F73" s="45"/>
       <c r="G73" s="1"/>
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
@@ -34069,12 +34055,12 @@
       <c r="BF73" s="3"/>
     </row>
     <row r="74" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="28"/>
-      <c r="B74" s="29"/>
-      <c r="C74" s="30"/>
-      <c r="D74" s="28"/>
-      <c r="E74" s="29"/>
-      <c r="F74" s="30"/>
+      <c r="A74" s="43"/>
+      <c r="B74" s="44"/>
+      <c r="C74" s="45"/>
+      <c r="D74" s="43"/>
+      <c r="E74" s="44"/>
+      <c r="F74" s="45"/>
       <c r="G74" s="1"/>
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
@@ -34129,12 +34115,12 @@
       <c r="BF74" s="3"/>
     </row>
     <row r="75" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="28"/>
-      <c r="B75" s="29"/>
-      <c r="C75" s="30"/>
-      <c r="D75" s="28"/>
-      <c r="E75" s="29"/>
-      <c r="F75" s="30"/>
+      <c r="A75" s="43"/>
+      <c r="B75" s="44"/>
+      <c r="C75" s="45"/>
+      <c r="D75" s="43"/>
+      <c r="E75" s="44"/>
+      <c r="F75" s="45"/>
       <c r="G75" s="1"/>
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
@@ -34189,12 +34175,12 @@
       <c r="BF75" s="3"/>
     </row>
     <row r="76" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="28"/>
-      <c r="B76" s="29"/>
-      <c r="C76" s="30"/>
-      <c r="D76" s="28"/>
-      <c r="E76" s="29"/>
-      <c r="F76" s="30"/>
+      <c r="A76" s="43"/>
+      <c r="B76" s="44"/>
+      <c r="C76" s="45"/>
+      <c r="D76" s="43"/>
+      <c r="E76" s="44"/>
+      <c r="F76" s="45"/>
       <c r="G76" s="1"/>
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
@@ -34249,12 +34235,12 @@
       <c r="BF76" s="3"/>
     </row>
     <row r="77" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="28"/>
-      <c r="B77" s="29"/>
-      <c r="C77" s="30"/>
-      <c r="D77" s="28"/>
-      <c r="E77" s="29"/>
-      <c r="F77" s="30"/>
+      <c r="A77" s="43"/>
+      <c r="B77" s="44"/>
+      <c r="C77" s="45"/>
+      <c r="D77" s="43"/>
+      <c r="E77" s="44"/>
+      <c r="F77" s="45"/>
       <c r="G77" s="1"/>
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
@@ -34309,12 +34295,12 @@
       <c r="BF77" s="3"/>
     </row>
     <row r="78" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="28"/>
-      <c r="B78" s="29"/>
-      <c r="C78" s="30"/>
-      <c r="D78" s="28"/>
-      <c r="E78" s="29"/>
-      <c r="F78" s="30"/>
+      <c r="A78" s="43"/>
+      <c r="B78" s="44"/>
+      <c r="C78" s="45"/>
+      <c r="D78" s="43"/>
+      <c r="E78" s="44"/>
+      <c r="F78" s="45"/>
       <c r="G78" s="1"/>
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
@@ -34369,12 +34355,12 @@
       <c r="BF78" s="3"/>
     </row>
     <row r="79" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="28"/>
-      <c r="B79" s="29"/>
-      <c r="C79" s="30"/>
-      <c r="D79" s="28"/>
-      <c r="E79" s="29"/>
-      <c r="F79" s="30"/>
+      <c r="A79" s="43"/>
+      <c r="B79" s="44"/>
+      <c r="C79" s="45"/>
+      <c r="D79" s="43"/>
+      <c r="E79" s="44"/>
+      <c r="F79" s="45"/>
       <c r="G79" s="1"/>
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
@@ -34429,12 +34415,12 @@
       <c r="BF79" s="3"/>
     </row>
     <row r="80" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="28"/>
-      <c r="B80" s="29"/>
-      <c r="C80" s="30"/>
-      <c r="D80" s="28"/>
-      <c r="E80" s="29"/>
-      <c r="F80" s="30"/>
+      <c r="A80" s="43"/>
+      <c r="B80" s="44"/>
+      <c r="C80" s="45"/>
+      <c r="D80" s="43"/>
+      <c r="E80" s="44"/>
+      <c r="F80" s="45"/>
       <c r="G80" s="1"/>
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
@@ -34489,12 +34475,12 @@
       <c r="BF80" s="3"/>
     </row>
     <row r="81" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="28"/>
-      <c r="B81" s="29"/>
-      <c r="C81" s="30"/>
-      <c r="D81" s="28"/>
-      <c r="E81" s="29"/>
-      <c r="F81" s="30"/>
+      <c r="A81" s="43"/>
+      <c r="B81" s="44"/>
+      <c r="C81" s="45"/>
+      <c r="D81" s="43"/>
+      <c r="E81" s="44"/>
+      <c r="F81" s="45"/>
       <c r="G81" s="1"/>
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
@@ -34549,12 +34535,12 @@
       <c r="BF81" s="3"/>
     </row>
     <row r="82" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="28"/>
-      <c r="B82" s="29"/>
-      <c r="C82" s="30"/>
-      <c r="D82" s="28"/>
-      <c r="E82" s="29"/>
-      <c r="F82" s="30"/>
+      <c r="A82" s="43"/>
+      <c r="B82" s="44"/>
+      <c r="C82" s="45"/>
+      <c r="D82" s="43"/>
+      <c r="E82" s="44"/>
+      <c r="F82" s="45"/>
       <c r="G82" s="1"/>
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
@@ -34609,12 +34595,12 @@
       <c r="BF82" s="3"/>
     </row>
     <row r="83" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="28"/>
-      <c r="B83" s="29"/>
-      <c r="C83" s="30"/>
-      <c r="D83" s="28"/>
-      <c r="E83" s="29"/>
-      <c r="F83" s="30"/>
+      <c r="A83" s="43"/>
+      <c r="B83" s="44"/>
+      <c r="C83" s="45"/>
+      <c r="D83" s="43"/>
+      <c r="E83" s="44"/>
+      <c r="F83" s="45"/>
       <c r="G83" s="1"/>
       <c r="H83" s="2"/>
       <c r="I83" s="2"/>
@@ -34669,12 +34655,12 @@
       <c r="BF83" s="3"/>
     </row>
     <row r="84" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="31"/>
-      <c r="B84" s="32"/>
-      <c r="C84" s="33"/>
-      <c r="D84" s="31"/>
-      <c r="E84" s="32"/>
-      <c r="F84" s="33"/>
+      <c r="A84" s="46"/>
+      <c r="B84" s="47"/>
+      <c r="C84" s="48"/>
+      <c r="D84" s="46"/>
+      <c r="E84" s="47"/>
+      <c r="F84" s="48"/>
       <c r="G84" s="7"/>
       <c r="H84" s="8"/>
       <c r="I84" s="8"/>
@@ -34729,16 +34715,16 @@
       <c r="BF84" s="9"/>
     </row>
     <row r="85" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="B85" s="26"/>
-      <c r="C85" s="27"/>
-      <c r="D85" s="25" t="s">
+      <c r="A85" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="E85" s="26"/>
-      <c r="F85" s="27"/>
+      <c r="B85" s="41"/>
+      <c r="C85" s="42"/>
+      <c r="D85" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="E85" s="41"/>
+      <c r="F85" s="42"/>
       <c r="G85" s="10"/>
       <c r="H85" s="11"/>
       <c r="I85" s="11"/>
@@ -34793,12 +34779,12 @@
       <c r="BF85" s="12"/>
     </row>
     <row r="86" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="28"/>
-      <c r="B86" s="29"/>
-      <c r="C86" s="30"/>
-      <c r="D86" s="28"/>
-      <c r="E86" s="29"/>
-      <c r="F86" s="30"/>
+      <c r="A86" s="43"/>
+      <c r="B86" s="44"/>
+      <c r="C86" s="45"/>
+      <c r="D86" s="43"/>
+      <c r="E86" s="44"/>
+      <c r="F86" s="45"/>
       <c r="G86" s="1"/>
       <c r="H86" s="2"/>
       <c r="I86" s="2"/>
@@ -34853,12 +34839,12 @@
       <c r="BF86" s="3"/>
     </row>
     <row r="87" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="28"/>
-      <c r="B87" s="29"/>
-      <c r="C87" s="30"/>
-      <c r="D87" s="28"/>
-      <c r="E87" s="29"/>
-      <c r="F87" s="30"/>
+      <c r="A87" s="43"/>
+      <c r="B87" s="44"/>
+      <c r="C87" s="45"/>
+      <c r="D87" s="43"/>
+      <c r="E87" s="44"/>
+      <c r="F87" s="45"/>
       <c r="G87" s="1"/>
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
@@ -34913,12 +34899,12 @@
       <c r="BF87" s="3"/>
     </row>
     <row r="88" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="28"/>
-      <c r="B88" s="29"/>
-      <c r="C88" s="30"/>
-      <c r="D88" s="28"/>
-      <c r="E88" s="29"/>
-      <c r="F88" s="30"/>
+      <c r="A88" s="43"/>
+      <c r="B88" s="44"/>
+      <c r="C88" s="45"/>
+      <c r="D88" s="43"/>
+      <c r="E88" s="44"/>
+      <c r="F88" s="45"/>
       <c r="G88" s="1"/>
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
@@ -34973,12 +34959,12 @@
       <c r="BF88" s="3"/>
     </row>
     <row r="89" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="28"/>
-      <c r="B89" s="29"/>
-      <c r="C89" s="30"/>
-      <c r="D89" s="28"/>
-      <c r="E89" s="29"/>
-      <c r="F89" s="30"/>
+      <c r="A89" s="43"/>
+      <c r="B89" s="44"/>
+      <c r="C89" s="45"/>
+      <c r="D89" s="43"/>
+      <c r="E89" s="44"/>
+      <c r="F89" s="45"/>
       <c r="G89" s="1"/>
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
@@ -35033,12 +35019,12 @@
       <c r="BF89" s="3"/>
     </row>
     <row r="90" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="28"/>
-      <c r="B90" s="29"/>
-      <c r="C90" s="30"/>
-      <c r="D90" s="28"/>
-      <c r="E90" s="29"/>
-      <c r="F90" s="30"/>
+      <c r="A90" s="43"/>
+      <c r="B90" s="44"/>
+      <c r="C90" s="45"/>
+      <c r="D90" s="43"/>
+      <c r="E90" s="44"/>
+      <c r="F90" s="45"/>
       <c r="G90" s="1"/>
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
@@ -35093,12 +35079,12 @@
       <c r="BF90" s="3"/>
     </row>
     <row r="91" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="28"/>
-      <c r="B91" s="29"/>
-      <c r="C91" s="30"/>
-      <c r="D91" s="28"/>
-      <c r="E91" s="29"/>
-      <c r="F91" s="30"/>
+      <c r="A91" s="43"/>
+      <c r="B91" s="44"/>
+      <c r="C91" s="45"/>
+      <c r="D91" s="43"/>
+      <c r="E91" s="44"/>
+      <c r="F91" s="45"/>
       <c r="G91" s="1"/>
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
@@ -35153,12 +35139,12 @@
       <c r="BF91" s="3"/>
     </row>
     <row r="92" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="28"/>
-      <c r="B92" s="29"/>
-      <c r="C92" s="30"/>
-      <c r="D92" s="28"/>
-      <c r="E92" s="29"/>
-      <c r="F92" s="30"/>
+      <c r="A92" s="43"/>
+      <c r="B92" s="44"/>
+      <c r="C92" s="45"/>
+      <c r="D92" s="43"/>
+      <c r="E92" s="44"/>
+      <c r="F92" s="45"/>
       <c r="G92" s="1"/>
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
@@ -35213,12 +35199,12 @@
       <c r="BF92" s="3"/>
     </row>
     <row r="93" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="28"/>
-      <c r="B93" s="29"/>
-      <c r="C93" s="30"/>
-      <c r="D93" s="28"/>
-      <c r="E93" s="29"/>
-      <c r="F93" s="30"/>
+      <c r="A93" s="43"/>
+      <c r="B93" s="44"/>
+      <c r="C93" s="45"/>
+      <c r="D93" s="43"/>
+      <c r="E93" s="44"/>
+      <c r="F93" s="45"/>
       <c r="G93" s="1"/>
       <c r="H93" s="2"/>
       <c r="I93" s="2"/>
@@ -35273,12 +35259,12 @@
       <c r="BF93" s="3"/>
     </row>
     <row r="94" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="28"/>
-      <c r="B94" s="29"/>
-      <c r="C94" s="30"/>
-      <c r="D94" s="28"/>
-      <c r="E94" s="29"/>
-      <c r="F94" s="30"/>
+      <c r="A94" s="43"/>
+      <c r="B94" s="44"/>
+      <c r="C94" s="45"/>
+      <c r="D94" s="43"/>
+      <c r="E94" s="44"/>
+      <c r="F94" s="45"/>
       <c r="G94" s="1"/>
       <c r="H94" s="2"/>
       <c r="I94" s="2"/>
@@ -35333,12 +35319,12 @@
       <c r="BF94" s="3"/>
     </row>
     <row r="95" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="28"/>
-      <c r="B95" s="29"/>
-      <c r="C95" s="30"/>
-      <c r="D95" s="28"/>
-      <c r="E95" s="29"/>
-      <c r="F95" s="30"/>
+      <c r="A95" s="43"/>
+      <c r="B95" s="44"/>
+      <c r="C95" s="45"/>
+      <c r="D95" s="43"/>
+      <c r="E95" s="44"/>
+      <c r="F95" s="45"/>
       <c r="G95" s="1"/>
       <c r="H95" s="2"/>
       <c r="I95" s="2"/>
@@ -35393,12 +35379,12 @@
       <c r="BF95" s="3"/>
     </row>
     <row r="96" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="28"/>
-      <c r="B96" s="29"/>
-      <c r="C96" s="30"/>
-      <c r="D96" s="28"/>
-      <c r="E96" s="29"/>
-      <c r="F96" s="30"/>
+      <c r="A96" s="43"/>
+      <c r="B96" s="44"/>
+      <c r="C96" s="45"/>
+      <c r="D96" s="43"/>
+      <c r="E96" s="44"/>
+      <c r="F96" s="45"/>
       <c r="G96" s="1"/>
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
@@ -35453,12 +35439,12 @@
       <c r="BF96" s="3"/>
     </row>
     <row r="97" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="28"/>
-      <c r="B97" s="29"/>
-      <c r="C97" s="30"/>
-      <c r="D97" s="28"/>
-      <c r="E97" s="29"/>
-      <c r="F97" s="30"/>
+      <c r="A97" s="43"/>
+      <c r="B97" s="44"/>
+      <c r="C97" s="45"/>
+      <c r="D97" s="43"/>
+      <c r="E97" s="44"/>
+      <c r="F97" s="45"/>
       <c r="G97" s="1"/>
       <c r="H97" s="2"/>
       <c r="I97" s="2"/>
@@ -35511,12 +35497,12 @@
       <c r="BF97" s="3"/>
     </row>
     <row r="98" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="28"/>
-      <c r="B98" s="29"/>
-      <c r="C98" s="30"/>
-      <c r="D98" s="28"/>
-      <c r="E98" s="29"/>
-      <c r="F98" s="30"/>
+      <c r="A98" s="43"/>
+      <c r="B98" s="44"/>
+      <c r="C98" s="45"/>
+      <c r="D98" s="43"/>
+      <c r="E98" s="44"/>
+      <c r="F98" s="45"/>
       <c r="G98" s="1"/>
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
@@ -35571,12 +35557,12 @@
       <c r="BF98" s="3"/>
     </row>
     <row r="99" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="28"/>
-      <c r="B99" s="29"/>
-      <c r="C99" s="30"/>
-      <c r="D99" s="28"/>
-      <c r="E99" s="29"/>
-      <c r="F99" s="30"/>
+      <c r="A99" s="43"/>
+      <c r="B99" s="44"/>
+      <c r="C99" s="45"/>
+      <c r="D99" s="43"/>
+      <c r="E99" s="44"/>
+      <c r="F99" s="45"/>
       <c r="G99" s="1"/>
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
@@ -35631,12 +35617,12 @@
       <c r="BF99" s="3"/>
     </row>
     <row r="100" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="28"/>
-      <c r="B100" s="29"/>
-      <c r="C100" s="30"/>
-      <c r="D100" s="28"/>
-      <c r="E100" s="29"/>
-      <c r="F100" s="30"/>
+      <c r="A100" s="43"/>
+      <c r="B100" s="44"/>
+      <c r="C100" s="45"/>
+      <c r="D100" s="43"/>
+      <c r="E100" s="44"/>
+      <c r="F100" s="45"/>
       <c r="G100" s="1"/>
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
@@ -35691,12 +35677,12 @@
       <c r="BF100" s="3"/>
     </row>
     <row r="101" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="28"/>
-      <c r="B101" s="29"/>
-      <c r="C101" s="30"/>
-      <c r="D101" s="28"/>
-      <c r="E101" s="29"/>
-      <c r="F101" s="30"/>
+      <c r="A101" s="43"/>
+      <c r="B101" s="44"/>
+      <c r="C101" s="45"/>
+      <c r="D101" s="43"/>
+      <c r="E101" s="44"/>
+      <c r="F101" s="45"/>
       <c r="G101" s="1"/>
       <c r="H101" s="2"/>
       <c r="I101" s="2"/>
@@ -35751,12 +35737,12 @@
       <c r="BF101" s="3"/>
     </row>
     <row r="102" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="28"/>
-      <c r="B102" s="29"/>
-      <c r="C102" s="30"/>
-      <c r="D102" s="28"/>
-      <c r="E102" s="29"/>
-      <c r="F102" s="30"/>
+      <c r="A102" s="43"/>
+      <c r="B102" s="44"/>
+      <c r="C102" s="45"/>
+      <c r="D102" s="43"/>
+      <c r="E102" s="44"/>
+      <c r="F102" s="45"/>
       <c r="G102" s="1"/>
       <c r="H102" s="2"/>
       <c r="I102" s="2"/>
@@ -35811,12 +35797,12 @@
       <c r="BF102" s="3"/>
     </row>
     <row r="103" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="28"/>
-      <c r="B103" s="29"/>
-      <c r="C103" s="30"/>
-      <c r="D103" s="28"/>
-      <c r="E103" s="29"/>
-      <c r="F103" s="30"/>
+      <c r="A103" s="43"/>
+      <c r="B103" s="44"/>
+      <c r="C103" s="45"/>
+      <c r="D103" s="43"/>
+      <c r="E103" s="44"/>
+      <c r="F103" s="45"/>
       <c r="G103" s="1"/>
       <c r="H103" s="2"/>
       <c r="I103" s="2"/>
@@ -35871,12 +35857,12 @@
       <c r="BF103" s="3"/>
     </row>
     <row r="104" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="28"/>
-      <c r="B104" s="29"/>
-      <c r="C104" s="30"/>
-      <c r="D104" s="28"/>
-      <c r="E104" s="29"/>
-      <c r="F104" s="30"/>
+      <c r="A104" s="43"/>
+      <c r="B104" s="44"/>
+      <c r="C104" s="45"/>
+      <c r="D104" s="43"/>
+      <c r="E104" s="44"/>
+      <c r="F104" s="45"/>
       <c r="G104" s="1"/>
       <c r="H104" s="2"/>
       <c r="I104" s="2"/>
@@ -35931,12 +35917,12 @@
       <c r="BF104" s="3"/>
     </row>
     <row r="105" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="28"/>
-      <c r="B105" s="29"/>
-      <c r="C105" s="30"/>
-      <c r="D105" s="28"/>
-      <c r="E105" s="29"/>
-      <c r="F105" s="30"/>
+      <c r="A105" s="43"/>
+      <c r="B105" s="44"/>
+      <c r="C105" s="45"/>
+      <c r="D105" s="43"/>
+      <c r="E105" s="44"/>
+      <c r="F105" s="45"/>
       <c r="G105" s="1"/>
       <c r="H105" s="2"/>
       <c r="I105" s="2"/>
@@ -35991,12 +35977,12 @@
       <c r="BF105" s="3"/>
     </row>
     <row r="106" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="28"/>
-      <c r="B106" s="29"/>
-      <c r="C106" s="30"/>
-      <c r="D106" s="28"/>
-      <c r="E106" s="29"/>
-      <c r="F106" s="30"/>
+      <c r="A106" s="43"/>
+      <c r="B106" s="44"/>
+      <c r="C106" s="45"/>
+      <c r="D106" s="43"/>
+      <c r="E106" s="44"/>
+      <c r="F106" s="45"/>
       <c r="G106" s="1"/>
       <c r="H106" s="2"/>
       <c r="I106" s="2"/>
@@ -36051,12 +36037,12 @@
       <c r="BF106" s="3"/>
     </row>
     <row r="107" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="28"/>
-      <c r="B107" s="29"/>
-      <c r="C107" s="30"/>
-      <c r="D107" s="28"/>
-      <c r="E107" s="29"/>
-      <c r="F107" s="30"/>
+      <c r="A107" s="43"/>
+      <c r="B107" s="44"/>
+      <c r="C107" s="45"/>
+      <c r="D107" s="43"/>
+      <c r="E107" s="44"/>
+      <c r="F107" s="45"/>
       <c r="G107" s="1"/>
       <c r="H107" s="2"/>
       <c r="I107" s="2"/>
@@ -36111,12 +36097,12 @@
       <c r="BF107" s="3"/>
     </row>
     <row r="108" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="28"/>
-      <c r="B108" s="29"/>
-      <c r="C108" s="30"/>
-      <c r="D108" s="28"/>
-      <c r="E108" s="29"/>
-      <c r="F108" s="30"/>
+      <c r="A108" s="43"/>
+      <c r="B108" s="44"/>
+      <c r="C108" s="45"/>
+      <c r="D108" s="43"/>
+      <c r="E108" s="44"/>
+      <c r="F108" s="45"/>
       <c r="G108" s="1"/>
       <c r="H108" s="2"/>
       <c r="I108" s="2"/>
@@ -36171,12 +36157,12 @@
       <c r="BF108" s="3"/>
     </row>
     <row r="109" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="28"/>
-      <c r="B109" s="29"/>
-      <c r="C109" s="30"/>
-      <c r="D109" s="28"/>
-      <c r="E109" s="29"/>
-      <c r="F109" s="30"/>
+      <c r="A109" s="43"/>
+      <c r="B109" s="44"/>
+      <c r="C109" s="45"/>
+      <c r="D109" s="43"/>
+      <c r="E109" s="44"/>
+      <c r="F109" s="45"/>
       <c r="G109" s="1"/>
       <c r="H109" s="2"/>
       <c r="I109" s="2"/>
@@ -36231,12 +36217,12 @@
       <c r="BF109" s="3"/>
     </row>
     <row r="110" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="28"/>
-      <c r="B110" s="29"/>
-      <c r="C110" s="30"/>
-      <c r="D110" s="28"/>
-      <c r="E110" s="29"/>
-      <c r="F110" s="30"/>
+      <c r="A110" s="43"/>
+      <c r="B110" s="44"/>
+      <c r="C110" s="45"/>
+      <c r="D110" s="43"/>
+      <c r="E110" s="44"/>
+      <c r="F110" s="45"/>
       <c r="G110" s="1"/>
       <c r="H110" s="2"/>
       <c r="I110" s="2"/>
@@ -36291,12 +36277,12 @@
       <c r="BF110" s="3"/>
     </row>
     <row r="111" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="28"/>
-      <c r="B111" s="29"/>
-      <c r="C111" s="30"/>
-      <c r="D111" s="28"/>
-      <c r="E111" s="29"/>
-      <c r="F111" s="30"/>
+      <c r="A111" s="43"/>
+      <c r="B111" s="44"/>
+      <c r="C111" s="45"/>
+      <c r="D111" s="43"/>
+      <c r="E111" s="44"/>
+      <c r="F111" s="45"/>
       <c r="G111" s="1"/>
       <c r="H111" s="2"/>
       <c r="I111" s="2"/>
@@ -36351,12 +36337,12 @@
       <c r="BF111" s="3"/>
     </row>
     <row r="112" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="28"/>
-      <c r="B112" s="29"/>
-      <c r="C112" s="30"/>
-      <c r="D112" s="28"/>
-      <c r="E112" s="29"/>
-      <c r="F112" s="30"/>
+      <c r="A112" s="43"/>
+      <c r="B112" s="44"/>
+      <c r="C112" s="45"/>
+      <c r="D112" s="43"/>
+      <c r="E112" s="44"/>
+      <c r="F112" s="45"/>
       <c r="G112" s="1"/>
       <c r="H112" s="2"/>
       <c r="I112" s="2"/>
@@ -36411,12 +36397,12 @@
       <c r="BF112" s="3"/>
     </row>
     <row r="113" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="28"/>
-      <c r="B113" s="29"/>
-      <c r="C113" s="30"/>
-      <c r="D113" s="28"/>
-      <c r="E113" s="29"/>
-      <c r="F113" s="30"/>
+      <c r="A113" s="43"/>
+      <c r="B113" s="44"/>
+      <c r="C113" s="45"/>
+      <c r="D113" s="43"/>
+      <c r="E113" s="44"/>
+      <c r="F113" s="45"/>
       <c r="G113" s="1"/>
       <c r="H113" s="2"/>
       <c r="I113" s="2"/>
@@ -36471,12 +36457,12 @@
       <c r="BF113" s="3"/>
     </row>
     <row r="114" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="28"/>
-      <c r="B114" s="29"/>
-      <c r="C114" s="30"/>
-      <c r="D114" s="28"/>
-      <c r="E114" s="29"/>
-      <c r="F114" s="30"/>
+      <c r="A114" s="43"/>
+      <c r="B114" s="44"/>
+      <c r="C114" s="45"/>
+      <c r="D114" s="43"/>
+      <c r="E114" s="44"/>
+      <c r="F114" s="45"/>
       <c r="G114" s="1"/>
       <c r="H114" s="2"/>
       <c r="I114" s="2"/>
@@ -36531,12 +36517,12 @@
       <c r="BF114" s="3"/>
     </row>
     <row r="115" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="28"/>
-      <c r="B115" s="29"/>
-      <c r="C115" s="30"/>
-      <c r="D115" s="28"/>
-      <c r="E115" s="29"/>
-      <c r="F115" s="30"/>
+      <c r="A115" s="43"/>
+      <c r="B115" s="44"/>
+      <c r="C115" s="45"/>
+      <c r="D115" s="43"/>
+      <c r="E115" s="44"/>
+      <c r="F115" s="45"/>
       <c r="G115" s="1"/>
       <c r="H115" s="2"/>
       <c r="I115" s="2"/>
@@ -36591,12 +36577,12 @@
       <c r="BF115" s="3"/>
     </row>
     <row r="116" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="28"/>
-      <c r="B116" s="29"/>
-      <c r="C116" s="30"/>
-      <c r="D116" s="28"/>
-      <c r="E116" s="29"/>
-      <c r="F116" s="30"/>
+      <c r="A116" s="43"/>
+      <c r="B116" s="44"/>
+      <c r="C116" s="45"/>
+      <c r="D116" s="43"/>
+      <c r="E116" s="44"/>
+      <c r="F116" s="45"/>
       <c r="G116" s="1"/>
       <c r="H116" s="2"/>
       <c r="I116" s="2"/>
@@ -36651,12 +36637,12 @@
       <c r="BF116" s="3"/>
     </row>
     <row r="117" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="28"/>
-      <c r="B117" s="29"/>
-      <c r="C117" s="30"/>
-      <c r="D117" s="28"/>
-      <c r="E117" s="29"/>
-      <c r="F117" s="30"/>
+      <c r="A117" s="43"/>
+      <c r="B117" s="44"/>
+      <c r="C117" s="45"/>
+      <c r="D117" s="43"/>
+      <c r="E117" s="44"/>
+      <c r="F117" s="45"/>
       <c r="G117" s="1"/>
       <c r="H117" s="2"/>
       <c r="I117" s="2"/>
@@ -36711,12 +36697,12 @@
       <c r="BF117" s="3"/>
     </row>
     <row r="118" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="28"/>
-      <c r="B118" s="29"/>
-      <c r="C118" s="30"/>
-      <c r="D118" s="28"/>
-      <c r="E118" s="29"/>
-      <c r="F118" s="30"/>
+      <c r="A118" s="43"/>
+      <c r="B118" s="44"/>
+      <c r="C118" s="45"/>
+      <c r="D118" s="43"/>
+      <c r="E118" s="44"/>
+      <c r="F118" s="45"/>
       <c r="G118" s="1"/>
       <c r="H118" s="2"/>
       <c r="I118" s="2"/>
@@ -36771,12 +36757,12 @@
       <c r="BF118" s="3"/>
     </row>
     <row r="119" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="28"/>
-      <c r="B119" s="29"/>
-      <c r="C119" s="30"/>
-      <c r="D119" s="28"/>
-      <c r="E119" s="29"/>
-      <c r="F119" s="30"/>
+      <c r="A119" s="43"/>
+      <c r="B119" s="44"/>
+      <c r="C119" s="45"/>
+      <c r="D119" s="43"/>
+      <c r="E119" s="44"/>
+      <c r="F119" s="45"/>
       <c r="G119" s="1"/>
       <c r="H119" s="2"/>
       <c r="I119" s="2"/>
@@ -36831,12 +36817,12 @@
       <c r="BF119" s="3"/>
     </row>
     <row r="120" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="28"/>
-      <c r="B120" s="29"/>
-      <c r="C120" s="30"/>
-      <c r="D120" s="28"/>
-      <c r="E120" s="29"/>
-      <c r="F120" s="30"/>
+      <c r="A120" s="43"/>
+      <c r="B120" s="44"/>
+      <c r="C120" s="45"/>
+      <c r="D120" s="43"/>
+      <c r="E120" s="44"/>
+      <c r="F120" s="45"/>
       <c r="G120" s="1"/>
       <c r="H120" s="2"/>
       <c r="I120" s="2"/>
@@ -36891,12 +36877,12 @@
       <c r="BF120" s="3"/>
     </row>
     <row r="121" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="28"/>
-      <c r="B121" s="29"/>
-      <c r="C121" s="30"/>
-      <c r="D121" s="28"/>
-      <c r="E121" s="29"/>
-      <c r="F121" s="30"/>
+      <c r="A121" s="43"/>
+      <c r="B121" s="44"/>
+      <c r="C121" s="45"/>
+      <c r="D121" s="43"/>
+      <c r="E121" s="44"/>
+      <c r="F121" s="45"/>
       <c r="G121" s="1"/>
       <c r="H121" s="2"/>
       <c r="I121" s="2"/>
@@ -36951,12 +36937,12 @@
       <c r="BF121" s="3"/>
     </row>
     <row r="122" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="28"/>
-      <c r="B122" s="29"/>
-      <c r="C122" s="30"/>
-      <c r="D122" s="28"/>
-      <c r="E122" s="29"/>
-      <c r="F122" s="30"/>
+      <c r="A122" s="43"/>
+      <c r="B122" s="44"/>
+      <c r="C122" s="45"/>
+      <c r="D122" s="43"/>
+      <c r="E122" s="44"/>
+      <c r="F122" s="45"/>
       <c r="G122" s="1"/>
       <c r="H122" s="2"/>
       <c r="I122" s="2"/>
@@ -37011,12 +36997,12 @@
       <c r="BF122" s="3"/>
     </row>
     <row r="123" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="28"/>
-      <c r="B123" s="29"/>
-      <c r="C123" s="30"/>
-      <c r="D123" s="28"/>
-      <c r="E123" s="29"/>
-      <c r="F123" s="30"/>
+      <c r="A123" s="43"/>
+      <c r="B123" s="44"/>
+      <c r="C123" s="45"/>
+      <c r="D123" s="43"/>
+      <c r="E123" s="44"/>
+      <c r="F123" s="45"/>
       <c r="G123" s="1"/>
       <c r="H123" s="2"/>
       <c r="I123" s="2"/>
@@ -37071,12 +37057,12 @@
       <c r="BF123" s="3"/>
     </row>
     <row r="124" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="28"/>
-      <c r="B124" s="29"/>
-      <c r="C124" s="30"/>
-      <c r="D124" s="28"/>
-      <c r="E124" s="29"/>
-      <c r="F124" s="30"/>
+      <c r="A124" s="43"/>
+      <c r="B124" s="44"/>
+      <c r="C124" s="45"/>
+      <c r="D124" s="43"/>
+      <c r="E124" s="44"/>
+      <c r="F124" s="45"/>
       <c r="G124" s="1"/>
       <c r="H124" s="2"/>
       <c r="I124" s="2"/>
@@ -37131,12 +37117,12 @@
       <c r="BF124" s="3"/>
     </row>
     <row r="125" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="31"/>
-      <c r="B125" s="32"/>
-      <c r="C125" s="33"/>
-      <c r="D125" s="31"/>
-      <c r="E125" s="32"/>
-      <c r="F125" s="33"/>
+      <c r="A125" s="46"/>
+      <c r="B125" s="47"/>
+      <c r="C125" s="48"/>
+      <c r="D125" s="46"/>
+      <c r="E125" s="47"/>
+      <c r="F125" s="48"/>
       <c r="G125" s="7"/>
       <c r="H125" s="8"/>
       <c r="I125" s="8"/>
@@ -37191,16 +37177,16 @@
       <c r="BF125" s="9"/>
     </row>
     <row r="126" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="25" t="s">
+      <c r="A126" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B126" s="41"/>
+      <c r="C126" s="42"/>
+      <c r="D126" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="B126" s="26"/>
-      <c r="C126" s="27"/>
-      <c r="D126" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="E126" s="26"/>
-      <c r="F126" s="27"/>
+      <c r="E126" s="41"/>
+      <c r="F126" s="42"/>
       <c r="G126" s="10"/>
       <c r="H126" s="11"/>
       <c r="I126" s="11"/>
@@ -37255,12 +37241,12 @@
       <c r="BF126" s="12"/>
     </row>
     <row r="127" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="28"/>
-      <c r="B127" s="29"/>
-      <c r="C127" s="30"/>
-      <c r="D127" s="28"/>
-      <c r="E127" s="29"/>
-      <c r="F127" s="30"/>
+      <c r="A127" s="43"/>
+      <c r="B127" s="44"/>
+      <c r="C127" s="45"/>
+      <c r="D127" s="43"/>
+      <c r="E127" s="44"/>
+      <c r="F127" s="45"/>
       <c r="G127" s="1"/>
       <c r="H127" s="2"/>
       <c r="I127" s="2"/>
@@ -37315,12 +37301,12 @@
       <c r="BF127" s="3"/>
     </row>
     <row r="128" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="28"/>
-      <c r="B128" s="29"/>
-      <c r="C128" s="30"/>
-      <c r="D128" s="28"/>
-      <c r="E128" s="29"/>
-      <c r="F128" s="30"/>
+      <c r="A128" s="43"/>
+      <c r="B128" s="44"/>
+      <c r="C128" s="45"/>
+      <c r="D128" s="43"/>
+      <c r="E128" s="44"/>
+      <c r="F128" s="45"/>
       <c r="G128" s="1"/>
       <c r="H128" s="2"/>
       <c r="I128" s="2"/>
@@ -37375,12 +37361,12 @@
       <c r="BF128" s="3"/>
     </row>
     <row r="129" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="28"/>
-      <c r="B129" s="29"/>
-      <c r="C129" s="30"/>
-      <c r="D129" s="28"/>
-      <c r="E129" s="29"/>
-      <c r="F129" s="30"/>
+      <c r="A129" s="43"/>
+      <c r="B129" s="44"/>
+      <c r="C129" s="45"/>
+      <c r="D129" s="43"/>
+      <c r="E129" s="44"/>
+      <c r="F129" s="45"/>
       <c r="G129" s="1"/>
       <c r="H129" s="2"/>
       <c r="I129" s="2"/>
@@ -37435,12 +37421,12 @@
       <c r="BF129" s="3"/>
     </row>
     <row r="130" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="28"/>
-      <c r="B130" s="29"/>
-      <c r="C130" s="30"/>
-      <c r="D130" s="28"/>
-      <c r="E130" s="29"/>
-      <c r="F130" s="30"/>
+      <c r="A130" s="43"/>
+      <c r="B130" s="44"/>
+      <c r="C130" s="45"/>
+      <c r="D130" s="43"/>
+      <c r="E130" s="44"/>
+      <c r="F130" s="45"/>
       <c r="G130" s="1"/>
       <c r="H130" s="2"/>
       <c r="I130" s="2"/>
@@ -37495,12 +37481,12 @@
       <c r="BF130" s="3"/>
     </row>
     <row r="131" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="28"/>
-      <c r="B131" s="29"/>
-      <c r="C131" s="30"/>
-      <c r="D131" s="28"/>
-      <c r="E131" s="29"/>
-      <c r="F131" s="30"/>
+      <c r="A131" s="43"/>
+      <c r="B131" s="44"/>
+      <c r="C131" s="45"/>
+      <c r="D131" s="43"/>
+      <c r="E131" s="44"/>
+      <c r="F131" s="45"/>
       <c r="G131" s="1"/>
       <c r="H131" s="2"/>
       <c r="I131" s="2"/>
@@ -37555,12 +37541,12 @@
       <c r="BF131" s="3"/>
     </row>
     <row r="132" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="28"/>
-      <c r="B132" s="29"/>
-      <c r="C132" s="30"/>
-      <c r="D132" s="28"/>
-      <c r="E132" s="29"/>
-      <c r="F132" s="30"/>
+      <c r="A132" s="43"/>
+      <c r="B132" s="44"/>
+      <c r="C132" s="45"/>
+      <c r="D132" s="43"/>
+      <c r="E132" s="44"/>
+      <c r="F132" s="45"/>
       <c r="G132" s="1"/>
       <c r="H132" s="2"/>
       <c r="I132" s="2"/>
@@ -37615,12 +37601,12 @@
       <c r="BF132" s="3"/>
     </row>
     <row r="133" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="28"/>
-      <c r="B133" s="29"/>
-      <c r="C133" s="30"/>
-      <c r="D133" s="28"/>
-      <c r="E133" s="29"/>
-      <c r="F133" s="30"/>
+      <c r="A133" s="43"/>
+      <c r="B133" s="44"/>
+      <c r="C133" s="45"/>
+      <c r="D133" s="43"/>
+      <c r="E133" s="44"/>
+      <c r="F133" s="45"/>
       <c r="G133" s="1"/>
       <c r="H133" s="2"/>
       <c r="I133" s="2"/>
@@ -37675,12 +37661,12 @@
       <c r="BF133" s="3"/>
     </row>
     <row r="134" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="28"/>
-      <c r="B134" s="29"/>
-      <c r="C134" s="30"/>
-      <c r="D134" s="28"/>
-      <c r="E134" s="29"/>
-      <c r="F134" s="30"/>
+      <c r="A134" s="43"/>
+      <c r="B134" s="44"/>
+      <c r="C134" s="45"/>
+      <c r="D134" s="43"/>
+      <c r="E134" s="44"/>
+      <c r="F134" s="45"/>
       <c r="G134" s="1"/>
       <c r="H134" s="2"/>
       <c r="I134" s="2"/>
@@ -37735,12 +37721,12 @@
       <c r="BF134" s="3"/>
     </row>
     <row r="135" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="28"/>
-      <c r="B135" s="29"/>
-      <c r="C135" s="30"/>
-      <c r="D135" s="28"/>
-      <c r="E135" s="29"/>
-      <c r="F135" s="30"/>
+      <c r="A135" s="43"/>
+      <c r="B135" s="44"/>
+      <c r="C135" s="45"/>
+      <c r="D135" s="43"/>
+      <c r="E135" s="44"/>
+      <c r="F135" s="45"/>
       <c r="G135" s="1"/>
       <c r="H135" s="2"/>
       <c r="I135" s="2"/>
@@ -37795,12 +37781,12 @@
       <c r="BF135" s="3"/>
     </row>
     <row r="136" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="28"/>
-      <c r="B136" s="29"/>
-      <c r="C136" s="30"/>
-      <c r="D136" s="28"/>
-      <c r="E136" s="29"/>
-      <c r="F136" s="30"/>
+      <c r="A136" s="43"/>
+      <c r="B136" s="44"/>
+      <c r="C136" s="45"/>
+      <c r="D136" s="43"/>
+      <c r="E136" s="44"/>
+      <c r="F136" s="45"/>
       <c r="G136" s="1"/>
       <c r="H136" s="2"/>
       <c r="I136" s="2"/>
@@ -37855,12 +37841,12 @@
       <c r="BF136" s="3"/>
     </row>
     <row r="137" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="28"/>
-      <c r="B137" s="29"/>
-      <c r="C137" s="30"/>
-      <c r="D137" s="28"/>
-      <c r="E137" s="29"/>
-      <c r="F137" s="30"/>
+      <c r="A137" s="43"/>
+      <c r="B137" s="44"/>
+      <c r="C137" s="45"/>
+      <c r="D137" s="43"/>
+      <c r="E137" s="44"/>
+      <c r="F137" s="45"/>
       <c r="G137" s="1"/>
       <c r="H137" s="2"/>
       <c r="I137" s="2"/>
@@ -37915,12 +37901,12 @@
       <c r="BF137" s="3"/>
     </row>
     <row r="138" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="28"/>
-      <c r="B138" s="29"/>
-      <c r="C138" s="30"/>
-      <c r="D138" s="28"/>
-      <c r="E138" s="29"/>
-      <c r="F138" s="30"/>
+      <c r="A138" s="43"/>
+      <c r="B138" s="44"/>
+      <c r="C138" s="45"/>
+      <c r="D138" s="43"/>
+      <c r="E138" s="44"/>
+      <c r="F138" s="45"/>
       <c r="G138" s="1"/>
       <c r="H138" s="2"/>
       <c r="I138" s="2"/>
@@ -37975,12 +37961,12 @@
       <c r="BF138" s="3"/>
     </row>
     <row r="139" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="28"/>
-      <c r="B139" s="29"/>
-      <c r="C139" s="30"/>
-      <c r="D139" s="28"/>
-      <c r="E139" s="29"/>
-      <c r="F139" s="30"/>
+      <c r="A139" s="43"/>
+      <c r="B139" s="44"/>
+      <c r="C139" s="45"/>
+      <c r="D139" s="43"/>
+      <c r="E139" s="44"/>
+      <c r="F139" s="45"/>
       <c r="G139" s="1"/>
       <c r="H139" s="2"/>
       <c r="I139" s="2"/>
@@ -38035,12 +38021,12 @@
       <c r="BF139" s="3"/>
     </row>
     <row r="140" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="28"/>
-      <c r="B140" s="29"/>
-      <c r="C140" s="30"/>
-      <c r="D140" s="28"/>
-      <c r="E140" s="29"/>
-      <c r="F140" s="30"/>
+      <c r="A140" s="43"/>
+      <c r="B140" s="44"/>
+      <c r="C140" s="45"/>
+      <c r="D140" s="43"/>
+      <c r="E140" s="44"/>
+      <c r="F140" s="45"/>
       <c r="G140" s="1"/>
       <c r="H140" s="2"/>
       <c r="I140" s="2"/>
@@ -38095,12 +38081,12 @@
       <c r="BF140" s="3"/>
     </row>
     <row r="141" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="28"/>
-      <c r="B141" s="29"/>
-      <c r="C141" s="30"/>
-      <c r="D141" s="28"/>
-      <c r="E141" s="29"/>
-      <c r="F141" s="30"/>
+      <c r="A141" s="43"/>
+      <c r="B141" s="44"/>
+      <c r="C141" s="45"/>
+      <c r="D141" s="43"/>
+      <c r="E141" s="44"/>
+      <c r="F141" s="45"/>
       <c r="G141" s="1"/>
       <c r="H141" s="2"/>
       <c r="I141" s="2"/>
@@ -38155,12 +38141,12 @@
       <c r="BF141" s="3"/>
     </row>
     <row r="142" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="28"/>
-      <c r="B142" s="29"/>
-      <c r="C142" s="30"/>
-      <c r="D142" s="28"/>
-      <c r="E142" s="29"/>
-      <c r="F142" s="30"/>
+      <c r="A142" s="43"/>
+      <c r="B142" s="44"/>
+      <c r="C142" s="45"/>
+      <c r="D142" s="43"/>
+      <c r="E142" s="44"/>
+      <c r="F142" s="45"/>
       <c r="G142" s="1"/>
       <c r="H142" s="2"/>
       <c r="I142" s="2"/>
@@ -38215,12 +38201,12 @@
       <c r="BF142" s="3"/>
     </row>
     <row r="143" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="28"/>
-      <c r="B143" s="29"/>
-      <c r="C143" s="30"/>
-      <c r="D143" s="28"/>
-      <c r="E143" s="29"/>
-      <c r="F143" s="30"/>
+      <c r="A143" s="43"/>
+      <c r="B143" s="44"/>
+      <c r="C143" s="45"/>
+      <c r="D143" s="43"/>
+      <c r="E143" s="44"/>
+      <c r="F143" s="45"/>
       <c r="G143" s="1"/>
       <c r="H143" s="2"/>
       <c r="I143" s="2"/>
@@ -38275,12 +38261,12 @@
       <c r="BF143" s="3"/>
     </row>
     <row r="144" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="28"/>
-      <c r="B144" s="29"/>
-      <c r="C144" s="30"/>
-      <c r="D144" s="28"/>
-      <c r="E144" s="29"/>
-      <c r="F144" s="30"/>
+      <c r="A144" s="43"/>
+      <c r="B144" s="44"/>
+      <c r="C144" s="45"/>
+      <c r="D144" s="43"/>
+      <c r="E144" s="44"/>
+      <c r="F144" s="45"/>
       <c r="G144" s="1"/>
       <c r="H144" s="2"/>
       <c r="I144" s="2"/>
@@ -38335,12 +38321,12 @@
       <c r="BF144" s="3"/>
     </row>
     <row r="145" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="28"/>
-      <c r="B145" s="29"/>
-      <c r="C145" s="30"/>
-      <c r="D145" s="28"/>
-      <c r="E145" s="29"/>
-      <c r="F145" s="30"/>
+      <c r="A145" s="43"/>
+      <c r="B145" s="44"/>
+      <c r="C145" s="45"/>
+      <c r="D145" s="43"/>
+      <c r="E145" s="44"/>
+      <c r="F145" s="45"/>
       <c r="G145" s="1"/>
       <c r="H145" s="2"/>
       <c r="I145" s="2"/>
@@ -38395,12 +38381,12 @@
       <c r="BF145" s="3"/>
     </row>
     <row r="146" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="28"/>
-      <c r="B146" s="29"/>
-      <c r="C146" s="30"/>
-      <c r="D146" s="28"/>
-      <c r="E146" s="29"/>
-      <c r="F146" s="30"/>
+      <c r="A146" s="43"/>
+      <c r="B146" s="44"/>
+      <c r="C146" s="45"/>
+      <c r="D146" s="43"/>
+      <c r="E146" s="44"/>
+      <c r="F146" s="45"/>
       <c r="G146" s="1"/>
       <c r="H146" s="2"/>
       <c r="I146" s="2"/>
@@ -38455,12 +38441,12 @@
       <c r="BF146" s="3"/>
     </row>
     <row r="147" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="28"/>
-      <c r="B147" s="29"/>
-      <c r="C147" s="30"/>
-      <c r="D147" s="28"/>
-      <c r="E147" s="29"/>
-      <c r="F147" s="30"/>
+      <c r="A147" s="43"/>
+      <c r="B147" s="44"/>
+      <c r="C147" s="45"/>
+      <c r="D147" s="43"/>
+      <c r="E147" s="44"/>
+      <c r="F147" s="45"/>
       <c r="G147" s="1"/>
       <c r="H147" s="2"/>
       <c r="I147" s="2"/>
@@ -38515,12 +38501,12 @@
       <c r="BF147" s="3"/>
     </row>
     <row r="148" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="28"/>
-      <c r="B148" s="29"/>
-      <c r="C148" s="30"/>
-      <c r="D148" s="28"/>
-      <c r="E148" s="29"/>
-      <c r="F148" s="30"/>
+      <c r="A148" s="43"/>
+      <c r="B148" s="44"/>
+      <c r="C148" s="45"/>
+      <c r="D148" s="43"/>
+      <c r="E148" s="44"/>
+      <c r="F148" s="45"/>
       <c r="G148" s="1"/>
       <c r="H148" s="2"/>
       <c r="I148" s="2"/>
@@ -38575,12 +38561,12 @@
       <c r="BF148" s="3"/>
     </row>
     <row r="149" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="28"/>
-      <c r="B149" s="29"/>
-      <c r="C149" s="30"/>
-      <c r="D149" s="28"/>
-      <c r="E149" s="29"/>
-      <c r="F149" s="30"/>
+      <c r="A149" s="43"/>
+      <c r="B149" s="44"/>
+      <c r="C149" s="45"/>
+      <c r="D149" s="43"/>
+      <c r="E149" s="44"/>
+      <c r="F149" s="45"/>
       <c r="G149" s="1"/>
       <c r="H149" s="2"/>
       <c r="I149" s="2"/>
@@ -38635,12 +38621,12 @@
       <c r="BF149" s="3"/>
     </row>
     <row r="150" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="28"/>
-      <c r="B150" s="29"/>
-      <c r="C150" s="30"/>
-      <c r="D150" s="28"/>
-      <c r="E150" s="29"/>
-      <c r="F150" s="30"/>
+      <c r="A150" s="43"/>
+      <c r="B150" s="44"/>
+      <c r="C150" s="45"/>
+      <c r="D150" s="43"/>
+      <c r="E150" s="44"/>
+      <c r="F150" s="45"/>
       <c r="G150" s="1"/>
       <c r="H150" s="2"/>
       <c r="I150" s="2"/>
@@ -38695,12 +38681,12 @@
       <c r="BF150" s="3"/>
     </row>
     <row r="151" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="28"/>
-      <c r="B151" s="29"/>
-      <c r="C151" s="30"/>
-      <c r="D151" s="28"/>
-      <c r="E151" s="29"/>
-      <c r="F151" s="30"/>
+      <c r="A151" s="43"/>
+      <c r="B151" s="44"/>
+      <c r="C151" s="45"/>
+      <c r="D151" s="43"/>
+      <c r="E151" s="44"/>
+      <c r="F151" s="45"/>
       <c r="G151" s="1"/>
       <c r="H151" s="2"/>
       <c r="I151" s="2"/>
@@ -38755,12 +38741,12 @@
       <c r="BF151" s="3"/>
     </row>
     <row r="152" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="28"/>
-      <c r="B152" s="29"/>
-      <c r="C152" s="30"/>
-      <c r="D152" s="28"/>
-      <c r="E152" s="29"/>
-      <c r="F152" s="30"/>
+      <c r="A152" s="43"/>
+      <c r="B152" s="44"/>
+      <c r="C152" s="45"/>
+      <c r="D152" s="43"/>
+      <c r="E152" s="44"/>
+      <c r="F152" s="45"/>
       <c r="G152" s="1"/>
       <c r="H152" s="2"/>
       <c r="I152" s="2"/>
@@ -38815,12 +38801,12 @@
       <c r="BF152" s="3"/>
     </row>
     <row r="153" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="28"/>
-      <c r="B153" s="29"/>
-      <c r="C153" s="30"/>
-      <c r="D153" s="28"/>
-      <c r="E153" s="29"/>
-      <c r="F153" s="30"/>
+      <c r="A153" s="43"/>
+      <c r="B153" s="44"/>
+      <c r="C153" s="45"/>
+      <c r="D153" s="43"/>
+      <c r="E153" s="44"/>
+      <c r="F153" s="45"/>
       <c r="G153" s="1"/>
       <c r="H153" s="2"/>
       <c r="I153" s="2"/>
@@ -38875,12 +38861,12 @@
       <c r="BF153" s="3"/>
     </row>
     <row r="154" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="28"/>
-      <c r="B154" s="29"/>
-      <c r="C154" s="30"/>
-      <c r="D154" s="28"/>
-      <c r="E154" s="29"/>
-      <c r="F154" s="30"/>
+      <c r="A154" s="43"/>
+      <c r="B154" s="44"/>
+      <c r="C154" s="45"/>
+      <c r="D154" s="43"/>
+      <c r="E154" s="44"/>
+      <c r="F154" s="45"/>
       <c r="G154" s="1"/>
       <c r="H154" s="2"/>
       <c r="I154" s="2"/>
@@ -38935,12 +38921,12 @@
       <c r="BF154" s="3"/>
     </row>
     <row r="155" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="28"/>
-      <c r="B155" s="29"/>
-      <c r="C155" s="30"/>
-      <c r="D155" s="28"/>
-      <c r="E155" s="29"/>
-      <c r="F155" s="30"/>
+      <c r="A155" s="43"/>
+      <c r="B155" s="44"/>
+      <c r="C155" s="45"/>
+      <c r="D155" s="43"/>
+      <c r="E155" s="44"/>
+      <c r="F155" s="45"/>
       <c r="G155" s="1"/>
       <c r="H155" s="2"/>
       <c r="I155" s="2"/>
@@ -38995,12 +38981,12 @@
       <c r="BF155" s="3"/>
     </row>
     <row r="156" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="28"/>
-      <c r="B156" s="29"/>
-      <c r="C156" s="30"/>
-      <c r="D156" s="28"/>
-      <c r="E156" s="29"/>
-      <c r="F156" s="30"/>
+      <c r="A156" s="43"/>
+      <c r="B156" s="44"/>
+      <c r="C156" s="45"/>
+      <c r="D156" s="43"/>
+      <c r="E156" s="44"/>
+      <c r="F156" s="45"/>
       <c r="G156" s="1"/>
       <c r="H156" s="2"/>
       <c r="I156" s="2"/>
@@ -39055,12 +39041,12 @@
       <c r="BF156" s="3"/>
     </row>
     <row r="157" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="28"/>
-      <c r="B157" s="29"/>
-      <c r="C157" s="30"/>
-      <c r="D157" s="28"/>
-      <c r="E157" s="29"/>
-      <c r="F157" s="30"/>
+      <c r="A157" s="43"/>
+      <c r="B157" s="44"/>
+      <c r="C157" s="45"/>
+      <c r="D157" s="43"/>
+      <c r="E157" s="44"/>
+      <c r="F157" s="45"/>
       <c r="G157" s="1"/>
       <c r="H157" s="2"/>
       <c r="I157" s="2"/>
@@ -39115,12 +39101,12 @@
       <c r="BF157" s="3"/>
     </row>
     <row r="158" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="28"/>
-      <c r="B158" s="29"/>
-      <c r="C158" s="30"/>
-      <c r="D158" s="28"/>
-      <c r="E158" s="29"/>
-      <c r="F158" s="30"/>
+      <c r="A158" s="43"/>
+      <c r="B158" s="44"/>
+      <c r="C158" s="45"/>
+      <c r="D158" s="43"/>
+      <c r="E158" s="44"/>
+      <c r="F158" s="45"/>
       <c r="G158" s="1"/>
       <c r="H158" s="2"/>
       <c r="I158" s="2"/>
@@ -39175,12 +39161,12 @@
       <c r="BF158" s="3"/>
     </row>
     <row r="159" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="28"/>
-      <c r="B159" s="29"/>
-      <c r="C159" s="30"/>
-      <c r="D159" s="28"/>
-      <c r="E159" s="29"/>
-      <c r="F159" s="30"/>
+      <c r="A159" s="43"/>
+      <c r="B159" s="44"/>
+      <c r="C159" s="45"/>
+      <c r="D159" s="43"/>
+      <c r="E159" s="44"/>
+      <c r="F159" s="45"/>
       <c r="G159" s="1"/>
       <c r="H159" s="2"/>
       <c r="I159" s="2"/>
@@ -39235,12 +39221,12 @@
       <c r="BF159" s="3"/>
     </row>
     <row r="160" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="28"/>
-      <c r="B160" s="29"/>
-      <c r="C160" s="30"/>
-      <c r="D160" s="28"/>
-      <c r="E160" s="29"/>
-      <c r="F160" s="30"/>
+      <c r="A160" s="43"/>
+      <c r="B160" s="44"/>
+      <c r="C160" s="45"/>
+      <c r="D160" s="43"/>
+      <c r="E160" s="44"/>
+      <c r="F160" s="45"/>
       <c r="G160" s="1"/>
       <c r="H160" s="2"/>
       <c r="I160" s="2"/>
@@ -39295,12 +39281,12 @@
       <c r="BF160" s="3"/>
     </row>
     <row r="161" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="28"/>
-      <c r="B161" s="29"/>
-      <c r="C161" s="30"/>
-      <c r="D161" s="28"/>
-      <c r="E161" s="29"/>
-      <c r="F161" s="30"/>
+      <c r="A161" s="43"/>
+      <c r="B161" s="44"/>
+      <c r="C161" s="45"/>
+      <c r="D161" s="43"/>
+      <c r="E161" s="44"/>
+      <c r="F161" s="45"/>
       <c r="G161" s="1"/>
       <c r="H161" s="2"/>
       <c r="I161" s="2"/>
@@ -39355,12 +39341,12 @@
       <c r="BF161" s="3"/>
     </row>
     <row r="162" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="28"/>
-      <c r="B162" s="29"/>
-      <c r="C162" s="30"/>
-      <c r="D162" s="28"/>
-      <c r="E162" s="29"/>
-      <c r="F162" s="30"/>
+      <c r="A162" s="43"/>
+      <c r="B162" s="44"/>
+      <c r="C162" s="45"/>
+      <c r="D162" s="43"/>
+      <c r="E162" s="44"/>
+      <c r="F162" s="45"/>
       <c r="G162" s="1"/>
       <c r="H162" s="2"/>
       <c r="I162" s="2"/>
@@ -39415,12 +39401,12 @@
       <c r="BF162" s="3"/>
     </row>
     <row r="163" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="28"/>
-      <c r="B163" s="29"/>
-      <c r="C163" s="30"/>
-      <c r="D163" s="28"/>
-      <c r="E163" s="29"/>
-      <c r="F163" s="30"/>
+      <c r="A163" s="43"/>
+      <c r="B163" s="44"/>
+      <c r="C163" s="45"/>
+      <c r="D163" s="43"/>
+      <c r="E163" s="44"/>
+      <c r="F163" s="45"/>
       <c r="G163" s="1"/>
       <c r="H163" s="2"/>
       <c r="I163" s="2"/>
@@ -39475,12 +39461,12 @@
       <c r="BF163" s="3"/>
     </row>
     <row r="164" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="28"/>
-      <c r="B164" s="29"/>
-      <c r="C164" s="30"/>
-      <c r="D164" s="28"/>
-      <c r="E164" s="29"/>
-      <c r="F164" s="30"/>
+      <c r="A164" s="43"/>
+      <c r="B164" s="44"/>
+      <c r="C164" s="45"/>
+      <c r="D164" s="43"/>
+      <c r="E164" s="44"/>
+      <c r="F164" s="45"/>
       <c r="G164" s="1"/>
       <c r="H164" s="2"/>
       <c r="I164" s="2"/>
@@ -39535,12 +39521,12 @@
       <c r="BF164" s="3"/>
     </row>
     <row r="165" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="28"/>
-      <c r="B165" s="29"/>
-      <c r="C165" s="30"/>
-      <c r="D165" s="28"/>
-      <c r="E165" s="29"/>
-      <c r="F165" s="30"/>
+      <c r="A165" s="43"/>
+      <c r="B165" s="44"/>
+      <c r="C165" s="45"/>
+      <c r="D165" s="43"/>
+      <c r="E165" s="44"/>
+      <c r="F165" s="45"/>
       <c r="G165" s="1"/>
       <c r="H165" s="2"/>
       <c r="I165" s="2"/>
@@ -39595,12 +39581,12 @@
       <c r="BF165" s="3"/>
     </row>
     <row r="166" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="28"/>
-      <c r="B166" s="29"/>
-      <c r="C166" s="30"/>
-      <c r="D166" s="28"/>
-      <c r="E166" s="29"/>
-      <c r="F166" s="30"/>
+      <c r="A166" s="43"/>
+      <c r="B166" s="44"/>
+      <c r="C166" s="45"/>
+      <c r="D166" s="43"/>
+      <c r="E166" s="44"/>
+      <c r="F166" s="45"/>
       <c r="G166" s="1"/>
       <c r="H166" s="2"/>
       <c r="I166" s="2"/>
@@ -39655,12 +39641,12 @@
       <c r="BF166" s="3"/>
     </row>
     <row r="167" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="28"/>
-      <c r="B167" s="29"/>
-      <c r="C167" s="30"/>
-      <c r="D167" s="28"/>
-      <c r="E167" s="29"/>
-      <c r="F167" s="30"/>
+      <c r="A167" s="43"/>
+      <c r="B167" s="44"/>
+      <c r="C167" s="45"/>
+      <c r="D167" s="43"/>
+      <c r="E167" s="44"/>
+      <c r="F167" s="45"/>
       <c r="G167" s="1"/>
       <c r="H167" s="2"/>
       <c r="I167" s="2"/>
@@ -39715,12 +39701,12 @@
       <c r="BF167" s="3"/>
     </row>
     <row r="168" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="28"/>
-      <c r="B168" s="29"/>
-      <c r="C168" s="30"/>
-      <c r="D168" s="28"/>
-      <c r="E168" s="29"/>
-      <c r="F168" s="30"/>
+      <c r="A168" s="43"/>
+      <c r="B168" s="44"/>
+      <c r="C168" s="45"/>
+      <c r="D168" s="43"/>
+      <c r="E168" s="44"/>
+      <c r="F168" s="45"/>
       <c r="G168" s="1"/>
       <c r="H168" s="2"/>
       <c r="I168" s="2"/>
@@ -39775,12 +39761,12 @@
       <c r="BF168" s="3"/>
     </row>
     <row r="169" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="28"/>
-      <c r="B169" s="29"/>
-      <c r="C169" s="30"/>
-      <c r="D169" s="28"/>
-      <c r="E169" s="29"/>
-      <c r="F169" s="30"/>
+      <c r="A169" s="43"/>
+      <c r="B169" s="44"/>
+      <c r="C169" s="45"/>
+      <c r="D169" s="43"/>
+      <c r="E169" s="44"/>
+      <c r="F169" s="45"/>
       <c r="G169" s="1"/>
       <c r="H169" s="2"/>
       <c r="I169" s="2"/>
@@ -39835,12 +39821,12 @@
       <c r="BF169" s="3"/>
     </row>
     <row r="170" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="28"/>
-      <c r="B170" s="29"/>
-      <c r="C170" s="30"/>
-      <c r="D170" s="28"/>
-      <c r="E170" s="29"/>
-      <c r="F170" s="30"/>
+      <c r="A170" s="43"/>
+      <c r="B170" s="44"/>
+      <c r="C170" s="45"/>
+      <c r="D170" s="43"/>
+      <c r="E170" s="44"/>
+      <c r="F170" s="45"/>
       <c r="G170" s="1"/>
       <c r="H170" s="2"/>
       <c r="I170" s="2"/>
@@ -39895,12 +39881,12 @@
       <c r="BF170" s="3"/>
     </row>
     <row r="171" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="31"/>
-      <c r="B171" s="32"/>
-      <c r="C171" s="33"/>
-      <c r="D171" s="31"/>
-      <c r="E171" s="32"/>
-      <c r="F171" s="33"/>
+      <c r="A171" s="46"/>
+      <c r="B171" s="47"/>
+      <c r="C171" s="48"/>
+      <c r="D171" s="46"/>
+      <c r="E171" s="47"/>
+      <c r="F171" s="48"/>
       <c r="G171" s="7"/>
       <c r="H171" s="8"/>
       <c r="I171" s="8"/>
@@ -39955,16 +39941,16 @@
       <c r="BF171" s="9"/>
     </row>
     <row r="172" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="26" t="s">
+      <c r="A172" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B172" s="41"/>
+      <c r="C172" s="41"/>
+      <c r="D172" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="B172" s="26"/>
-      <c r="C172" s="26"/>
-      <c r="D172" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="E172" s="26"/>
-      <c r="F172" s="27"/>
+      <c r="E172" s="41"/>
+      <c r="F172" s="42"/>
       <c r="G172" s="10"/>
       <c r="H172" s="11"/>
       <c r="I172" s="11"/>
@@ -40019,12 +40005,12 @@
       <c r="BF172" s="12"/>
     </row>
     <row r="173" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="29"/>
-      <c r="B173" s="29"/>
-      <c r="C173" s="29"/>
-      <c r="D173" s="29"/>
-      <c r="E173" s="29"/>
-      <c r="F173" s="30"/>
+      <c r="A173" s="44"/>
+      <c r="B173" s="44"/>
+      <c r="C173" s="44"/>
+      <c r="D173" s="44"/>
+      <c r="E173" s="44"/>
+      <c r="F173" s="45"/>
       <c r="G173" s="1"/>
       <c r="H173" s="2"/>
       <c r="I173" s="2"/>
@@ -40079,12 +40065,12 @@
       <c r="BF173" s="3"/>
     </row>
     <row r="174" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="29"/>
-      <c r="B174" s="29"/>
-      <c r="C174" s="29"/>
-      <c r="D174" s="29"/>
-      <c r="E174" s="29"/>
-      <c r="F174" s="30"/>
+      <c r="A174" s="44"/>
+      <c r="B174" s="44"/>
+      <c r="C174" s="44"/>
+      <c r="D174" s="44"/>
+      <c r="E174" s="44"/>
+      <c r="F174" s="45"/>
       <c r="G174" s="1"/>
       <c r="H174" s="2"/>
       <c r="I174" s="2"/>
@@ -40139,12 +40125,12 @@
       <c r="BF174" s="3"/>
     </row>
     <row r="175" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="29"/>
-      <c r="B175" s="29"/>
-      <c r="C175" s="29"/>
-      <c r="D175" s="29"/>
-      <c r="E175" s="29"/>
-      <c r="F175" s="30"/>
+      <c r="A175" s="44"/>
+      <c r="B175" s="44"/>
+      <c r="C175" s="44"/>
+      <c r="D175" s="44"/>
+      <c r="E175" s="44"/>
+      <c r="F175" s="45"/>
       <c r="G175" s="1"/>
       <c r="H175" s="2"/>
       <c r="I175" s="2"/>
@@ -40199,12 +40185,12 @@
       <c r="BF175" s="3"/>
     </row>
     <row r="176" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="29"/>
-      <c r="B176" s="29"/>
-      <c r="C176" s="29"/>
-      <c r="D176" s="29"/>
-      <c r="E176" s="29"/>
-      <c r="F176" s="30"/>
+      <c r="A176" s="44"/>
+      <c r="B176" s="44"/>
+      <c r="C176" s="44"/>
+      <c r="D176" s="44"/>
+      <c r="E176" s="44"/>
+      <c r="F176" s="45"/>
       <c r="G176" s="1"/>
       <c r="H176" s="2"/>
       <c r="I176" s="2"/>
@@ -40259,12 +40245,12 @@
       <c r="BF176" s="3"/>
     </row>
     <row r="177" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="29"/>
-      <c r="B177" s="29"/>
-      <c r="C177" s="29"/>
-      <c r="D177" s="29"/>
-      <c r="E177" s="29"/>
-      <c r="F177" s="30"/>
+      <c r="A177" s="44"/>
+      <c r="B177" s="44"/>
+      <c r="C177" s="44"/>
+      <c r="D177" s="44"/>
+      <c r="E177" s="44"/>
+      <c r="F177" s="45"/>
       <c r="G177" s="1"/>
       <c r="H177" s="2"/>
       <c r="I177" s="2"/>
@@ -40319,12 +40305,12 @@
       <c r="BF177" s="3"/>
     </row>
     <row r="178" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="29"/>
-      <c r="B178" s="29"/>
-      <c r="C178" s="29"/>
-      <c r="D178" s="29"/>
-      <c r="E178" s="29"/>
-      <c r="F178" s="30"/>
+      <c r="A178" s="44"/>
+      <c r="B178" s="44"/>
+      <c r="C178" s="44"/>
+      <c r="D178" s="44"/>
+      <c r="E178" s="44"/>
+      <c r="F178" s="45"/>
       <c r="G178" s="1"/>
       <c r="H178" s="2"/>
       <c r="I178" s="2"/>
@@ -40379,12 +40365,12 @@
       <c r="BF178" s="3"/>
     </row>
     <row r="179" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="29"/>
-      <c r="B179" s="29"/>
-      <c r="C179" s="29"/>
-      <c r="D179" s="29"/>
-      <c r="E179" s="29"/>
-      <c r="F179" s="30"/>
+      <c r="A179" s="44"/>
+      <c r="B179" s="44"/>
+      <c r="C179" s="44"/>
+      <c r="D179" s="44"/>
+      <c r="E179" s="44"/>
+      <c r="F179" s="45"/>
       <c r="G179" s="1"/>
       <c r="H179" s="2"/>
       <c r="I179" s="2"/>
@@ -40439,12 +40425,12 @@
       <c r="BF179" s="3"/>
     </row>
     <row r="180" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="29"/>
-      <c r="B180" s="29"/>
-      <c r="C180" s="29"/>
-      <c r="D180" s="29"/>
-      <c r="E180" s="29"/>
-      <c r="F180" s="30"/>
+      <c r="A180" s="44"/>
+      <c r="B180" s="44"/>
+      <c r="C180" s="44"/>
+      <c r="D180" s="44"/>
+      <c r="E180" s="44"/>
+      <c r="F180" s="45"/>
       <c r="G180" s="1"/>
       <c r="H180" s="2"/>
       <c r="I180" s="2"/>
@@ -40499,12 +40485,12 @@
       <c r="BF180" s="3"/>
     </row>
     <row r="181" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="29"/>
-      <c r="B181" s="29"/>
-      <c r="C181" s="29"/>
-      <c r="D181" s="29"/>
-      <c r="E181" s="29"/>
-      <c r="F181" s="30"/>
+      <c r="A181" s="44"/>
+      <c r="B181" s="44"/>
+      <c r="C181" s="44"/>
+      <c r="D181" s="44"/>
+      <c r="E181" s="44"/>
+      <c r="F181" s="45"/>
       <c r="G181" s="1"/>
       <c r="H181" s="2"/>
       <c r="I181" s="2"/>
@@ -40559,12 +40545,12 @@
       <c r="BF181" s="3"/>
     </row>
     <row r="182" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="29"/>
-      <c r="B182" s="29"/>
-      <c r="C182" s="29"/>
-      <c r="D182" s="29"/>
-      <c r="E182" s="29"/>
-      <c r="F182" s="30"/>
+      <c r="A182" s="44"/>
+      <c r="B182" s="44"/>
+      <c r="C182" s="44"/>
+      <c r="D182" s="44"/>
+      <c r="E182" s="44"/>
+      <c r="F182" s="45"/>
       <c r="G182" s="1"/>
       <c r="H182" s="2"/>
       <c r="I182" s="2"/>
@@ -40619,12 +40605,12 @@
       <c r="BF182" s="3"/>
     </row>
     <row r="183" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="29"/>
-      <c r="B183" s="29"/>
-      <c r="C183" s="29"/>
-      <c r="D183" s="29"/>
-      <c r="E183" s="29"/>
-      <c r="F183" s="30"/>
+      <c r="A183" s="44"/>
+      <c r="B183" s="44"/>
+      <c r="C183" s="44"/>
+      <c r="D183" s="44"/>
+      <c r="E183" s="44"/>
+      <c r="F183" s="45"/>
       <c r="G183" s="1"/>
       <c r="H183" s="2"/>
       <c r="I183" s="2"/>
@@ -40679,12 +40665,12 @@
       <c r="BF183" s="3"/>
     </row>
     <row r="184" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="29"/>
-      <c r="B184" s="29"/>
-      <c r="C184" s="29"/>
-      <c r="D184" s="29"/>
-      <c r="E184" s="29"/>
-      <c r="F184" s="30"/>
+      <c r="A184" s="44"/>
+      <c r="B184" s="44"/>
+      <c r="C184" s="44"/>
+      <c r="D184" s="44"/>
+      <c r="E184" s="44"/>
+      <c r="F184" s="45"/>
       <c r="G184" s="1"/>
       <c r="H184" s="2"/>
       <c r="I184" s="2"/>
@@ -40739,12 +40725,12 @@
       <c r="BF184" s="3"/>
     </row>
     <row r="185" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="29"/>
-      <c r="B185" s="29"/>
-      <c r="C185" s="29"/>
-      <c r="D185" s="29"/>
-      <c r="E185" s="29"/>
-      <c r="F185" s="30"/>
+      <c r="A185" s="44"/>
+      <c r="B185" s="44"/>
+      <c r="C185" s="44"/>
+      <c r="D185" s="44"/>
+      <c r="E185" s="44"/>
+      <c r="F185" s="45"/>
       <c r="G185" s="1"/>
       <c r="H185" s="2"/>
       <c r="I185" s="2"/>
@@ -40799,12 +40785,12 @@
       <c r="BF185" s="3"/>
     </row>
     <row r="186" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="29"/>
-      <c r="B186" s="29"/>
-      <c r="C186" s="29"/>
-      <c r="D186" s="29"/>
-      <c r="E186" s="29"/>
-      <c r="F186" s="30"/>
+      <c r="A186" s="44"/>
+      <c r="B186" s="44"/>
+      <c r="C186" s="44"/>
+      <c r="D186" s="44"/>
+      <c r="E186" s="44"/>
+      <c r="F186" s="45"/>
       <c r="G186" s="1"/>
       <c r="H186" s="2"/>
       <c r="I186" s="2"/>
@@ -40859,12 +40845,12 @@
       <c r="BF186" s="3"/>
     </row>
     <row r="187" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="29"/>
-      <c r="B187" s="29"/>
-      <c r="C187" s="29"/>
-      <c r="D187" s="29"/>
-      <c r="E187" s="29"/>
-      <c r="F187" s="30"/>
+      <c r="A187" s="44"/>
+      <c r="B187" s="44"/>
+      <c r="C187" s="44"/>
+      <c r="D187" s="44"/>
+      <c r="E187" s="44"/>
+      <c r="F187" s="45"/>
       <c r="G187" s="1"/>
       <c r="H187" s="2"/>
       <c r="I187" s="2"/>
@@ -40919,12 +40905,12 @@
       <c r="BF187" s="3"/>
     </row>
     <row r="188" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="29"/>
-      <c r="B188" s="29"/>
-      <c r="C188" s="29"/>
-      <c r="D188" s="29"/>
-      <c r="E188" s="29"/>
-      <c r="F188" s="30"/>
+      <c r="A188" s="44"/>
+      <c r="B188" s="44"/>
+      <c r="C188" s="44"/>
+      <c r="D188" s="44"/>
+      <c r="E188" s="44"/>
+      <c r="F188" s="45"/>
       <c r="G188" s="1"/>
       <c r="H188" s="2"/>
       <c r="I188" s="2"/>
@@ -40979,12 +40965,12 @@
       <c r="BF188" s="3"/>
     </row>
     <row r="189" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="29"/>
-      <c r="B189" s="29"/>
-      <c r="C189" s="29"/>
-      <c r="D189" s="29"/>
-      <c r="E189" s="29"/>
-      <c r="F189" s="30"/>
+      <c r="A189" s="44"/>
+      <c r="B189" s="44"/>
+      <c r="C189" s="44"/>
+      <c r="D189" s="44"/>
+      <c r="E189" s="44"/>
+      <c r="F189" s="45"/>
       <c r="G189" s="1"/>
       <c r="H189" s="2"/>
       <c r="I189" s="2"/>
@@ -41039,12 +41025,12 @@
       <c r="BF189" s="3"/>
     </row>
     <row r="190" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="29"/>
-      <c r="B190" s="29"/>
-      <c r="C190" s="29"/>
-      <c r="D190" s="29"/>
-      <c r="E190" s="29"/>
-      <c r="F190" s="30"/>
+      <c r="A190" s="44"/>
+      <c r="B190" s="44"/>
+      <c r="C190" s="44"/>
+      <c r="D190" s="44"/>
+      <c r="E190" s="44"/>
+      <c r="F190" s="45"/>
       <c r="G190" s="1"/>
       <c r="H190" s="2"/>
       <c r="I190" s="2"/>
@@ -41099,12 +41085,12 @@
       <c r="BF190" s="3"/>
     </row>
     <row r="191" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="29"/>
-      <c r="B191" s="29"/>
-      <c r="C191" s="29"/>
-      <c r="D191" s="29"/>
-      <c r="E191" s="29"/>
-      <c r="F191" s="30"/>
+      <c r="A191" s="44"/>
+      <c r="B191" s="44"/>
+      <c r="C191" s="44"/>
+      <c r="D191" s="44"/>
+      <c r="E191" s="44"/>
+      <c r="F191" s="45"/>
       <c r="G191" s="1"/>
       <c r="H191" s="2"/>
       <c r="I191" s="2"/>
@@ -41159,12 +41145,12 @@
       <c r="BF191" s="3"/>
     </row>
     <row r="192" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="29"/>
-      <c r="B192" s="29"/>
-      <c r="C192" s="29"/>
-      <c r="D192" s="29"/>
-      <c r="E192" s="29"/>
-      <c r="F192" s="30"/>
+      <c r="A192" s="44"/>
+      <c r="B192" s="44"/>
+      <c r="C192" s="44"/>
+      <c r="D192" s="44"/>
+      <c r="E192" s="44"/>
+      <c r="F192" s="45"/>
       <c r="G192" s="1"/>
       <c r="H192" s="2"/>
       <c r="I192" s="2"/>
@@ -41219,12 +41205,12 @@
       <c r="BF192" s="3"/>
     </row>
     <row r="193" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="29"/>
-      <c r="B193" s="29"/>
-      <c r="C193" s="29"/>
-      <c r="D193" s="29"/>
-      <c r="E193" s="29"/>
-      <c r="F193" s="30"/>
+      <c r="A193" s="44"/>
+      <c r="B193" s="44"/>
+      <c r="C193" s="44"/>
+      <c r="D193" s="44"/>
+      <c r="E193" s="44"/>
+      <c r="F193" s="45"/>
       <c r="G193" s="1"/>
       <c r="H193" s="2"/>
       <c r="I193" s="2"/>
@@ -41279,12 +41265,12 @@
       <c r="BF193" s="3"/>
     </row>
     <row r="194" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A194" s="29"/>
-      <c r="B194" s="29"/>
-      <c r="C194" s="29"/>
-      <c r="D194" s="29"/>
-      <c r="E194" s="29"/>
-      <c r="F194" s="30"/>
+      <c r="A194" s="44"/>
+      <c r="B194" s="44"/>
+      <c r="C194" s="44"/>
+      <c r="D194" s="44"/>
+      <c r="E194" s="44"/>
+      <c r="F194" s="45"/>
       <c r="G194" s="1"/>
       <c r="H194" s="2"/>
       <c r="I194" s="2"/>
@@ -41339,12 +41325,12 @@
       <c r="BF194" s="3"/>
     </row>
     <row r="195" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="29"/>
-      <c r="B195" s="29"/>
-      <c r="C195" s="29"/>
-      <c r="D195" s="29"/>
-      <c r="E195" s="29"/>
-      <c r="F195" s="30"/>
+      <c r="A195" s="44"/>
+      <c r="B195" s="44"/>
+      <c r="C195" s="44"/>
+      <c r="D195" s="44"/>
+      <c r="E195" s="44"/>
+      <c r="F195" s="45"/>
       <c r="G195" s="1"/>
       <c r="H195" s="2"/>
       <c r="I195" s="2"/>
@@ -41399,12 +41385,12 @@
       <c r="BF195" s="3"/>
     </row>
     <row r="196" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="29"/>
-      <c r="B196" s="29"/>
-      <c r="C196" s="29"/>
-      <c r="D196" s="29"/>
-      <c r="E196" s="29"/>
-      <c r="F196" s="30"/>
+      <c r="A196" s="44"/>
+      <c r="B196" s="44"/>
+      <c r="C196" s="44"/>
+      <c r="D196" s="44"/>
+      <c r="E196" s="44"/>
+      <c r="F196" s="45"/>
       <c r="G196" s="1"/>
       <c r="H196" s="2"/>
       <c r="I196" s="2"/>
@@ -41459,12 +41445,12 @@
       <c r="BF196" s="3"/>
     </row>
     <row r="197" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="29"/>
-      <c r="B197" s="29"/>
-      <c r="C197" s="29"/>
-      <c r="D197" s="29"/>
-      <c r="E197" s="29"/>
-      <c r="F197" s="30"/>
+      <c r="A197" s="44"/>
+      <c r="B197" s="44"/>
+      <c r="C197" s="44"/>
+      <c r="D197" s="44"/>
+      <c r="E197" s="44"/>
+      <c r="F197" s="45"/>
       <c r="G197" s="1"/>
       <c r="H197" s="2"/>
       <c r="I197" s="2"/>
@@ -41519,12 +41505,12 @@
       <c r="BF197" s="3"/>
     </row>
     <row r="198" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="29"/>
-      <c r="B198" s="29"/>
-      <c r="C198" s="29"/>
-      <c r="D198" s="29"/>
-      <c r="E198" s="29"/>
-      <c r="F198" s="30"/>
+      <c r="A198" s="44"/>
+      <c r="B198" s="44"/>
+      <c r="C198" s="44"/>
+      <c r="D198" s="44"/>
+      <c r="E198" s="44"/>
+      <c r="F198" s="45"/>
       <c r="G198" s="1"/>
       <c r="H198" s="2"/>
       <c r="I198" s="2"/>
@@ -41579,12 +41565,12 @@
       <c r="BF198" s="3"/>
     </row>
     <row r="199" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="29"/>
-      <c r="B199" s="29"/>
-      <c r="C199" s="29"/>
-      <c r="D199" s="29"/>
-      <c r="E199" s="29"/>
-      <c r="F199" s="30"/>
+      <c r="A199" s="44"/>
+      <c r="B199" s="44"/>
+      <c r="C199" s="44"/>
+      <c r="D199" s="44"/>
+      <c r="E199" s="44"/>
+      <c r="F199" s="45"/>
       <c r="G199" s="1"/>
       <c r="H199" s="2"/>
       <c r="I199" s="2"/>
@@ -41639,12 +41625,12 @@
       <c r="BF199" s="3"/>
     </row>
     <row r="200" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="29"/>
-      <c r="B200" s="29"/>
-      <c r="C200" s="29"/>
-      <c r="D200" s="29"/>
-      <c r="E200" s="29"/>
-      <c r="F200" s="30"/>
+      <c r="A200" s="44"/>
+      <c r="B200" s="44"/>
+      <c r="C200" s="44"/>
+      <c r="D200" s="44"/>
+      <c r="E200" s="44"/>
+      <c r="F200" s="45"/>
       <c r="G200" s="1"/>
       <c r="H200" s="2"/>
       <c r="I200" s="2"/>
@@ -41699,12 +41685,12 @@
       <c r="BF200" s="3"/>
     </row>
     <row r="201" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="29"/>
-      <c r="B201" s="29"/>
-      <c r="C201" s="29"/>
-      <c r="D201" s="29"/>
-      <c r="E201" s="29"/>
-      <c r="F201" s="30"/>
+      <c r="A201" s="44"/>
+      <c r="B201" s="44"/>
+      <c r="C201" s="44"/>
+      <c r="D201" s="44"/>
+      <c r="E201" s="44"/>
+      <c r="F201" s="45"/>
       <c r="G201" s="1"/>
       <c r="H201" s="2"/>
       <c r="I201" s="2"/>
@@ -41759,12 +41745,12 @@
       <c r="BF201" s="3"/>
     </row>
     <row r="202" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="29"/>
-      <c r="B202" s="29"/>
-      <c r="C202" s="29"/>
-      <c r="D202" s="29"/>
-      <c r="E202" s="29"/>
-      <c r="F202" s="30"/>
+      <c r="A202" s="44"/>
+      <c r="B202" s="44"/>
+      <c r="C202" s="44"/>
+      <c r="D202" s="44"/>
+      <c r="E202" s="44"/>
+      <c r="F202" s="45"/>
       <c r="G202" s="1"/>
       <c r="H202" s="2"/>
       <c r="I202" s="2"/>
@@ -41819,12 +41805,12 @@
       <c r="BF202" s="3"/>
     </row>
     <row r="203" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="29"/>
-      <c r="B203" s="29"/>
-      <c r="C203" s="29"/>
-      <c r="D203" s="29"/>
-      <c r="E203" s="29"/>
-      <c r="F203" s="30"/>
+      <c r="A203" s="44"/>
+      <c r="B203" s="44"/>
+      <c r="C203" s="44"/>
+      <c r="D203" s="44"/>
+      <c r="E203" s="44"/>
+      <c r="F203" s="45"/>
       <c r="G203" s="1"/>
       <c r="H203" s="2"/>
       <c r="I203" s="2"/>
@@ -41879,12 +41865,12 @@
       <c r="BF203" s="3"/>
     </row>
     <row r="204" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="29"/>
-      <c r="B204" s="29"/>
-      <c r="C204" s="29"/>
-      <c r="D204" s="29"/>
-      <c r="E204" s="29"/>
-      <c r="F204" s="30"/>
+      <c r="A204" s="44"/>
+      <c r="B204" s="44"/>
+      <c r="C204" s="44"/>
+      <c r="D204" s="44"/>
+      <c r="E204" s="44"/>
+      <c r="F204" s="45"/>
       <c r="G204" s="1"/>
       <c r="H204" s="2"/>
       <c r="I204" s="2"/>
@@ -41939,12 +41925,12 @@
       <c r="BF204" s="3"/>
     </row>
     <row r="205" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="29"/>
-      <c r="B205" s="29"/>
-      <c r="C205" s="29"/>
-      <c r="D205" s="29"/>
-      <c r="E205" s="29"/>
-      <c r="F205" s="30"/>
+      <c r="A205" s="44"/>
+      <c r="B205" s="44"/>
+      <c r="C205" s="44"/>
+      <c r="D205" s="44"/>
+      <c r="E205" s="44"/>
+      <c r="F205" s="45"/>
       <c r="G205" s="1"/>
       <c r="H205" s="2"/>
       <c r="I205" s="2"/>
@@ -41999,12 +41985,12 @@
       <c r="BF205" s="3"/>
     </row>
     <row r="206" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="29"/>
-      <c r="B206" s="29"/>
-      <c r="C206" s="29"/>
-      <c r="D206" s="29"/>
-      <c r="E206" s="29"/>
-      <c r="F206" s="30"/>
+      <c r="A206" s="44"/>
+      <c r="B206" s="44"/>
+      <c r="C206" s="44"/>
+      <c r="D206" s="44"/>
+      <c r="E206" s="44"/>
+      <c r="F206" s="45"/>
       <c r="G206" s="1"/>
       <c r="H206" s="2"/>
       <c r="I206" s="2"/>
@@ -42059,12 +42045,12 @@
       <c r="BF206" s="3"/>
     </row>
     <row r="207" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="29"/>
-      <c r="B207" s="29"/>
-      <c r="C207" s="29"/>
-      <c r="D207" s="29"/>
-      <c r="E207" s="29"/>
-      <c r="F207" s="30"/>
+      <c r="A207" s="44"/>
+      <c r="B207" s="44"/>
+      <c r="C207" s="44"/>
+      <c r="D207" s="44"/>
+      <c r="E207" s="44"/>
+      <c r="F207" s="45"/>
       <c r="G207" s="1"/>
       <c r="H207" s="2"/>
       <c r="I207" s="2"/>
@@ -42119,12 +42105,12 @@
       <c r="BF207" s="3"/>
     </row>
     <row r="208" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="29"/>
-      <c r="B208" s="29"/>
-      <c r="C208" s="29"/>
-      <c r="D208" s="29"/>
-      <c r="E208" s="29"/>
-      <c r="F208" s="30"/>
+      <c r="A208" s="44"/>
+      <c r="B208" s="44"/>
+      <c r="C208" s="44"/>
+      <c r="D208" s="44"/>
+      <c r="E208" s="44"/>
+      <c r="F208" s="45"/>
       <c r="G208" s="1"/>
       <c r="H208" s="2"/>
       <c r="I208" s="2"/>
@@ -42179,12 +42165,12 @@
       <c r="BF208" s="3"/>
     </row>
     <row r="209" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="29"/>
-      <c r="B209" s="29"/>
-      <c r="C209" s="29"/>
-      <c r="D209" s="29"/>
-      <c r="E209" s="29"/>
-      <c r="F209" s="30"/>
+      <c r="A209" s="44"/>
+      <c r="B209" s="44"/>
+      <c r="C209" s="44"/>
+      <c r="D209" s="44"/>
+      <c r="E209" s="44"/>
+      <c r="F209" s="45"/>
       <c r="G209" s="1"/>
       <c r="H209" s="2"/>
       <c r="I209" s="2"/>
@@ -42239,12 +42225,12 @@
       <c r="BF209" s="3"/>
     </row>
     <row r="210" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="29"/>
-      <c r="B210" s="29"/>
-      <c r="C210" s="29"/>
-      <c r="D210" s="29"/>
-      <c r="E210" s="29"/>
-      <c r="F210" s="30"/>
+      <c r="A210" s="44"/>
+      <c r="B210" s="44"/>
+      <c r="C210" s="44"/>
+      <c r="D210" s="44"/>
+      <c r="E210" s="44"/>
+      <c r="F210" s="45"/>
       <c r="G210" s="1"/>
       <c r="H210" s="2"/>
       <c r="I210" s="2"/>
@@ -42299,12 +42285,12 @@
       <c r="BF210" s="3"/>
     </row>
     <row r="211" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="29"/>
-      <c r="B211" s="29"/>
-      <c r="C211" s="29"/>
-      <c r="D211" s="29"/>
-      <c r="E211" s="29"/>
-      <c r="F211" s="30"/>
+      <c r="A211" s="44"/>
+      <c r="B211" s="44"/>
+      <c r="C211" s="44"/>
+      <c r="D211" s="44"/>
+      <c r="E211" s="44"/>
+      <c r="F211" s="45"/>
       <c r="G211" s="1"/>
       <c r="H211" s="2"/>
       <c r="I211" s="2"/>
@@ -42359,12 +42345,12 @@
       <c r="BF211" s="3"/>
     </row>
     <row r="212" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="29"/>
-      <c r="B212" s="29"/>
-      <c r="C212" s="29"/>
-      <c r="D212" s="29"/>
-      <c r="E212" s="29"/>
-      <c r="F212" s="30"/>
+      <c r="A212" s="44"/>
+      <c r="B212" s="44"/>
+      <c r="C212" s="44"/>
+      <c r="D212" s="44"/>
+      <c r="E212" s="44"/>
+      <c r="F212" s="45"/>
       <c r="G212" s="1"/>
       <c r="H212" s="2"/>
       <c r="I212" s="2"/>
@@ -42419,12 +42405,12 @@
       <c r="BF212" s="3"/>
     </row>
     <row r="213" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="29"/>
-      <c r="B213" s="29"/>
-      <c r="C213" s="29"/>
-      <c r="D213" s="29"/>
-      <c r="E213" s="29"/>
-      <c r="F213" s="30"/>
+      <c r="A213" s="44"/>
+      <c r="B213" s="44"/>
+      <c r="C213" s="44"/>
+      <c r="D213" s="44"/>
+      <c r="E213" s="44"/>
+      <c r="F213" s="45"/>
       <c r="G213" s="1"/>
       <c r="H213" s="2"/>
       <c r="I213" s="2"/>
@@ -42479,12 +42465,12 @@
       <c r="BF213" s="3"/>
     </row>
     <row r="214" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="29"/>
-      <c r="B214" s="29"/>
-      <c r="C214" s="29"/>
-      <c r="D214" s="29"/>
-      <c r="E214" s="29"/>
-      <c r="F214" s="30"/>
+      <c r="A214" s="44"/>
+      <c r="B214" s="44"/>
+      <c r="C214" s="44"/>
+      <c r="D214" s="44"/>
+      <c r="E214" s="44"/>
+      <c r="F214" s="45"/>
       <c r="G214" s="1"/>
       <c r="H214" s="2"/>
       <c r="I214" s="2"/>
@@ -42539,12 +42525,12 @@
       <c r="BF214" s="3"/>
     </row>
     <row r="215" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="29"/>
-      <c r="B215" s="29"/>
-      <c r="C215" s="29"/>
-      <c r="D215" s="29"/>
-      <c r="E215" s="29"/>
-      <c r="F215" s="30"/>
+      <c r="A215" s="44"/>
+      <c r="B215" s="44"/>
+      <c r="C215" s="44"/>
+      <c r="D215" s="44"/>
+      <c r="E215" s="44"/>
+      <c r="F215" s="45"/>
       <c r="G215" s="1"/>
       <c r="H215" s="2"/>
       <c r="I215" s="2"/>
@@ -42599,12 +42585,12 @@
       <c r="BF215" s="3"/>
     </row>
     <row r="216" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="29"/>
-      <c r="B216" s="29"/>
-      <c r="C216" s="29"/>
-      <c r="D216" s="29"/>
-      <c r="E216" s="29"/>
-      <c r="F216" s="30"/>
+      <c r="A216" s="44"/>
+      <c r="B216" s="44"/>
+      <c r="C216" s="44"/>
+      <c r="D216" s="44"/>
+      <c r="E216" s="44"/>
+      <c r="F216" s="45"/>
       <c r="G216" s="1"/>
       <c r="H216" s="2"/>
       <c r="I216" s="2"/>
@@ -42659,12 +42645,12 @@
       <c r="BF216" s="3"/>
     </row>
     <row r="217" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="29"/>
-      <c r="B217" s="29"/>
-      <c r="C217" s="29"/>
-      <c r="D217" s="29"/>
-      <c r="E217" s="29"/>
-      <c r="F217" s="30"/>
+      <c r="A217" s="44"/>
+      <c r="B217" s="44"/>
+      <c r="C217" s="44"/>
+      <c r="D217" s="44"/>
+      <c r="E217" s="44"/>
+      <c r="F217" s="45"/>
       <c r="G217" s="1"/>
       <c r="H217" s="2"/>
       <c r="I217" s="2"/>
@@ -42719,12 +42705,12 @@
       <c r="BF217" s="3"/>
     </row>
     <row r="218" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="29"/>
-      <c r="B218" s="29"/>
-      <c r="C218" s="29"/>
-      <c r="D218" s="29"/>
-      <c r="E218" s="29"/>
-      <c r="F218" s="30"/>
+      <c r="A218" s="44"/>
+      <c r="B218" s="44"/>
+      <c r="C218" s="44"/>
+      <c r="D218" s="44"/>
+      <c r="E218" s="44"/>
+      <c r="F218" s="45"/>
       <c r="G218" s="1"/>
       <c r="H218" s="2"/>
       <c r="I218" s="2"/>
@@ -42779,12 +42765,12 @@
       <c r="BF218" s="3"/>
     </row>
     <row r="219" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="29"/>
-      <c r="B219" s="29"/>
-      <c r="C219" s="29"/>
-      <c r="D219" s="29"/>
-      <c r="E219" s="29"/>
-      <c r="F219" s="30"/>
+      <c r="A219" s="44"/>
+      <c r="B219" s="44"/>
+      <c r="C219" s="44"/>
+      <c r="D219" s="44"/>
+      <c r="E219" s="44"/>
+      <c r="F219" s="45"/>
       <c r="G219" s="7"/>
       <c r="H219" s="8"/>
       <c r="I219" s="8"/>
@@ -42840,17 +42826,12 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="G1:N1"/>
-    <mergeCell ref="G2:N2"/>
-    <mergeCell ref="O1:AE1"/>
-    <mergeCell ref="O2:AE2"/>
-    <mergeCell ref="AF1:AI1"/>
-    <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="AJ1:AQ1"/>
-    <mergeCell ref="AJ2:AQ2"/>
-    <mergeCell ref="AR1:AU1"/>
-    <mergeCell ref="AR2:AU2"/>
+    <mergeCell ref="D45:F84"/>
+    <mergeCell ref="AG4:AS5"/>
+    <mergeCell ref="AT4:BF5"/>
+    <mergeCell ref="D6:F16"/>
+    <mergeCell ref="A172:C219"/>
+    <mergeCell ref="D172:F219"/>
     <mergeCell ref="AV1:BC1"/>
     <mergeCell ref="AV2:BC2"/>
     <mergeCell ref="A126:C171"/>
@@ -42867,12 +42848,17 @@
     <mergeCell ref="D126:F171"/>
     <mergeCell ref="D32:F44"/>
     <mergeCell ref="D17:F30"/>
-    <mergeCell ref="D45:F84"/>
-    <mergeCell ref="AG4:AS5"/>
-    <mergeCell ref="AT4:BF5"/>
-    <mergeCell ref="D6:F16"/>
-    <mergeCell ref="A172:C219"/>
-    <mergeCell ref="D172:F219"/>
+    <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="AJ1:AQ1"/>
+    <mergeCell ref="AJ2:AQ2"/>
+    <mergeCell ref="AR1:AU1"/>
+    <mergeCell ref="AR2:AU2"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="G1:N1"/>
+    <mergeCell ref="G2:N2"/>
+    <mergeCell ref="O1:AE1"/>
+    <mergeCell ref="O2:AE2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.11811023622047245" footer="0.11811023622047245"/>
@@ -42904,277 +42890,273 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="43" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="43" t="s">
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="44"/>
-      <c r="AA1" s="44"/>
-      <c r="AB1" s="44"/>
-      <c r="AC1" s="44"/>
-      <c r="AD1" s="44"/>
-      <c r="AE1" s="45"/>
-      <c r="AF1" s="43" t="s">
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="32"/>
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="33"/>
+      <c r="AF1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="44"/>
-      <c r="AH1" s="44"/>
-      <c r="AI1" s="45"/>
-      <c r="AJ1" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="AK1" s="47"/>
-      <c r="AL1" s="47"/>
-      <c r="AM1" s="47"/>
-      <c r="AN1" s="47"/>
-      <c r="AO1" s="47"/>
-      <c r="AP1" s="47"/>
-      <c r="AQ1" s="48"/>
-      <c r="AR1" s="43" t="s">
+      <c r="AG1" s="32"/>
+      <c r="AH1" s="32"/>
+      <c r="AI1" s="33"/>
+      <c r="AJ1" s="34"/>
+      <c r="AK1" s="35"/>
+      <c r="AL1" s="35"/>
+      <c r="AM1" s="35"/>
+      <c r="AN1" s="35"/>
+      <c r="AO1" s="35"/>
+      <c r="AP1" s="35"/>
+      <c r="AQ1" s="36"/>
+      <c r="AR1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="AS1" s="44"/>
-      <c r="AT1" s="44"/>
-      <c r="AU1" s="45"/>
-      <c r="AV1" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="AW1" s="47"/>
-      <c r="AX1" s="47"/>
-      <c r="AY1" s="47"/>
-      <c r="AZ1" s="47"/>
-      <c r="BA1" s="47"/>
-      <c r="BB1" s="47"/>
-      <c r="BC1" s="48"/>
+      <c r="AS1" s="32"/>
+      <c r="AT1" s="32"/>
+      <c r="AU1" s="33"/>
+      <c r="AV1" s="34"/>
+      <c r="AW1" s="35"/>
+      <c r="AX1" s="35"/>
+      <c r="AY1" s="35"/>
+      <c r="AZ1" s="35"/>
+      <c r="BA1" s="35"/>
+      <c r="BB1" s="35"/>
+      <c r="BC1" s="36"/>
     </row>
     <row r="2" spans="1:55" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="52"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="46" t="str">
+      <c r="A2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="34" t="str">
         <f ca="1">RIGHT(CELL("filename",O2),LEN(CELL("filename",O2))-FIND("]",CELL("filename",O2)))</f>
         <v>有給申請フロー</v>
       </c>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47"/>
-      <c r="W2" s="47"/>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="47"/>
-      <c r="Z2" s="47"/>
-      <c r="AA2" s="47"/>
-      <c r="AB2" s="47"/>
-      <c r="AC2" s="47"/>
-      <c r="AD2" s="47"/>
-      <c r="AE2" s="48"/>
-      <c r="AF2" s="52" t="s">
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="35"/>
+      <c r="X2" s="35"/>
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="35"/>
+      <c r="AE2" s="36"/>
+      <c r="AF2" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="AG2" s="53"/>
-      <c r="AH2" s="53"/>
-      <c r="AI2" s="54"/>
-      <c r="AJ2" s="40">
+      <c r="AG2" s="29"/>
+      <c r="AH2" s="29"/>
+      <c r="AI2" s="30"/>
+      <c r="AJ2" s="37">
         <v>44533</v>
       </c>
-      <c r="AK2" s="47"/>
-      <c r="AL2" s="47"/>
-      <c r="AM2" s="47"/>
-      <c r="AN2" s="47"/>
-      <c r="AO2" s="47"/>
-      <c r="AP2" s="47"/>
-      <c r="AQ2" s="48"/>
-      <c r="AR2" s="52" t="s">
+      <c r="AK2" s="35"/>
+      <c r="AL2" s="35"/>
+      <c r="AM2" s="35"/>
+      <c r="AN2" s="35"/>
+      <c r="AO2" s="35"/>
+      <c r="AP2" s="35"/>
+      <c r="AQ2" s="36"/>
+      <c r="AR2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="AS2" s="53"/>
-      <c r="AT2" s="53"/>
-      <c r="AU2" s="54"/>
-      <c r="AV2" s="40">
+      <c r="AS2" s="29"/>
+      <c r="AT2" s="29"/>
+      <c r="AU2" s="30"/>
+      <c r="AV2" s="37">
         <v>44533</v>
       </c>
-      <c r="AW2" s="47"/>
-      <c r="AX2" s="47"/>
-      <c r="AY2" s="47"/>
-      <c r="AZ2" s="47"/>
-      <c r="BA2" s="47"/>
-      <c r="BB2" s="47"/>
-      <c r="BC2" s="48"/>
+      <c r="AW2" s="35"/>
+      <c r="AX2" s="35"/>
+      <c r="AY2" s="35"/>
+      <c r="AZ2" s="35"/>
+      <c r="BA2" s="35"/>
+      <c r="BB2" s="35"/>
+      <c r="BC2" s="36"/>
     </row>
     <row r="3" spans="1:55" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BC3" s="14"/>
     </row>
     <row r="4" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="34" t="s">
-        <v>11</v>
+      <c r="B4" s="50"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="49" t="s">
+        <v>10</v>
       </c>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="34" t="s">
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="R4" s="50"/>
+      <c r="S4" s="50"/>
+      <c r="T4" s="50"/>
+      <c r="U4" s="50"/>
+      <c r="V4" s="50"/>
+      <c r="W4" s="50"/>
+      <c r="X4" s="50"/>
+      <c r="Y4" s="50"/>
+      <c r="Z4" s="50"/>
+      <c r="AA4" s="50"/>
+      <c r="AB4" s="50"/>
+      <c r="AC4" s="50"/>
+      <c r="AD4" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE4" s="50"/>
+      <c r="AF4" s="50"/>
+      <c r="AG4" s="50"/>
+      <c r="AH4" s="50"/>
+      <c r="AI4" s="50"/>
+      <c r="AJ4" s="50"/>
+      <c r="AK4" s="50"/>
+      <c r="AL4" s="50"/>
+      <c r="AM4" s="50"/>
+      <c r="AN4" s="50"/>
+      <c r="AO4" s="50"/>
+      <c r="AP4" s="51"/>
+      <c r="AQ4" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="35"/>
-      <c r="S4" s="35"/>
-      <c r="T4" s="35"/>
-      <c r="U4" s="35"/>
-      <c r="V4" s="35"/>
-      <c r="W4" s="35"/>
-      <c r="X4" s="35"/>
-      <c r="Y4" s="35"/>
-      <c r="Z4" s="35"/>
-      <c r="AA4" s="35"/>
-      <c r="AB4" s="35"/>
-      <c r="AC4" s="35"/>
-      <c r="AD4" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE4" s="35"/>
-      <c r="AF4" s="35"/>
-      <c r="AG4" s="35"/>
-      <c r="AH4" s="35"/>
-      <c r="AI4" s="35"/>
-      <c r="AJ4" s="35"/>
-      <c r="AK4" s="35"/>
-      <c r="AL4" s="35"/>
-      <c r="AM4" s="35"/>
-      <c r="AN4" s="35"/>
-      <c r="AO4" s="35"/>
-      <c r="AP4" s="36"/>
-      <c r="AQ4" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="AR4" s="35"/>
-      <c r="AS4" s="35"/>
-      <c r="AT4" s="35"/>
-      <c r="AU4" s="35"/>
-      <c r="AV4" s="35"/>
-      <c r="AW4" s="35"/>
-      <c r="AX4" s="35"/>
-      <c r="AY4" s="35"/>
-      <c r="AZ4" s="35"/>
-      <c r="BA4" s="35"/>
-      <c r="BB4" s="35"/>
-      <c r="BC4" s="36"/>
+      <c r="AR4" s="50"/>
+      <c r="AS4" s="50"/>
+      <c r="AT4" s="50"/>
+      <c r="AU4" s="50"/>
+      <c r="AV4" s="50"/>
+      <c r="AW4" s="50"/>
+      <c r="AX4" s="50"/>
+      <c r="AY4" s="50"/>
+      <c r="AZ4" s="50"/>
+      <c r="BA4" s="50"/>
+      <c r="BB4" s="50"/>
+      <c r="BC4" s="51"/>
     </row>
     <row r="5" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="37"/>
-      <c r="R5" s="38"/>
-      <c r="S5" s="38"/>
-      <c r="T5" s="38"/>
-      <c r="U5" s="38"/>
-      <c r="V5" s="38"/>
-      <c r="W5" s="38"/>
-      <c r="X5" s="38"/>
-      <c r="Y5" s="38"/>
-      <c r="Z5" s="38"/>
-      <c r="AA5" s="38"/>
-      <c r="AB5" s="38"/>
-      <c r="AC5" s="38"/>
-      <c r="AD5" s="37"/>
-      <c r="AE5" s="38"/>
-      <c r="AF5" s="38"/>
-      <c r="AG5" s="38"/>
-      <c r="AH5" s="38"/>
-      <c r="AI5" s="38"/>
-      <c r="AJ5" s="38"/>
-      <c r="AK5" s="38"/>
-      <c r="AL5" s="38"/>
-      <c r="AM5" s="38"/>
-      <c r="AN5" s="38"/>
-      <c r="AO5" s="38"/>
-      <c r="AP5" s="39"/>
-      <c r="AQ5" s="38"/>
-      <c r="AR5" s="38"/>
-      <c r="AS5" s="38"/>
-      <c r="AT5" s="38"/>
-      <c r="AU5" s="38"/>
-      <c r="AV5" s="38"/>
-      <c r="AW5" s="38"/>
-      <c r="AX5" s="38"/>
-      <c r="AY5" s="38"/>
-      <c r="AZ5" s="38"/>
-      <c r="BA5" s="38"/>
-      <c r="BB5" s="38"/>
-      <c r="BC5" s="39"/>
+      <c r="A5" s="52"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="52"/>
+      <c r="R5" s="53"/>
+      <c r="S5" s="53"/>
+      <c r="T5" s="53"/>
+      <c r="U5" s="53"/>
+      <c r="V5" s="53"/>
+      <c r="W5" s="53"/>
+      <c r="X5" s="53"/>
+      <c r="Y5" s="53"/>
+      <c r="Z5" s="53"/>
+      <c r="AA5" s="53"/>
+      <c r="AB5" s="53"/>
+      <c r="AC5" s="53"/>
+      <c r="AD5" s="52"/>
+      <c r="AE5" s="53"/>
+      <c r="AF5" s="53"/>
+      <c r="AG5" s="53"/>
+      <c r="AH5" s="53"/>
+      <c r="AI5" s="53"/>
+      <c r="AJ5" s="53"/>
+      <c r="AK5" s="53"/>
+      <c r="AL5" s="53"/>
+      <c r="AM5" s="53"/>
+      <c r="AN5" s="53"/>
+      <c r="AO5" s="53"/>
+      <c r="AP5" s="54"/>
+      <c r="AQ5" s="53"/>
+      <c r="AR5" s="53"/>
+      <c r="AS5" s="53"/>
+      <c r="AT5" s="53"/>
+      <c r="AU5" s="53"/>
+      <c r="AV5" s="53"/>
+      <c r="AW5" s="53"/>
+      <c r="AX5" s="53"/>
+      <c r="AY5" s="53"/>
+      <c r="AZ5" s="53"/>
+      <c r="BA5" s="53"/>
+      <c r="BB5" s="53"/>
+      <c r="BC5" s="54"/>
     </row>
     <row r="6" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
-        <v>31</v>
+      <c r="A6" s="40" t="s">
+        <v>30</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="27"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="42"/>
       <c r="D6" s="10"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
@@ -43229,9 +43211,9 @@
       <c r="BC6" s="12"/>
     </row>
     <row r="7" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="30"/>
+      <c r="A7" s="43"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="45"/>
       <c r="D7" s="1"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -43286,9 +43268,9 @@
       <c r="BC7" s="3"/>
     </row>
     <row r="8" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="30"/>
+      <c r="A8" s="43"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="45"/>
       <c r="D8" s="1"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -43343,9 +43325,9 @@
       <c r="BC8" s="3"/>
     </row>
     <row r="9" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="30"/>
+      <c r="A9" s="43"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="45"/>
       <c r="D9" s="1"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -43400,9 +43382,9 @@
       <c r="BC9" s="3"/>
     </row>
     <row r="10" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="30"/>
+      <c r="A10" s="43"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="45"/>
       <c r="D10" s="1"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -43457,9 +43439,9 @@
       <c r="BC10" s="3"/>
     </row>
     <row r="11" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="30"/>
+      <c r="A11" s="43"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="45"/>
       <c r="D11" s="1"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -43514,9 +43496,9 @@
       <c r="BC11" s="3"/>
     </row>
     <row r="12" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="30"/>
+      <c r="A12" s="43"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="45"/>
       <c r="D12" s="1"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -43571,9 +43553,9 @@
       <c r="BC12" s="3"/>
     </row>
     <row r="13" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="30"/>
+      <c r="A13" s="43"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="45"/>
       <c r="D13" s="1"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -43628,9 +43610,9 @@
       <c r="BC13" s="3"/>
     </row>
     <row r="14" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="30"/>
+      <c r="A14" s="43"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="45"/>
       <c r="D14" s="1"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -43685,9 +43667,9 @@
       <c r="BC14" s="3"/>
     </row>
     <row r="15" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="30"/>
+      <c r="A15" s="43"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="45"/>
       <c r="D15" s="1"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -43742,9 +43724,9 @@
       <c r="BC15" s="3"/>
     </row>
     <row r="16" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="30"/>
+      <c r="A16" s="43"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="45"/>
       <c r="D16" s="1"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -43799,9 +43781,9 @@
       <c r="BC16" s="3"/>
     </row>
     <row r="17" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="30"/>
+      <c r="A17" s="43"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="45"/>
       <c r="D17" s="1"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -43856,9 +43838,9 @@
       <c r="BC17" s="3"/>
     </row>
     <row r="18" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="28"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="30"/>
+      <c r="A18" s="43"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="45"/>
       <c r="D18" s="1"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -43913,9 +43895,9 @@
       <c r="BC18" s="3"/>
     </row>
     <row r="19" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="28"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="30"/>
+      <c r="A19" s="43"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="45"/>
       <c r="D19" s="1"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -43970,9 +43952,9 @@
       <c r="BC19" s="3"/>
     </row>
     <row r="20" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="28"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="30"/>
+      <c r="A20" s="43"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="45"/>
       <c r="D20" s="1"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -44027,9 +44009,9 @@
       <c r="BC20" s="3"/>
     </row>
     <row r="21" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="30"/>
+      <c r="A21" s="43"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="45"/>
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -44084,9 +44066,9 @@
       <c r="BC21" s="3"/>
     </row>
     <row r="22" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="28"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="30"/>
+      <c r="A22" s="43"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="45"/>
       <c r="D22" s="1"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -44141,9 +44123,9 @@
       <c r="BC22" s="3"/>
     </row>
     <row r="23" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="28"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="30"/>
+      <c r="A23" s="43"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="45"/>
       <c r="D23" s="1"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -44198,9 +44180,9 @@
       <c r="BC23" s="3"/>
     </row>
     <row r="24" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="28"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="30"/>
+      <c r="A24" s="43"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="45"/>
       <c r="D24" s="1"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -44255,9 +44237,9 @@
       <c r="BC24" s="3"/>
     </row>
     <row r="25" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="28"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="30"/>
+      <c r="A25" s="43"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="45"/>
       <c r="D25" s="1"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -44312,9 +44294,9 @@
       <c r="BC25" s="3"/>
     </row>
     <row r="26" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="28"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="30"/>
+      <c r="A26" s="43"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="45"/>
       <c r="D26" s="1"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -44369,9 +44351,9 @@
       <c r="BC26" s="3"/>
     </row>
     <row r="27" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="28"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="30"/>
+      <c r="A27" s="43"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="45"/>
       <c r="D27" s="1"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -44426,9 +44408,9 @@
       <c r="BC27" s="3"/>
     </row>
     <row r="28" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="28"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="30"/>
+      <c r="A28" s="43"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="45"/>
       <c r="D28" s="1"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -44483,9 +44465,9 @@
       <c r="BC28" s="3"/>
     </row>
     <row r="29" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="28"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="30"/>
+      <c r="A29" s="43"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="45"/>
       <c r="D29" s="1"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -44540,9 +44522,9 @@
       <c r="BC29" s="3"/>
     </row>
     <row r="30" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="28"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="30"/>
+      <c r="A30" s="43"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="45"/>
       <c r="D30" s="1"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -44597,9 +44579,9 @@
       <c r="BC30" s="3"/>
     </row>
     <row r="31" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="28"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="30"/>
+      <c r="A31" s="43"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="45"/>
       <c r="D31" s="1"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -44654,9 +44636,9 @@
       <c r="BC31" s="3"/>
     </row>
     <row r="32" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="28"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="30"/>
+      <c r="A32" s="43"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="45"/>
       <c r="D32" s="1"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -44711,9 +44693,9 @@
       <c r="BC32" s="3"/>
     </row>
     <row r="33" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="28"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="30"/>
+      <c r="A33" s="43"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="45"/>
       <c r="D33" s="1"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -44768,9 +44750,9 @@
       <c r="BC33" s="3"/>
     </row>
     <row r="34" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="28"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="30"/>
+      <c r="A34" s="43"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="45"/>
       <c r="D34" s="1"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -44825,9 +44807,9 @@
       <c r="BC34" s="3"/>
     </row>
     <row r="35" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="28"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="30"/>
+      <c r="A35" s="43"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="45"/>
       <c r="D35" s="1"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -44882,9 +44864,9 @@
       <c r="BC35" s="3"/>
     </row>
     <row r="36" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="28"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="30"/>
+      <c r="A36" s="43"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="45"/>
       <c r="D36" s="1"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -44939,9 +44921,9 @@
       <c r="BC36" s="3"/>
     </row>
     <row r="37" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="28"/>
-      <c r="B37" s="29"/>
-      <c r="C37" s="30"/>
+      <c r="A37" s="43"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="45"/>
       <c r="D37" s="1"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -44996,9 +44978,9 @@
       <c r="BC37" s="3"/>
     </row>
     <row r="38" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="28"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="30"/>
+      <c r="A38" s="43"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="45"/>
       <c r="D38" s="1"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -45053,9 +45035,9 @@
       <c r="BC38" s="3"/>
     </row>
     <row r="39" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="28"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="30"/>
+      <c r="A39" s="43"/>
+      <c r="B39" s="44"/>
+      <c r="C39" s="45"/>
       <c r="D39" s="1"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -45110,9 +45092,9 @@
       <c r="BC39" s="3"/>
     </row>
     <row r="40" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="28"/>
-      <c r="B40" s="29"/>
-      <c r="C40" s="30"/>
+      <c r="A40" s="43"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="45"/>
       <c r="D40" s="1"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -45167,9 +45149,9 @@
       <c r="BC40" s="3"/>
     </row>
     <row r="41" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="28"/>
-      <c r="B41" s="29"/>
-      <c r="C41" s="30"/>
+      <c r="A41" s="43"/>
+      <c r="B41" s="44"/>
+      <c r="C41" s="45"/>
       <c r="D41" s="1"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -45224,9 +45206,9 @@
       <c r="BC41" s="3"/>
     </row>
     <row r="42" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="28"/>
-      <c r="B42" s="29"/>
-      <c r="C42" s="30"/>
+      <c r="A42" s="43"/>
+      <c r="B42" s="44"/>
+      <c r="C42" s="45"/>
       <c r="D42" s="1"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -45281,9 +45263,9 @@
       <c r="BC42" s="3"/>
     </row>
     <row r="43" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="28"/>
-      <c r="B43" s="29"/>
-      <c r="C43" s="30"/>
+      <c r="A43" s="43"/>
+      <c r="B43" s="44"/>
+      <c r="C43" s="45"/>
       <c r="D43" s="1"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -45338,9 +45320,9 @@
       <c r="BC43" s="3"/>
     </row>
     <row r="44" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="28"/>
-      <c r="B44" s="29"/>
-      <c r="C44" s="30"/>
+      <c r="A44" s="43"/>
+      <c r="B44" s="44"/>
+      <c r="C44" s="45"/>
       <c r="D44" s="1"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -45395,9 +45377,9 @@
       <c r="BC44" s="3"/>
     </row>
     <row r="45" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="28"/>
-      <c r="B45" s="29"/>
-      <c r="C45" s="30"/>
+      <c r="A45" s="43"/>
+      <c r="B45" s="44"/>
+      <c r="C45" s="45"/>
       <c r="D45" s="1"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -45452,9 +45434,9 @@
       <c r="BC45" s="3"/>
     </row>
     <row r="46" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="28"/>
-      <c r="B46" s="29"/>
-      <c r="C46" s="30"/>
+      <c r="A46" s="43"/>
+      <c r="B46" s="44"/>
+      <c r="C46" s="45"/>
       <c r="D46" s="1"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
@@ -45509,9 +45491,9 @@
       <c r="BC46" s="3"/>
     </row>
     <row r="47" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="28"/>
-      <c r="B47" s="29"/>
-      <c r="C47" s="30"/>
+      <c r="A47" s="43"/>
+      <c r="B47" s="44"/>
+      <c r="C47" s="45"/>
       <c r="D47" s="1"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
@@ -45566,9 +45548,9 @@
       <c r="BC47" s="3"/>
     </row>
     <row r="48" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="28"/>
-      <c r="B48" s="29"/>
-      <c r="C48" s="30"/>
+      <c r="A48" s="43"/>
+      <c r="B48" s="44"/>
+      <c r="C48" s="45"/>
       <c r="D48" s="1"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
@@ -45623,9 +45605,9 @@
       <c r="BC48" s="3"/>
     </row>
     <row r="49" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="31"/>
-      <c r="B49" s="32"/>
-      <c r="C49" s="33"/>
+      <c r="A49" s="46"/>
+      <c r="B49" s="47"/>
+      <c r="C49" s="48"/>
       <c r="D49" s="7"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
@@ -45680,11 +45662,11 @@
       <c r="BC49" s="9"/>
     </row>
     <row r="50" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="25" t="s">
-        <v>32</v>
+      <c r="A50" s="40" t="s">
+        <v>31</v>
       </c>
-      <c r="B50" s="26"/>
-      <c r="C50" s="27"/>
+      <c r="B50" s="41"/>
+      <c r="C50" s="42"/>
       <c r="D50" s="10"/>
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
@@ -45739,9 +45721,9 @@
       <c r="BC50" s="12"/>
     </row>
     <row r="51" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="28"/>
-      <c r="B51" s="29"/>
-      <c r="C51" s="30"/>
+      <c r="A51" s="43"/>
+      <c r="B51" s="44"/>
+      <c r="C51" s="45"/>
       <c r="D51" s="1"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
@@ -45796,9 +45778,9 @@
       <c r="BC51" s="3"/>
     </row>
     <row r="52" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="28"/>
-      <c r="B52" s="29"/>
-      <c r="C52" s="30"/>
+      <c r="A52" s="43"/>
+      <c r="B52" s="44"/>
+      <c r="C52" s="45"/>
       <c r="D52" s="1"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
@@ -45853,9 +45835,9 @@
       <c r="BC52" s="3"/>
     </row>
     <row r="53" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="28"/>
-      <c r="B53" s="29"/>
-      <c r="C53" s="30"/>
+      <c r="A53" s="43"/>
+      <c r="B53" s="44"/>
+      <c r="C53" s="45"/>
       <c r="D53" s="1"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
@@ -45910,9 +45892,9 @@
       <c r="BC53" s="3"/>
     </row>
     <row r="54" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="28"/>
-      <c r="B54" s="29"/>
-      <c r="C54" s="30"/>
+      <c r="A54" s="43"/>
+      <c r="B54" s="44"/>
+      <c r="C54" s="45"/>
       <c r="D54" s="1"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
@@ -45967,9 +45949,9 @@
       <c r="BC54" s="3"/>
     </row>
     <row r="55" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="28"/>
-      <c r="B55" s="29"/>
-      <c r="C55" s="30"/>
+      <c r="A55" s="43"/>
+      <c r="B55" s="44"/>
+      <c r="C55" s="45"/>
       <c r="D55" s="1"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
@@ -46024,9 +46006,9 @@
       <c r="BC55" s="3"/>
     </row>
     <row r="56" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="28"/>
-      <c r="B56" s="29"/>
-      <c r="C56" s="30"/>
+      <c r="A56" s="43"/>
+      <c r="B56" s="44"/>
+      <c r="C56" s="45"/>
       <c r="D56" s="1"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
@@ -46081,9 +46063,9 @@
       <c r="BC56" s="3"/>
     </row>
     <row r="57" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="28"/>
-      <c r="B57" s="29"/>
-      <c r="C57" s="30"/>
+      <c r="A57" s="43"/>
+      <c r="B57" s="44"/>
+      <c r="C57" s="45"/>
       <c r="D57" s="1"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
@@ -46138,9 +46120,9 @@
       <c r="BC57" s="3"/>
     </row>
     <row r="58" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="28"/>
-      <c r="B58" s="29"/>
-      <c r="C58" s="30"/>
+      <c r="A58" s="43"/>
+      <c r="B58" s="44"/>
+      <c r="C58" s="45"/>
       <c r="D58" s="1"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
@@ -46195,9 +46177,9 @@
       <c r="BC58" s="3"/>
     </row>
     <row r="59" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="28"/>
-      <c r="B59" s="29"/>
-      <c r="C59" s="30"/>
+      <c r="A59" s="43"/>
+      <c r="B59" s="44"/>
+      <c r="C59" s="45"/>
       <c r="D59" s="1"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
@@ -46252,9 +46234,9 @@
       <c r="BC59" s="3"/>
     </row>
     <row r="60" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="28"/>
-      <c r="B60" s="29"/>
-      <c r="C60" s="30"/>
+      <c r="A60" s="43"/>
+      <c r="B60" s="44"/>
+      <c r="C60" s="45"/>
       <c r="D60" s="1"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
@@ -46309,9 +46291,9 @@
       <c r="BC60" s="3"/>
     </row>
     <row r="61" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="28"/>
-      <c r="B61" s="29"/>
-      <c r="C61" s="30"/>
+      <c r="A61" s="43"/>
+      <c r="B61" s="44"/>
+      <c r="C61" s="45"/>
       <c r="D61" s="1"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
@@ -46366,9 +46348,9 @@
       <c r="BC61" s="3"/>
     </row>
     <row r="62" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="28"/>
-      <c r="B62" s="29"/>
-      <c r="C62" s="30"/>
+      <c r="A62" s="43"/>
+      <c r="B62" s="44"/>
+      <c r="C62" s="45"/>
       <c r="D62" s="1"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
@@ -46423,9 +46405,9 @@
       <c r="BC62" s="3"/>
     </row>
     <row r="63" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="28"/>
-      <c r="B63" s="29"/>
-      <c r="C63" s="30"/>
+      <c r="A63" s="43"/>
+      <c r="B63" s="44"/>
+      <c r="C63" s="45"/>
       <c r="D63" s="1"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
@@ -46480,9 +46462,9 @@
       <c r="BC63" s="3"/>
     </row>
     <row r="64" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="28"/>
-      <c r="B64" s="29"/>
-      <c r="C64" s="30"/>
+      <c r="A64" s="43"/>
+      <c r="B64" s="44"/>
+      <c r="C64" s="45"/>
       <c r="D64" s="1"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
@@ -46537,9 +46519,9 @@
       <c r="BC64" s="3"/>
     </row>
     <row r="65" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="28"/>
-      <c r="B65" s="29"/>
-      <c r="C65" s="30"/>
+      <c r="A65" s="43"/>
+      <c r="B65" s="44"/>
+      <c r="C65" s="45"/>
       <c r="D65" s="1"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
@@ -46594,9 +46576,9 @@
       <c r="BC65" s="3"/>
     </row>
     <row r="66" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="28"/>
-      <c r="B66" s="29"/>
-      <c r="C66" s="30"/>
+      <c r="A66" s="43"/>
+      <c r="B66" s="44"/>
+      <c r="C66" s="45"/>
       <c r="D66" s="1"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
@@ -46651,9 +46633,9 @@
       <c r="BC66" s="3"/>
     </row>
     <row r="67" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="28"/>
-      <c r="B67" s="29"/>
-      <c r="C67" s="30"/>
+      <c r="A67" s="43"/>
+      <c r="B67" s="44"/>
+      <c r="C67" s="45"/>
       <c r="D67" s="1"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
@@ -46708,9 +46690,9 @@
       <c r="BC67" s="3"/>
     </row>
     <row r="68" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="28"/>
-      <c r="B68" s="29"/>
-      <c r="C68" s="30"/>
+      <c r="A68" s="43"/>
+      <c r="B68" s="44"/>
+      <c r="C68" s="45"/>
       <c r="D68" s="1"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
@@ -46765,9 +46747,9 @@
       <c r="BC68" s="3"/>
     </row>
     <row r="69" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="28"/>
-      <c r="B69" s="29"/>
-      <c r="C69" s="30"/>
+      <c r="A69" s="43"/>
+      <c r="B69" s="44"/>
+      <c r="C69" s="45"/>
       <c r="D69" s="1"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
@@ -46822,9 +46804,9 @@
       <c r="BC69" s="3"/>
     </row>
     <row r="70" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="28"/>
-      <c r="B70" s="29"/>
-      <c r="C70" s="30"/>
+      <c r="A70" s="43"/>
+      <c r="B70" s="44"/>
+      <c r="C70" s="45"/>
       <c r="D70" s="1"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
@@ -46879,9 +46861,9 @@
       <c r="BC70" s="3"/>
     </row>
     <row r="71" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="28"/>
-      <c r="B71" s="29"/>
-      <c r="C71" s="30"/>
+      <c r="A71" s="43"/>
+      <c r="B71" s="44"/>
+      <c r="C71" s="45"/>
       <c r="D71" s="1"/>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
@@ -46936,9 +46918,9 @@
       <c r="BC71" s="3"/>
     </row>
     <row r="72" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="28"/>
-      <c r="B72" s="29"/>
-      <c r="C72" s="30"/>
+      <c r="A72" s="43"/>
+      <c r="B72" s="44"/>
+      <c r="C72" s="45"/>
       <c r="D72" s="1"/>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
@@ -46993,9 +46975,9 @@
       <c r="BC72" s="3"/>
     </row>
     <row r="73" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="28"/>
-      <c r="B73" s="29"/>
-      <c r="C73" s="30"/>
+      <c r="A73" s="43"/>
+      <c r="B73" s="44"/>
+      <c r="C73" s="45"/>
       <c r="D73" s="1"/>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
@@ -47050,9 +47032,9 @@
       <c r="BC73" s="3"/>
     </row>
     <row r="74" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="28"/>
-      <c r="B74" s="29"/>
-      <c r="C74" s="30"/>
+      <c r="A74" s="43"/>
+      <c r="B74" s="44"/>
+      <c r="C74" s="45"/>
       <c r="D74" s="1"/>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
@@ -47107,9 +47089,9 @@
       <c r="BC74" s="3"/>
     </row>
     <row r="75" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="28"/>
-      <c r="B75" s="29"/>
-      <c r="C75" s="30"/>
+      <c r="A75" s="43"/>
+      <c r="B75" s="44"/>
+      <c r="C75" s="45"/>
       <c r="D75" s="1"/>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
@@ -47164,9 +47146,9 @@
       <c r="BC75" s="3"/>
     </row>
     <row r="76" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="28"/>
-      <c r="B76" s="29"/>
-      <c r="C76" s="30"/>
+      <c r="A76" s="43"/>
+      <c r="B76" s="44"/>
+      <c r="C76" s="45"/>
       <c r="D76" s="1"/>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
@@ -47221,9 +47203,9 @@
       <c r="BC76" s="3"/>
     </row>
     <row r="77" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="28"/>
-      <c r="B77" s="29"/>
-      <c r="C77" s="30"/>
+      <c r="A77" s="43"/>
+      <c r="B77" s="44"/>
+      <c r="C77" s="45"/>
       <c r="D77" s="1"/>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
@@ -47278,9 +47260,9 @@
       <c r="BC77" s="3"/>
     </row>
     <row r="78" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="28"/>
-      <c r="B78" s="29"/>
-      <c r="C78" s="30"/>
+      <c r="A78" s="43"/>
+      <c r="B78" s="44"/>
+      <c r="C78" s="45"/>
       <c r="D78" s="1"/>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
@@ -47335,9 +47317,9 @@
       <c r="BC78" s="3"/>
     </row>
     <row r="79" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="28"/>
-      <c r="B79" s="29"/>
-      <c r="C79" s="30"/>
+      <c r="A79" s="43"/>
+      <c r="B79" s="44"/>
+      <c r="C79" s="45"/>
       <c r="D79" s="1"/>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
@@ -47392,9 +47374,9 @@
       <c r="BC79" s="3"/>
     </row>
     <row r="80" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="28"/>
-      <c r="B80" s="29"/>
-      <c r="C80" s="30"/>
+      <c r="A80" s="43"/>
+      <c r="B80" s="44"/>
+      <c r="C80" s="45"/>
       <c r="D80" s="1"/>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
@@ -47449,9 +47431,9 @@
       <c r="BC80" s="3"/>
     </row>
     <row r="81" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="28"/>
-      <c r="B81" s="29"/>
-      <c r="C81" s="30"/>
+      <c r="A81" s="43"/>
+      <c r="B81" s="44"/>
+      <c r="C81" s="45"/>
       <c r="D81" s="1"/>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
@@ -47506,9 +47488,9 @@
       <c r="BC81" s="3"/>
     </row>
     <row r="82" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="28"/>
-      <c r="B82" s="29"/>
-      <c r="C82" s="30"/>
+      <c r="A82" s="43"/>
+      <c r="B82" s="44"/>
+      <c r="C82" s="45"/>
       <c r="D82" s="1"/>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
@@ -47563,9 +47545,9 @@
       <c r="BC82" s="3"/>
     </row>
     <row r="83" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="28"/>
-      <c r="B83" s="29"/>
-      <c r="C83" s="30"/>
+      <c r="A83" s="43"/>
+      <c r="B83" s="44"/>
+      <c r="C83" s="45"/>
       <c r="D83" s="1"/>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
@@ -47620,9 +47602,9 @@
       <c r="BC83" s="3"/>
     </row>
     <row r="84" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="28"/>
-      <c r="B84" s="29"/>
-      <c r="C84" s="30"/>
+      <c r="A84" s="43"/>
+      <c r="B84" s="44"/>
+      <c r="C84" s="45"/>
       <c r="D84" s="1"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
@@ -47677,9 +47659,9 @@
       <c r="BC84" s="3"/>
     </row>
     <row r="85" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="28"/>
-      <c r="B85" s="29"/>
-      <c r="C85" s="30"/>
+      <c r="A85" s="43"/>
+      <c r="B85" s="44"/>
+      <c r="C85" s="45"/>
       <c r="D85" s="1"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
@@ -47734,9 +47716,9 @@
       <c r="BC85" s="3"/>
     </row>
     <row r="86" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="28"/>
-      <c r="B86" s="29"/>
-      <c r="C86" s="30"/>
+      <c r="A86" s="43"/>
+      <c r="B86" s="44"/>
+      <c r="C86" s="45"/>
       <c r="D86" s="1"/>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
@@ -47791,9 +47773,9 @@
       <c r="BC86" s="3"/>
     </row>
     <row r="87" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="28"/>
-      <c r="B87" s="29"/>
-      <c r="C87" s="30"/>
+      <c r="A87" s="43"/>
+      <c r="B87" s="44"/>
+      <c r="C87" s="45"/>
       <c r="D87" s="1"/>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
@@ -47848,9 +47830,9 @@
       <c r="BC87" s="3"/>
     </row>
     <row r="88" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="28"/>
-      <c r="B88" s="29"/>
-      <c r="C88" s="30"/>
+      <c r="A88" s="43"/>
+      <c r="B88" s="44"/>
+      <c r="C88" s="45"/>
       <c r="D88" s="1"/>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
@@ -47905,9 +47887,9 @@
       <c r="BC88" s="3"/>
     </row>
     <row r="89" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="28"/>
-      <c r="B89" s="29"/>
-      <c r="C89" s="30"/>
+      <c r="A89" s="43"/>
+      <c r="B89" s="44"/>
+      <c r="C89" s="45"/>
       <c r="D89" s="1"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
@@ -47962,9 +47944,9 @@
       <c r="BC89" s="3"/>
     </row>
     <row r="90" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="28"/>
-      <c r="B90" s="29"/>
-      <c r="C90" s="30"/>
+      <c r="A90" s="43"/>
+      <c r="B90" s="44"/>
+      <c r="C90" s="45"/>
       <c r="D90" s="1"/>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
@@ -48019,9 +48001,9 @@
       <c r="BC90" s="3"/>
     </row>
     <row r="91" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="28"/>
-      <c r="B91" s="29"/>
-      <c r="C91" s="30"/>
+      <c r="A91" s="43"/>
+      <c r="B91" s="44"/>
+      <c r="C91" s="45"/>
       <c r="D91" s="1"/>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
@@ -48076,9 +48058,9 @@
       <c r="BC91" s="3"/>
     </row>
     <row r="92" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="28"/>
-      <c r="B92" s="29"/>
-      <c r="C92" s="30"/>
+      <c r="A92" s="43"/>
+      <c r="B92" s="44"/>
+      <c r="C92" s="45"/>
       <c r="D92" s="1"/>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
@@ -48133,9 +48115,9 @@
       <c r="BC92" s="3"/>
     </row>
     <row r="93" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="31"/>
-      <c r="B93" s="32"/>
-      <c r="C93" s="33"/>
+      <c r="A93" s="46"/>
+      <c r="B93" s="47"/>
+      <c r="C93" s="48"/>
       <c r="D93" s="7"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
@@ -48191,13 +48173,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="D4:P5"/>
-    <mergeCell ref="Q4:AC5"/>
-    <mergeCell ref="AD4:AP5"/>
-    <mergeCell ref="AQ4:BC5"/>
-    <mergeCell ref="A50:C93"/>
-    <mergeCell ref="A6:C49"/>
-    <mergeCell ref="A4:C5"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="G1:N1"/>
+    <mergeCell ref="O1:AE1"/>
+    <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="AJ1:AQ1"/>
     <mergeCell ref="AV1:BC1"/>
     <mergeCell ref="G2:N2"/>
     <mergeCell ref="O2:AE2"/>
@@ -48206,11 +48186,13 @@
     <mergeCell ref="AR2:AU2"/>
     <mergeCell ref="AV2:BC2"/>
     <mergeCell ref="AR1:AU1"/>
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="G1:N1"/>
-    <mergeCell ref="O1:AE1"/>
-    <mergeCell ref="AF1:AI1"/>
-    <mergeCell ref="AJ1:AQ1"/>
+    <mergeCell ref="D4:P5"/>
+    <mergeCell ref="Q4:AC5"/>
+    <mergeCell ref="AD4:AP5"/>
+    <mergeCell ref="AQ4:BC5"/>
+    <mergeCell ref="A50:C93"/>
+    <mergeCell ref="A6:C49"/>
+    <mergeCell ref="A4:C5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.11811023622047245" footer="0.11811023622047245"/>
@@ -48239,198 +48221,194 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="43" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="43" t="s">
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="44"/>
-      <c r="AA1" s="44"/>
-      <c r="AB1" s="44"/>
-      <c r="AC1" s="44"/>
-      <c r="AD1" s="44"/>
-      <c r="AE1" s="45"/>
-      <c r="AF1" s="43" t="s">
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="32"/>
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="33"/>
+      <c r="AF1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="44"/>
-      <c r="AH1" s="44"/>
-      <c r="AI1" s="45"/>
-      <c r="AJ1" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="AK1" s="47"/>
-      <c r="AL1" s="47"/>
-      <c r="AM1" s="47"/>
-      <c r="AN1" s="47"/>
-      <c r="AO1" s="47"/>
-      <c r="AP1" s="47"/>
-      <c r="AQ1" s="48"/>
-      <c r="AR1" s="43" t="s">
+      <c r="AG1" s="32"/>
+      <c r="AH1" s="32"/>
+      <c r="AI1" s="33"/>
+      <c r="AJ1" s="34"/>
+      <c r="AK1" s="35"/>
+      <c r="AL1" s="35"/>
+      <c r="AM1" s="35"/>
+      <c r="AN1" s="35"/>
+      <c r="AO1" s="35"/>
+      <c r="AP1" s="35"/>
+      <c r="AQ1" s="36"/>
+      <c r="AR1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="AS1" s="44"/>
-      <c r="AT1" s="44"/>
-      <c r="AU1" s="45"/>
-      <c r="AV1" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="AW1" s="47"/>
-      <c r="AX1" s="47"/>
-      <c r="AY1" s="47"/>
-      <c r="AZ1" s="47"/>
-      <c r="BA1" s="47"/>
-      <c r="BB1" s="47"/>
-      <c r="BC1" s="48"/>
+      <c r="AS1" s="32"/>
+      <c r="AT1" s="32"/>
+      <c r="AU1" s="33"/>
+      <c r="AV1" s="34"/>
+      <c r="AW1" s="35"/>
+      <c r="AX1" s="35"/>
+      <c r="AY1" s="35"/>
+      <c r="AZ1" s="35"/>
+      <c r="BA1" s="35"/>
+      <c r="BB1" s="35"/>
+      <c r="BC1" s="36"/>
     </row>
     <row r="2" spans="1:55" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="52"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="46" t="str">
+      <c r="A2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="34" t="str">
         <f ca="1">RIGHT(CELL("filename",O2),LEN(CELL("filename",O2))-FIND("]",CELL("filename",O2)))</f>
         <v>新規社員登録フロー</v>
       </c>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47"/>
-      <c r="W2" s="47"/>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="47"/>
-      <c r="Z2" s="47"/>
-      <c r="AA2" s="47"/>
-      <c r="AB2" s="47"/>
-      <c r="AC2" s="47"/>
-      <c r="AD2" s="47"/>
-      <c r="AE2" s="48"/>
-      <c r="AF2" s="52" t="s">
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="35"/>
+      <c r="X2" s="35"/>
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="35"/>
+      <c r="AE2" s="36"/>
+      <c r="AF2" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="AG2" s="53"/>
-      <c r="AH2" s="53"/>
-      <c r="AI2" s="54"/>
-      <c r="AJ2" s="40">
+      <c r="AG2" s="29"/>
+      <c r="AH2" s="29"/>
+      <c r="AI2" s="30"/>
+      <c r="AJ2" s="37">
         <v>44533</v>
       </c>
-      <c r="AK2" s="47"/>
-      <c r="AL2" s="47"/>
-      <c r="AM2" s="47"/>
-      <c r="AN2" s="47"/>
-      <c r="AO2" s="47"/>
-      <c r="AP2" s="47"/>
-      <c r="AQ2" s="48"/>
-      <c r="AR2" s="52" t="s">
+      <c r="AK2" s="35"/>
+      <c r="AL2" s="35"/>
+      <c r="AM2" s="35"/>
+      <c r="AN2" s="35"/>
+      <c r="AO2" s="35"/>
+      <c r="AP2" s="35"/>
+      <c r="AQ2" s="36"/>
+      <c r="AR2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="AS2" s="53"/>
-      <c r="AT2" s="53"/>
-      <c r="AU2" s="54"/>
-      <c r="AV2" s="40">
+      <c r="AS2" s="29"/>
+      <c r="AT2" s="29"/>
+      <c r="AU2" s="30"/>
+      <c r="AV2" s="37">
         <v>44533</v>
       </c>
-      <c r="AW2" s="47"/>
-      <c r="AX2" s="47"/>
-      <c r="AY2" s="47"/>
-      <c r="AZ2" s="47"/>
-      <c r="BA2" s="47"/>
-      <c r="BB2" s="47"/>
-      <c r="BC2" s="48"/>
+      <c r="AW2" s="35"/>
+      <c r="AX2" s="35"/>
+      <c r="AY2" s="35"/>
+      <c r="AZ2" s="35"/>
+      <c r="BA2" s="35"/>
+      <c r="BB2" s="35"/>
+      <c r="BC2" s="36"/>
     </row>
     <row r="3" spans="1:55" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BC3" s="14"/>
     </row>
     <row r="4" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="R4" s="35"/>
-      <c r="S4" s="35"/>
-      <c r="T4" s="35"/>
-      <c r="U4" s="35"/>
-      <c r="V4" s="35"/>
-      <c r="W4" s="35"/>
-      <c r="X4" s="35"/>
-      <c r="Y4" s="35"/>
-      <c r="Z4" s="35"/>
-      <c r="AA4" s="35"/>
-      <c r="AB4" s="35"/>
-      <c r="AC4" s="36"/>
-      <c r="AD4" s="35" t="s">
+      <c r="B4" s="50"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="AE4" s="35"/>
-      <c r="AF4" s="35"/>
-      <c r="AG4" s="35"/>
-      <c r="AH4" s="35"/>
-      <c r="AI4" s="35"/>
-      <c r="AJ4" s="35"/>
-      <c r="AK4" s="35"/>
-      <c r="AL4" s="35"/>
-      <c r="AM4" s="35"/>
-      <c r="AN4" s="35"/>
-      <c r="AO4" s="35"/>
-      <c r="AP4" s="36"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="R4" s="50"/>
+      <c r="S4" s="50"/>
+      <c r="T4" s="50"/>
+      <c r="U4" s="50"/>
+      <c r="V4" s="50"/>
+      <c r="W4" s="50"/>
+      <c r="X4" s="50"/>
+      <c r="Y4" s="50"/>
+      <c r="Z4" s="50"/>
+      <c r="AA4" s="50"/>
+      <c r="AB4" s="50"/>
+      <c r="AC4" s="51"/>
+      <c r="AD4" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE4" s="50"/>
+      <c r="AF4" s="50"/>
+      <c r="AG4" s="50"/>
+      <c r="AH4" s="50"/>
+      <c r="AI4" s="50"/>
+      <c r="AJ4" s="50"/>
+      <c r="AK4" s="50"/>
+      <c r="AL4" s="50"/>
+      <c r="AM4" s="50"/>
+      <c r="AN4" s="50"/>
+      <c r="AO4" s="50"/>
+      <c r="AP4" s="51"/>
       <c r="AQ4" s="13"/>
       <c r="AR4" s="13"/>
       <c r="AS4" s="13"/>
@@ -48446,48 +48424,48 @@
       <c r="BC4" s="14"/>
     </row>
     <row r="5" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="37"/>
-      <c r="R5" s="38"/>
-      <c r="S5" s="38"/>
-      <c r="T5" s="38"/>
-      <c r="U5" s="38"/>
-      <c r="V5" s="38"/>
-      <c r="W5" s="38"/>
-      <c r="X5" s="38"/>
-      <c r="Y5" s="38"/>
-      <c r="Z5" s="38"/>
-      <c r="AA5" s="38"/>
-      <c r="AB5" s="38"/>
-      <c r="AC5" s="39"/>
-      <c r="AD5" s="38"/>
-      <c r="AE5" s="38"/>
-      <c r="AF5" s="38"/>
-      <c r="AG5" s="38"/>
-      <c r="AH5" s="38"/>
-      <c r="AI5" s="38"/>
-      <c r="AJ5" s="38"/>
-      <c r="AK5" s="38"/>
-      <c r="AL5" s="38"/>
-      <c r="AM5" s="38"/>
-      <c r="AN5" s="38"/>
-      <c r="AO5" s="38"/>
-      <c r="AP5" s="39"/>
+      <c r="A5" s="52"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="52"/>
+      <c r="R5" s="53"/>
+      <c r="S5" s="53"/>
+      <c r="T5" s="53"/>
+      <c r="U5" s="53"/>
+      <c r="V5" s="53"/>
+      <c r="W5" s="53"/>
+      <c r="X5" s="53"/>
+      <c r="Y5" s="53"/>
+      <c r="Z5" s="53"/>
+      <c r="AA5" s="53"/>
+      <c r="AB5" s="53"/>
+      <c r="AC5" s="54"/>
+      <c r="AD5" s="53"/>
+      <c r="AE5" s="53"/>
+      <c r="AF5" s="53"/>
+      <c r="AG5" s="53"/>
+      <c r="AH5" s="53"/>
+      <c r="AI5" s="53"/>
+      <c r="AJ5" s="53"/>
+      <c r="AK5" s="53"/>
+      <c r="AL5" s="53"/>
+      <c r="AM5" s="53"/>
+      <c r="AN5" s="53"/>
+      <c r="AO5" s="53"/>
+      <c r="AP5" s="54"/>
       <c r="AQ5" s="13"/>
       <c r="AR5" s="13"/>
       <c r="AS5" s="13"/>
@@ -48503,11 +48481,11 @@
       <c r="BC5" s="14"/>
     </row>
     <row r="6" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
-        <v>31</v>
+      <c r="A6" s="40" t="s">
+        <v>30</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="27"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="42"/>
       <c r="D6" s="10"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
@@ -48562,9 +48540,9 @@
       <c r="BC6" s="14"/>
     </row>
     <row r="7" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="30"/>
+      <c r="A7" s="43"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="45"/>
       <c r="D7" s="1"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -48619,9 +48597,9 @@
       <c r="BC7" s="14"/>
     </row>
     <row r="8" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="30"/>
+      <c r="A8" s="43"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="45"/>
       <c r="D8" s="1"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -48676,9 +48654,9 @@
       <c r="BC8" s="14"/>
     </row>
     <row r="9" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="30"/>
+      <c r="A9" s="43"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="45"/>
       <c r="D9" s="1"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -48733,9 +48711,9 @@
       <c r="BC9" s="14"/>
     </row>
     <row r="10" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="30"/>
+      <c r="A10" s="43"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="45"/>
       <c r="D10" s="1"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -48790,9 +48768,9 @@
       <c r="BC10" s="14"/>
     </row>
     <row r="11" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="30"/>
+      <c r="A11" s="43"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="45"/>
       <c r="D11" s="1"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -48847,9 +48825,9 @@
       <c r="BC11" s="14"/>
     </row>
     <row r="12" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="30"/>
+      <c r="A12" s="43"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="45"/>
       <c r="D12" s="1"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -48904,9 +48882,9 @@
       <c r="BC12" s="14"/>
     </row>
     <row r="13" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="30"/>
+      <c r="A13" s="43"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="45"/>
       <c r="D13" s="1"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -48961,9 +48939,9 @@
       <c r="BC13" s="14"/>
     </row>
     <row r="14" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="30"/>
+      <c r="A14" s="43"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="45"/>
       <c r="D14" s="1"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -49018,9 +48996,9 @@
       <c r="BC14" s="14"/>
     </row>
     <row r="15" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="30"/>
+      <c r="A15" s="43"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="45"/>
       <c r="D15" s="1"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -49075,9 +49053,9 @@
       <c r="BC15" s="14"/>
     </row>
     <row r="16" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="30"/>
+      <c r="A16" s="43"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="45"/>
       <c r="D16" s="1"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -49132,9 +49110,9 @@
       <c r="BC16" s="14"/>
     </row>
     <row r="17" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="30"/>
+      <c r="A17" s="43"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="45"/>
       <c r="D17" s="1"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -49189,9 +49167,9 @@
       <c r="BC17" s="14"/>
     </row>
     <row r="18" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="28"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="30"/>
+      <c r="A18" s="43"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="45"/>
       <c r="D18" s="1"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -49246,9 +49224,9 @@
       <c r="BC18" s="14"/>
     </row>
     <row r="19" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="28"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="30"/>
+      <c r="A19" s="43"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="45"/>
       <c r="D19" s="1"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -49303,9 +49281,9 @@
       <c r="BC19" s="14"/>
     </row>
     <row r="20" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="28"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="30"/>
+      <c r="A20" s="43"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="45"/>
       <c r="D20" s="1"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -49360,9 +49338,9 @@
       <c r="BC20" s="14"/>
     </row>
     <row r="21" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="30"/>
+      <c r="A21" s="43"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="45"/>
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -49417,9 +49395,9 @@
       <c r="BC21" s="14"/>
     </row>
     <row r="22" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="28"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="30"/>
+      <c r="A22" s="43"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="45"/>
       <c r="D22" s="1"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -49474,9 +49452,9 @@
       <c r="BC22" s="14"/>
     </row>
     <row r="23" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="28"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="30"/>
+      <c r="A23" s="43"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="45"/>
       <c r="D23" s="1"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -49531,9 +49509,9 @@
       <c r="BC23" s="14"/>
     </row>
     <row r="24" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="28"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="30"/>
+      <c r="A24" s="43"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="45"/>
       <c r="D24" s="1"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -49588,9 +49566,9 @@
       <c r="BC24" s="14"/>
     </row>
     <row r="25" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="28"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="30"/>
+      <c r="A25" s="43"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="45"/>
       <c r="D25" s="1"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -49645,9 +49623,9 @@
       <c r="BC25" s="14"/>
     </row>
     <row r="26" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="28"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="30"/>
+      <c r="A26" s="43"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="45"/>
       <c r="D26" s="1"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -49702,9 +49680,9 @@
       <c r="BC26" s="14"/>
     </row>
     <row r="27" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="28"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="30"/>
+      <c r="A27" s="43"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="45"/>
       <c r="D27" s="1"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -49759,9 +49737,9 @@
       <c r="BC27" s="14"/>
     </row>
     <row r="28" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="28"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="30"/>
+      <c r="A28" s="43"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="45"/>
       <c r="D28" s="1"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -49816,9 +49794,9 @@
       <c r="BC28" s="14"/>
     </row>
     <row r="29" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="28"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="30"/>
+      <c r="A29" s="43"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="45"/>
       <c r="D29" s="1"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -49873,9 +49851,9 @@
       <c r="BC29" s="14"/>
     </row>
     <row r="30" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="28"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="30"/>
+      <c r="A30" s="43"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="45"/>
       <c r="D30" s="1"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -49930,9 +49908,9 @@
       <c r="BC30" s="14"/>
     </row>
     <row r="31" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="28"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="30"/>
+      <c r="A31" s="43"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="45"/>
       <c r="D31" s="1"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -49987,9 +49965,9 @@
       <c r="BC31" s="14"/>
     </row>
     <row r="32" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="28"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="30"/>
+      <c r="A32" s="43"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="45"/>
       <c r="D32" s="1"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -50044,9 +50022,9 @@
       <c r="BC32" s="14"/>
     </row>
     <row r="33" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="28"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="30"/>
+      <c r="A33" s="43"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="45"/>
       <c r="D33" s="1"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -50101,9 +50079,9 @@
       <c r="BC33" s="14"/>
     </row>
     <row r="34" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="28"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="30"/>
+      <c r="A34" s="43"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="45"/>
       <c r="D34" s="1"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -50158,9 +50136,9 @@
       <c r="BC34" s="14"/>
     </row>
     <row r="35" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="28"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="30"/>
+      <c r="A35" s="43"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="45"/>
       <c r="D35" s="1"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -50215,9 +50193,9 @@
       <c r="BC35" s="14"/>
     </row>
     <row r="36" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="28"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="30"/>
+      <c r="A36" s="43"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="45"/>
       <c r="D36" s="1"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -50272,9 +50250,9 @@
       <c r="BC36" s="14"/>
     </row>
     <row r="37" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="28"/>
-      <c r="B37" s="29"/>
-      <c r="C37" s="30"/>
+      <c r="A37" s="43"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="45"/>
       <c r="D37" s="1"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -50329,9 +50307,9 @@
       <c r="BC37" s="14"/>
     </row>
     <row r="38" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="28"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="30"/>
+      <c r="A38" s="43"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="45"/>
       <c r="D38" s="1"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -50386,9 +50364,9 @@
       <c r="BC38" s="14"/>
     </row>
     <row r="39" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="28"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="30"/>
+      <c r="A39" s="43"/>
+      <c r="B39" s="44"/>
+      <c r="C39" s="45"/>
       <c r="D39" s="1"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -50443,9 +50421,9 @@
       <c r="BC39" s="14"/>
     </row>
     <row r="40" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="28"/>
-      <c r="B40" s="29"/>
-      <c r="C40" s="30"/>
+      <c r="A40" s="43"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="45"/>
       <c r="D40" s="1"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -50500,9 +50478,9 @@
       <c r="BC40" s="14"/>
     </row>
     <row r="41" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="28"/>
-      <c r="B41" s="29"/>
-      <c r="C41" s="30"/>
+      <c r="A41" s="43"/>
+      <c r="B41" s="44"/>
+      <c r="C41" s="45"/>
       <c r="D41" s="1"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -50557,9 +50535,9 @@
       <c r="BC41" s="14"/>
     </row>
     <row r="42" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="28"/>
-      <c r="B42" s="29"/>
-      <c r="C42" s="30"/>
+      <c r="A42" s="43"/>
+      <c r="B42" s="44"/>
+      <c r="C42" s="45"/>
       <c r="D42" s="1"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -50614,9 +50592,9 @@
       <c r="BC42" s="14"/>
     </row>
     <row r="43" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="28"/>
-      <c r="B43" s="29"/>
-      <c r="C43" s="30"/>
+      <c r="A43" s="43"/>
+      <c r="B43" s="44"/>
+      <c r="C43" s="45"/>
       <c r="D43" s="1"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -50671,9 +50649,9 @@
       <c r="BC43" s="14"/>
     </row>
     <row r="44" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="28"/>
-      <c r="B44" s="29"/>
-      <c r="C44" s="30"/>
+      <c r="A44" s="43"/>
+      <c r="B44" s="44"/>
+      <c r="C44" s="45"/>
       <c r="D44" s="1"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -50728,9 +50706,9 @@
       <c r="BC44" s="14"/>
     </row>
     <row r="45" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="28"/>
-      <c r="B45" s="29"/>
-      <c r="C45" s="30"/>
+      <c r="A45" s="43"/>
+      <c r="B45" s="44"/>
+      <c r="C45" s="45"/>
       <c r="D45" s="1"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -50785,9 +50763,9 @@
       <c r="BC45" s="14"/>
     </row>
     <row r="46" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="28"/>
-      <c r="B46" s="29"/>
-      <c r="C46" s="30"/>
+      <c r="A46" s="43"/>
+      <c r="B46" s="44"/>
+      <c r="C46" s="45"/>
       <c r="D46" s="1"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
@@ -50842,9 +50820,9 @@
       <c r="BC46" s="14"/>
     </row>
     <row r="47" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="28"/>
-      <c r="B47" s="29"/>
-      <c r="C47" s="30"/>
+      <c r="A47" s="43"/>
+      <c r="B47" s="44"/>
+      <c r="C47" s="45"/>
       <c r="D47" s="1"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
@@ -50899,9 +50877,9 @@
       <c r="BC47" s="14"/>
     </row>
     <row r="48" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="28"/>
-      <c r="B48" s="29"/>
-      <c r="C48" s="30"/>
+      <c r="A48" s="43"/>
+      <c r="B48" s="44"/>
+      <c r="C48" s="45"/>
       <c r="D48" s="1"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
@@ -50956,9 +50934,9 @@
       <c r="BC48" s="14"/>
     </row>
     <row r="49" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="28"/>
-      <c r="B49" s="29"/>
-      <c r="C49" s="30"/>
+      <c r="A49" s="43"/>
+      <c r="B49" s="44"/>
+      <c r="C49" s="45"/>
       <c r="D49" s="1"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -51013,9 +50991,9 @@
       <c r="BC49" s="14"/>
     </row>
     <row r="50" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="28"/>
-      <c r="B50" s="29"/>
-      <c r="C50" s="30"/>
+      <c r="A50" s="43"/>
+      <c r="B50" s="44"/>
+      <c r="C50" s="45"/>
       <c r="D50" s="1"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
@@ -51070,9 +51048,9 @@
       <c r="BC50" s="14"/>
     </row>
     <row r="51" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="28"/>
-      <c r="B51" s="29"/>
-      <c r="C51" s="30"/>
+      <c r="A51" s="43"/>
+      <c r="B51" s="44"/>
+      <c r="C51" s="45"/>
       <c r="D51" s="1"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
@@ -51127,9 +51105,9 @@
       <c r="BC51" s="14"/>
     </row>
     <row r="52" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="28"/>
-      <c r="B52" s="29"/>
-      <c r="C52" s="30"/>
+      <c r="A52" s="43"/>
+      <c r="B52" s="44"/>
+      <c r="C52" s="45"/>
       <c r="D52" s="1"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
@@ -51184,9 +51162,9 @@
       <c r="BC52" s="14"/>
     </row>
     <row r="53" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="28"/>
-      <c r="B53" s="29"/>
-      <c r="C53" s="30"/>
+      <c r="A53" s="43"/>
+      <c r="B53" s="44"/>
+      <c r="C53" s="45"/>
       <c r="D53" s="1"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
@@ -51241,9 +51219,9 @@
       <c r="BC53" s="14"/>
     </row>
     <row r="54" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="28"/>
-      <c r="B54" s="29"/>
-      <c r="C54" s="30"/>
+      <c r="A54" s="43"/>
+      <c r="B54" s="44"/>
+      <c r="C54" s="45"/>
       <c r="D54" s="1"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
@@ -51298,9 +51276,9 @@
       <c r="BC54" s="14"/>
     </row>
     <row r="55" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="28"/>
-      <c r="B55" s="29"/>
-      <c r="C55" s="30"/>
+      <c r="A55" s="43"/>
+      <c r="B55" s="44"/>
+      <c r="C55" s="45"/>
       <c r="D55" s="1"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
@@ -51355,9 +51333,9 @@
       <c r="BC55" s="14"/>
     </row>
     <row r="56" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="28"/>
-      <c r="B56" s="29"/>
-      <c r="C56" s="30"/>
+      <c r="A56" s="43"/>
+      <c r="B56" s="44"/>
+      <c r="C56" s="45"/>
       <c r="D56" s="1"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
@@ -51412,9 +51390,9 @@
       <c r="BC56" s="14"/>
     </row>
     <row r="57" spans="1:55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="31"/>
-      <c r="B57" s="32"/>
-      <c r="C57" s="33"/>
+      <c r="A57" s="46"/>
+      <c r="B57" s="47"/>
+      <c r="C57" s="48"/>
       <c r="D57" s="7"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
@@ -51470,11 +51448,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="G1:N1"/>
-    <mergeCell ref="O1:AE1"/>
-    <mergeCell ref="AF1:AI1"/>
-    <mergeCell ref="AJ1:AQ1"/>
+    <mergeCell ref="A4:C5"/>
+    <mergeCell ref="D4:P5"/>
+    <mergeCell ref="Q4:AC5"/>
+    <mergeCell ref="AD4:AP5"/>
+    <mergeCell ref="A6:C57"/>
     <mergeCell ref="AV1:BC1"/>
     <mergeCell ref="G2:N2"/>
     <mergeCell ref="O2:AE2"/>
@@ -51483,11 +51461,11 @@
     <mergeCell ref="AR2:AU2"/>
     <mergeCell ref="AV2:BC2"/>
     <mergeCell ref="AR1:AU1"/>
-    <mergeCell ref="A4:C5"/>
-    <mergeCell ref="D4:P5"/>
-    <mergeCell ref="Q4:AC5"/>
-    <mergeCell ref="AD4:AP5"/>
-    <mergeCell ref="A6:C57"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="G1:N1"/>
+    <mergeCell ref="O1:AE1"/>
+    <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="AJ1:AQ1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.11811023622047245" footer="0.11811023622047245"/>
